--- a/Project/WBS/WBS.xlsx
+++ b/Project/WBS/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Rocky8\home\jpe\VKI\Project\WBS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4E0775-DBB2-431F-ABC3-CF6EDA1EEAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C50128-5A3B-4B1B-87C7-DB49018D5124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{4193C9DE-3FB7-4968-8ACD-ED791975EF27}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
   <si>
     <t>Project title</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Presentation</t>
-  </si>
-  <si>
-    <t>Literature review</t>
   </si>
   <si>
     <t>PPR</t>
@@ -178,15 +175,6 @@
     <t>Task 4</t>
   </si>
   <si>
-    <t>Tool Comparison and Evaluation</t>
-  </si>
-  <si>
-    <t>Experimental Conditions Expansion</t>
-  </si>
-  <si>
-    <t>Database Preparation</t>
-  </si>
-  <si>
     <t>Neural Network Model Development</t>
   </si>
   <si>
@@ -194,48 +182,11 @@
 (midterm)</t>
   </si>
   <si>
-    <t>General Theory review</t>
-  </si>
-  <si>
     <t>Stagline simulation</t>
-  </si>
-  <si>
-    <t>Comparative Analysis
-ICP, ICP + BL, Stagline,(OpenFOAM)</t>
-  </si>
-  <si>
-    <t>Experimental Data Handling</t>
-  </si>
-  <si>
-    <t>Experimental and Computational Beta Comparison</t>
-  </si>
-  <si>
-    <t>Most Reliable Tool Identification</t>
-  </si>
-  <si>
-    <t>Database Structuring</t>
-  </si>
-  <si>
-    <t>Data Population</t>
-  </si>
-  <si>
-    <t>NN Architecture Definition</t>
-  </si>
-  <si>
-    <t>Training and Optimization</t>
-  </si>
-  <si>
-    <t>Validation and Testing</t>
-  </si>
-  <si>
-    <t>Previous Studies on ICP, BL, Stagline, (OpenFOAM) review</t>
   </si>
   <si>
     <t>Development of a fast and reliable method for ground test condition
 determination</t>
-  </si>
-  <si>
-    <t>Completeness and Consistency Check</t>
   </si>
   <si>
     <t>Bibliographic 
@@ -258,12 +209,56 @@
     <t>PET 
 (dec/midterm/final)</t>
   </si>
+  <si>
+    <t>Literature review/
+Background analysis</t>
+  </si>
+  <si>
+    <t>Database development</t>
+  </si>
+  <si>
+    <t>General Theory (LTHS)</t>
+  </si>
+  <si>
+    <t>ICP - BL codes review</t>
+  </si>
+  <si>
+    <t>Stagline installation</t>
+  </si>
+  <si>
+    <t>Preparation of initial database</t>
+  </si>
+  <si>
+    <t>Comparative Analysis
+ICP &lt;--&gt; Stagline</t>
+  </si>
+  <si>
+    <t>Identifying correction for ICP beta outputs</t>
+  </si>
+  <si>
+    <t>Application of the correction to a broader database</t>
+  </si>
+  <si>
+    <t>Database assembling</t>
+  </si>
+  <si>
+    <t>NN structure definition</t>
+  </si>
+  <si>
+    <t>NN training</t>
+  </si>
+  <si>
+    <t>NN validation</t>
+  </si>
+  <si>
+    <t>Stagline simulation on new conditions (from Plams. exp. Campaign)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,8 +274,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,6 +334,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -585,10 +593,82 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -600,6 +680,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,116 +752,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1071,7 +1095,7 @@
   <dimension ref="A1:XFB61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="52" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1099,18 +1123,18 @@
   <sheetData>
     <row r="1" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I2" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="29"/>
+      <c r="E2" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="30"/>
       <c r="AS2" s="14"/>
       <c r="AT2" s="15"/>
       <c r="AU2" s="15"/>
@@ -1121,8 +1145,8 @@
       <c r="AZ2" s="15"/>
       <c r="BA2" s="15"/>
       <c r="BB2" s="16"/>
-      <c r="BI2" s="33"/>
-      <c r="BJ2" s="34"/>
+      <c r="BI2" s="34"/>
+      <c r="BJ2" s="35"/>
       <c r="CA2" s="14"/>
       <c r="CB2" s="15"/>
       <c r="CC2" s="15"/>
@@ -1133,8 +1157,8 @@
       <c r="CH2" s="15"/>
       <c r="CI2" s="15"/>
       <c r="CJ2" s="16"/>
-      <c r="CQ2" s="33"/>
-      <c r="CR2" s="34"/>
+      <c r="CQ2" s="34"/>
+      <c r="CR2" s="35"/>
       <c r="DI2" s="14"/>
       <c r="DJ2" s="15"/>
       <c r="DK2" s="15"/>
@@ -1145,8 +1169,8 @@
       <c r="DP2" s="15"/>
       <c r="DQ2" s="15"/>
       <c r="DR2" s="16"/>
-      <c r="DY2" s="33"/>
-      <c r="DZ2" s="34"/>
+      <c r="DY2" s="34"/>
+      <c r="DZ2" s="35"/>
       <c r="EQ2" s="14"/>
       <c r="ER2" s="15"/>
       <c r="ES2" s="15"/>
@@ -1157,8 +1181,8 @@
       <c r="EX2" s="15"/>
       <c r="EY2" s="15"/>
       <c r="EZ2" s="16"/>
-      <c r="FG2" s="33"/>
-      <c r="FH2" s="34"/>
+      <c r="FG2" s="34"/>
+      <c r="FH2" s="35"/>
       <c r="FY2" s="14"/>
       <c r="FZ2" s="15"/>
       <c r="GA2" s="15"/>
@@ -1169,8 +1193,8 @@
       <c r="GF2" s="15"/>
       <c r="GG2" s="15"/>
       <c r="GH2" s="16"/>
-      <c r="GO2" s="33"/>
-      <c r="GP2" s="34"/>
+      <c r="GO2" s="34"/>
+      <c r="GP2" s="35"/>
       <c r="HG2" s="14"/>
       <c r="HH2" s="15"/>
       <c r="HI2" s="15"/>
@@ -1181,8 +1205,8 @@
       <c r="HN2" s="15"/>
       <c r="HO2" s="15"/>
       <c r="HP2" s="16"/>
-      <c r="HW2" s="33"/>
-      <c r="HX2" s="34"/>
+      <c r="HW2" s="34"/>
+      <c r="HX2" s="35"/>
       <c r="IO2" s="14"/>
       <c r="IP2" s="15"/>
       <c r="IQ2" s="15"/>
@@ -1193,8 +1217,8 @@
       <c r="IV2" s="15"/>
       <c r="IW2" s="15"/>
       <c r="IX2" s="16"/>
-      <c r="JE2" s="33"/>
-      <c r="JF2" s="34"/>
+      <c r="JE2" s="34"/>
+      <c r="JF2" s="35"/>
       <c r="JW2" s="14"/>
       <c r="JX2" s="15"/>
       <c r="JY2" s="15"/>
@@ -1205,8 +1229,8 @@
       <c r="KD2" s="15"/>
       <c r="KE2" s="15"/>
       <c r="KF2" s="16"/>
-      <c r="KM2" s="33"/>
-      <c r="KN2" s="34"/>
+      <c r="KM2" s="34"/>
+      <c r="KN2" s="35"/>
       <c r="LE2" s="14"/>
       <c r="LF2" s="15"/>
       <c r="LG2" s="15"/>
@@ -1217,8 +1241,8 @@
       <c r="LL2" s="15"/>
       <c r="LM2" s="15"/>
       <c r="LN2" s="16"/>
-      <c r="LU2" s="33"/>
-      <c r="LV2" s="34"/>
+      <c r="LU2" s="34"/>
+      <c r="LV2" s="35"/>
       <c r="MM2" s="14"/>
       <c r="MN2" s="15"/>
       <c r="MO2" s="15"/>
@@ -1229,8 +1253,8 @@
       <c r="MT2" s="15"/>
       <c r="MU2" s="15"/>
       <c r="MV2" s="16"/>
-      <c r="NC2" s="33"/>
-      <c r="ND2" s="34"/>
+      <c r="NC2" s="34"/>
+      <c r="ND2" s="35"/>
       <c r="NU2" s="14"/>
       <c r="NV2" s="15"/>
       <c r="NW2" s="15"/>
@@ -1241,8 +1265,8 @@
       <c r="OB2" s="15"/>
       <c r="OC2" s="15"/>
       <c r="OD2" s="16"/>
-      <c r="OK2" s="33"/>
-      <c r="OL2" s="34"/>
+      <c r="OK2" s="34"/>
+      <c r="OL2" s="35"/>
       <c r="PC2" s="14"/>
       <c r="PD2" s="15"/>
       <c r="PE2" s="15"/>
@@ -1253,8 +1277,8 @@
       <c r="PJ2" s="15"/>
       <c r="PK2" s="15"/>
       <c r="PL2" s="16"/>
-      <c r="PS2" s="33"/>
-      <c r="PT2" s="34"/>
+      <c r="PS2" s="34"/>
+      <c r="PT2" s="35"/>
       <c r="QK2" s="14"/>
       <c r="QL2" s="15"/>
       <c r="QM2" s="15"/>
@@ -1265,8 +1289,8 @@
       <c r="QR2" s="15"/>
       <c r="QS2" s="15"/>
       <c r="QT2" s="16"/>
-      <c r="RA2" s="33"/>
-      <c r="RB2" s="34"/>
+      <c r="RA2" s="34"/>
+      <c r="RB2" s="35"/>
       <c r="RS2" s="14"/>
       <c r="RT2" s="15"/>
       <c r="RU2" s="15"/>
@@ -1277,8 +1301,8 @@
       <c r="RZ2" s="15"/>
       <c r="SA2" s="15"/>
       <c r="SB2" s="16"/>
-      <c r="SI2" s="33"/>
-      <c r="SJ2" s="34"/>
+      <c r="SI2" s="34"/>
+      <c r="SJ2" s="35"/>
       <c r="TA2" s="14"/>
       <c r="TB2" s="15"/>
       <c r="TC2" s="15"/>
@@ -1289,8 +1313,8 @@
       <c r="TH2" s="15"/>
       <c r="TI2" s="15"/>
       <c r="TJ2" s="16"/>
-      <c r="TQ2" s="33"/>
-      <c r="TR2" s="34"/>
+      <c r="TQ2" s="34"/>
+      <c r="TR2" s="35"/>
       <c r="UI2" s="14"/>
       <c r="UJ2" s="15"/>
       <c r="UK2" s="15"/>
@@ -1301,8 +1325,8 @@
       <c r="UP2" s="15"/>
       <c r="UQ2" s="15"/>
       <c r="UR2" s="16"/>
-      <c r="UY2" s="33"/>
-      <c r="UZ2" s="34"/>
+      <c r="UY2" s="34"/>
+      <c r="UZ2" s="35"/>
       <c r="VQ2" s="14"/>
       <c r="VR2" s="15"/>
       <c r="VS2" s="15"/>
@@ -1313,8 +1337,8 @@
       <c r="VX2" s="15"/>
       <c r="VY2" s="15"/>
       <c r="VZ2" s="16"/>
-      <c r="WG2" s="33"/>
-      <c r="WH2" s="34"/>
+      <c r="WG2" s="34"/>
+      <c r="WH2" s="35"/>
       <c r="WY2" s="14"/>
       <c r="WZ2" s="15"/>
       <c r="XA2" s="15"/>
@@ -1325,8 +1349,8 @@
       <c r="XF2" s="15"/>
       <c r="XG2" s="15"/>
       <c r="XH2" s="16"/>
-      <c r="XO2" s="33"/>
-      <c r="XP2" s="34"/>
+      <c r="XO2" s="34"/>
+      <c r="XP2" s="35"/>
       <c r="YG2" s="14"/>
       <c r="YH2" s="15"/>
       <c r="YI2" s="15"/>
@@ -1337,8 +1361,8 @@
       <c r="YN2" s="15"/>
       <c r="YO2" s="15"/>
       <c r="YP2" s="16"/>
-      <c r="YW2" s="33"/>
-      <c r="YX2" s="34"/>
+      <c r="YW2" s="34"/>
+      <c r="YX2" s="35"/>
       <c r="ZO2" s="14"/>
       <c r="ZP2" s="15"/>
       <c r="ZQ2" s="15"/>
@@ -1349,8 +1373,8 @@
       <c r="ZV2" s="15"/>
       <c r="ZW2" s="15"/>
       <c r="ZX2" s="16"/>
-      <c r="AAE2" s="33"/>
-      <c r="AAF2" s="34"/>
+      <c r="AAE2" s="34"/>
+      <c r="AAF2" s="35"/>
       <c r="AAW2" s="14"/>
       <c r="AAX2" s="15"/>
       <c r="AAY2" s="15"/>
@@ -1361,8 +1385,8 @@
       <c r="ABD2" s="15"/>
       <c r="ABE2" s="15"/>
       <c r="ABF2" s="16"/>
-      <c r="ABM2" s="33"/>
-      <c r="ABN2" s="34"/>
+      <c r="ABM2" s="34"/>
+      <c r="ABN2" s="35"/>
       <c r="ACE2" s="14"/>
       <c r="ACF2" s="15"/>
       <c r="ACG2" s="15"/>
@@ -1373,8 +1397,8 @@
       <c r="ACL2" s="15"/>
       <c r="ACM2" s="15"/>
       <c r="ACN2" s="16"/>
-      <c r="ACU2" s="33"/>
-      <c r="ACV2" s="34"/>
+      <c r="ACU2" s="34"/>
+      <c r="ACV2" s="35"/>
       <c r="ADM2" s="14"/>
       <c r="ADN2" s="15"/>
       <c r="ADO2" s="15"/>
@@ -1385,8 +1409,8 @@
       <c r="ADT2" s="15"/>
       <c r="ADU2" s="15"/>
       <c r="ADV2" s="16"/>
-      <c r="AEC2" s="33"/>
-      <c r="AED2" s="34"/>
+      <c r="AEC2" s="34"/>
+      <c r="AED2" s="35"/>
       <c r="AEU2" s="14"/>
       <c r="AEV2" s="15"/>
       <c r="AEW2" s="15"/>
@@ -1397,8 +1421,8 @@
       <c r="AFB2" s="15"/>
       <c r="AFC2" s="15"/>
       <c r="AFD2" s="16"/>
-      <c r="AFK2" s="33"/>
-      <c r="AFL2" s="34"/>
+      <c r="AFK2" s="34"/>
+      <c r="AFL2" s="35"/>
       <c r="AGC2" s="14"/>
       <c r="AGD2" s="15"/>
       <c r="AGE2" s="15"/>
@@ -1409,8 +1433,8 @@
       <c r="AGJ2" s="15"/>
       <c r="AGK2" s="15"/>
       <c r="AGL2" s="16"/>
-      <c r="AGS2" s="33"/>
-      <c r="AGT2" s="34"/>
+      <c r="AGS2" s="34"/>
+      <c r="AGT2" s="35"/>
       <c r="AHK2" s="14"/>
       <c r="AHL2" s="15"/>
       <c r="AHM2" s="15"/>
@@ -1421,8 +1445,8 @@
       <c r="AHR2" s="15"/>
       <c r="AHS2" s="15"/>
       <c r="AHT2" s="16"/>
-      <c r="AIA2" s="33"/>
-      <c r="AIB2" s="34"/>
+      <c r="AIA2" s="34"/>
+      <c r="AIB2" s="35"/>
       <c r="AIS2" s="14"/>
       <c r="AIT2" s="15"/>
       <c r="AIU2" s="15"/>
@@ -1433,8 +1457,8 @@
       <c r="AIZ2" s="15"/>
       <c r="AJA2" s="15"/>
       <c r="AJB2" s="16"/>
-      <c r="AJI2" s="33"/>
-      <c r="AJJ2" s="34"/>
+      <c r="AJI2" s="34"/>
+      <c r="AJJ2" s="35"/>
       <c r="AKA2" s="14"/>
       <c r="AKB2" s="15"/>
       <c r="AKC2" s="15"/>
@@ -1445,8 +1469,8 @@
       <c r="AKH2" s="15"/>
       <c r="AKI2" s="15"/>
       <c r="AKJ2" s="16"/>
-      <c r="AKQ2" s="33"/>
-      <c r="AKR2" s="34"/>
+      <c r="AKQ2" s="34"/>
+      <c r="AKR2" s="35"/>
       <c r="ALI2" s="14"/>
       <c r="ALJ2" s="15"/>
       <c r="ALK2" s="15"/>
@@ -1457,8 +1481,8 @@
       <c r="ALP2" s="15"/>
       <c r="ALQ2" s="15"/>
       <c r="ALR2" s="16"/>
-      <c r="ALY2" s="33"/>
-      <c r="ALZ2" s="34"/>
+      <c r="ALY2" s="34"/>
+      <c r="ALZ2" s="35"/>
       <c r="AMQ2" s="14"/>
       <c r="AMR2" s="15"/>
       <c r="AMS2" s="15"/>
@@ -1469,8 +1493,8 @@
       <c r="AMX2" s="15"/>
       <c r="AMY2" s="15"/>
       <c r="AMZ2" s="16"/>
-      <c r="ANG2" s="33"/>
-      <c r="ANH2" s="34"/>
+      <c r="ANG2" s="34"/>
+      <c r="ANH2" s="35"/>
       <c r="ANY2" s="14"/>
       <c r="ANZ2" s="15"/>
       <c r="AOA2" s="15"/>
@@ -1481,8 +1505,8 @@
       <c r="AOF2" s="15"/>
       <c r="AOG2" s="15"/>
       <c r="AOH2" s="16"/>
-      <c r="AOO2" s="33"/>
-      <c r="AOP2" s="34"/>
+      <c r="AOO2" s="34"/>
+      <c r="AOP2" s="35"/>
       <c r="APG2" s="14"/>
       <c r="APH2" s="15"/>
       <c r="API2" s="15"/>
@@ -1493,8 +1517,8 @@
       <c r="APN2" s="15"/>
       <c r="APO2" s="15"/>
       <c r="APP2" s="16"/>
-      <c r="APW2" s="33"/>
-      <c r="APX2" s="34"/>
+      <c r="APW2" s="34"/>
+      <c r="APX2" s="35"/>
       <c r="AQO2" s="14"/>
       <c r="AQP2" s="15"/>
       <c r="AQQ2" s="15"/>
@@ -1505,8 +1529,8 @@
       <c r="AQV2" s="15"/>
       <c r="AQW2" s="15"/>
       <c r="AQX2" s="16"/>
-      <c r="ARE2" s="33"/>
-      <c r="ARF2" s="34"/>
+      <c r="ARE2" s="34"/>
+      <c r="ARF2" s="35"/>
       <c r="ARW2" s="14"/>
       <c r="ARX2" s="15"/>
       <c r="ARY2" s="15"/>
@@ -1517,8 +1541,8 @@
       <c r="ASD2" s="15"/>
       <c r="ASE2" s="15"/>
       <c r="ASF2" s="16"/>
-      <c r="ASM2" s="33"/>
-      <c r="ASN2" s="34"/>
+      <c r="ASM2" s="34"/>
+      <c r="ASN2" s="35"/>
       <c r="ATE2" s="14"/>
       <c r="ATF2" s="15"/>
       <c r="ATG2" s="15"/>
@@ -1529,8 +1553,8 @@
       <c r="ATL2" s="15"/>
       <c r="ATM2" s="15"/>
       <c r="ATN2" s="16"/>
-      <c r="ATU2" s="33"/>
-      <c r="ATV2" s="34"/>
+      <c r="ATU2" s="34"/>
+      <c r="ATV2" s="35"/>
       <c r="AUM2" s="14"/>
       <c r="AUN2" s="15"/>
       <c r="AUO2" s="15"/>
@@ -1541,8 +1565,8 @@
       <c r="AUT2" s="15"/>
       <c r="AUU2" s="15"/>
       <c r="AUV2" s="16"/>
-      <c r="AVC2" s="33"/>
-      <c r="AVD2" s="34"/>
+      <c r="AVC2" s="34"/>
+      <c r="AVD2" s="35"/>
       <c r="AVU2" s="14"/>
       <c r="AVV2" s="15"/>
       <c r="AVW2" s="15"/>
@@ -1553,8 +1577,8 @@
       <c r="AWB2" s="15"/>
       <c r="AWC2" s="15"/>
       <c r="AWD2" s="16"/>
-      <c r="AWK2" s="33"/>
-      <c r="AWL2" s="34"/>
+      <c r="AWK2" s="34"/>
+      <c r="AWL2" s="35"/>
       <c r="AXC2" s="14"/>
       <c r="AXD2" s="15"/>
       <c r="AXE2" s="15"/>
@@ -1565,8 +1589,8 @@
       <c r="AXJ2" s="15"/>
       <c r="AXK2" s="15"/>
       <c r="AXL2" s="16"/>
-      <c r="AXS2" s="33"/>
-      <c r="AXT2" s="34"/>
+      <c r="AXS2" s="34"/>
+      <c r="AXT2" s="35"/>
       <c r="AYK2" s="14"/>
       <c r="AYL2" s="15"/>
       <c r="AYM2" s="15"/>
@@ -1577,8 +1601,8 @@
       <c r="AYR2" s="15"/>
       <c r="AYS2" s="15"/>
       <c r="AYT2" s="16"/>
-      <c r="AZA2" s="33"/>
-      <c r="AZB2" s="34"/>
+      <c r="AZA2" s="34"/>
+      <c r="AZB2" s="35"/>
       <c r="AZS2" s="14"/>
       <c r="AZT2" s="15"/>
       <c r="AZU2" s="15"/>
@@ -1589,8 +1613,8 @@
       <c r="AZZ2" s="15"/>
       <c r="BAA2" s="15"/>
       <c r="BAB2" s="16"/>
-      <c r="BAI2" s="33"/>
-      <c r="BAJ2" s="34"/>
+      <c r="BAI2" s="34"/>
+      <c r="BAJ2" s="35"/>
       <c r="BBA2" s="14"/>
       <c r="BBB2" s="15"/>
       <c r="BBC2" s="15"/>
@@ -1601,8 +1625,8 @@
       <c r="BBH2" s="15"/>
       <c r="BBI2" s="15"/>
       <c r="BBJ2" s="16"/>
-      <c r="BBQ2" s="33"/>
-      <c r="BBR2" s="34"/>
+      <c r="BBQ2" s="34"/>
+      <c r="BBR2" s="35"/>
       <c r="BCI2" s="14"/>
       <c r="BCJ2" s="15"/>
       <c r="BCK2" s="15"/>
@@ -1613,8 +1637,8 @@
       <c r="BCP2" s="15"/>
       <c r="BCQ2" s="15"/>
       <c r="BCR2" s="16"/>
-      <c r="BCY2" s="33"/>
-      <c r="BCZ2" s="34"/>
+      <c r="BCY2" s="34"/>
+      <c r="BCZ2" s="35"/>
       <c r="BDQ2" s="14"/>
       <c r="BDR2" s="15"/>
       <c r="BDS2" s="15"/>
@@ -1625,8 +1649,8 @@
       <c r="BDX2" s="15"/>
       <c r="BDY2" s="15"/>
       <c r="BDZ2" s="16"/>
-      <c r="BEG2" s="33"/>
-      <c r="BEH2" s="34"/>
+      <c r="BEG2" s="34"/>
+      <c r="BEH2" s="35"/>
       <c r="BEY2" s="14"/>
       <c r="BEZ2" s="15"/>
       <c r="BFA2" s="15"/>
@@ -1637,8 +1661,8 @@
       <c r="BFF2" s="15"/>
       <c r="BFG2" s="15"/>
       <c r="BFH2" s="16"/>
-      <c r="BFO2" s="33"/>
-      <c r="BFP2" s="34"/>
+      <c r="BFO2" s="34"/>
+      <c r="BFP2" s="35"/>
       <c r="BGG2" s="14"/>
       <c r="BGH2" s="15"/>
       <c r="BGI2" s="15"/>
@@ -1649,8 +1673,8 @@
       <c r="BGN2" s="15"/>
       <c r="BGO2" s="15"/>
       <c r="BGP2" s="16"/>
-      <c r="BGW2" s="33"/>
-      <c r="BGX2" s="34"/>
+      <c r="BGW2" s="34"/>
+      <c r="BGX2" s="35"/>
       <c r="BHO2" s="14"/>
       <c r="BHP2" s="15"/>
       <c r="BHQ2" s="15"/>
@@ -1661,8 +1685,8 @@
       <c r="BHV2" s="15"/>
       <c r="BHW2" s="15"/>
       <c r="BHX2" s="16"/>
-      <c r="BIE2" s="33"/>
-      <c r="BIF2" s="34"/>
+      <c r="BIE2" s="34"/>
+      <c r="BIF2" s="35"/>
       <c r="BIW2" s="14"/>
       <c r="BIX2" s="15"/>
       <c r="BIY2" s="15"/>
@@ -1673,8 +1697,8 @@
       <c r="BJD2" s="15"/>
       <c r="BJE2" s="15"/>
       <c r="BJF2" s="16"/>
-      <c r="BJM2" s="33"/>
-      <c r="BJN2" s="34"/>
+      <c r="BJM2" s="34"/>
+      <c r="BJN2" s="35"/>
       <c r="BKE2" s="14"/>
       <c r="BKF2" s="15"/>
       <c r="BKG2" s="15"/>
@@ -1685,8 +1709,8 @@
       <c r="BKL2" s="15"/>
       <c r="BKM2" s="15"/>
       <c r="BKN2" s="16"/>
-      <c r="BKU2" s="33"/>
-      <c r="BKV2" s="34"/>
+      <c r="BKU2" s="34"/>
+      <c r="BKV2" s="35"/>
       <c r="BLM2" s="14"/>
       <c r="BLN2" s="15"/>
       <c r="BLO2" s="15"/>
@@ -1697,8 +1721,8 @@
       <c r="BLT2" s="15"/>
       <c r="BLU2" s="15"/>
       <c r="BLV2" s="16"/>
-      <c r="BMC2" s="33"/>
-      <c r="BMD2" s="34"/>
+      <c r="BMC2" s="34"/>
+      <c r="BMD2" s="35"/>
       <c r="BMU2" s="14"/>
       <c r="BMV2" s="15"/>
       <c r="BMW2" s="15"/>
@@ -1709,8 +1733,8 @@
       <c r="BNB2" s="15"/>
       <c r="BNC2" s="15"/>
       <c r="BND2" s="16"/>
-      <c r="BNK2" s="33"/>
-      <c r="BNL2" s="34"/>
+      <c r="BNK2" s="34"/>
+      <c r="BNL2" s="35"/>
       <c r="BOC2" s="14"/>
       <c r="BOD2" s="15"/>
       <c r="BOE2" s="15"/>
@@ -1721,8 +1745,8 @@
       <c r="BOJ2" s="15"/>
       <c r="BOK2" s="15"/>
       <c r="BOL2" s="16"/>
-      <c r="BOS2" s="33"/>
-      <c r="BOT2" s="34"/>
+      <c r="BOS2" s="34"/>
+      <c r="BOT2" s="35"/>
       <c r="BPK2" s="14"/>
       <c r="BPL2" s="15"/>
       <c r="BPM2" s="15"/>
@@ -1733,8 +1757,8 @@
       <c r="BPR2" s="15"/>
       <c r="BPS2" s="15"/>
       <c r="BPT2" s="16"/>
-      <c r="BQA2" s="33"/>
-      <c r="BQB2" s="34"/>
+      <c r="BQA2" s="34"/>
+      <c r="BQB2" s="35"/>
       <c r="BQS2" s="14"/>
       <c r="BQT2" s="15"/>
       <c r="BQU2" s="15"/>
@@ -1745,8 +1769,8 @@
       <c r="BQZ2" s="15"/>
       <c r="BRA2" s="15"/>
       <c r="BRB2" s="16"/>
-      <c r="BRI2" s="33"/>
-      <c r="BRJ2" s="34"/>
+      <c r="BRI2" s="34"/>
+      <c r="BRJ2" s="35"/>
       <c r="BSA2" s="14"/>
       <c r="BSB2" s="15"/>
       <c r="BSC2" s="15"/>
@@ -1757,8 +1781,8 @@
       <c r="BSH2" s="15"/>
       <c r="BSI2" s="15"/>
       <c r="BSJ2" s="16"/>
-      <c r="BSQ2" s="33"/>
-      <c r="BSR2" s="34"/>
+      <c r="BSQ2" s="34"/>
+      <c r="BSR2" s="35"/>
       <c r="BTI2" s="14"/>
       <c r="BTJ2" s="15"/>
       <c r="BTK2" s="15"/>
@@ -1769,8 +1793,8 @@
       <c r="BTP2" s="15"/>
       <c r="BTQ2" s="15"/>
       <c r="BTR2" s="16"/>
-      <c r="BTY2" s="33"/>
-      <c r="BTZ2" s="34"/>
+      <c r="BTY2" s="34"/>
+      <c r="BTZ2" s="35"/>
       <c r="BUQ2" s="14"/>
       <c r="BUR2" s="15"/>
       <c r="BUS2" s="15"/>
@@ -1781,8 +1805,8 @@
       <c r="BUX2" s="15"/>
       <c r="BUY2" s="15"/>
       <c r="BUZ2" s="16"/>
-      <c r="BVG2" s="33"/>
-      <c r="BVH2" s="34"/>
+      <c r="BVG2" s="34"/>
+      <c r="BVH2" s="35"/>
       <c r="BVY2" s="14"/>
       <c r="BVZ2" s="15"/>
       <c r="BWA2" s="15"/>
@@ -1793,8 +1817,8 @@
       <c r="BWF2" s="15"/>
       <c r="BWG2" s="15"/>
       <c r="BWH2" s="16"/>
-      <c r="BWO2" s="33"/>
-      <c r="BWP2" s="34"/>
+      <c r="BWO2" s="34"/>
+      <c r="BWP2" s="35"/>
       <c r="BXG2" s="14"/>
       <c r="BXH2" s="15"/>
       <c r="BXI2" s="15"/>
@@ -1805,8 +1829,8 @@
       <c r="BXN2" s="15"/>
       <c r="BXO2" s="15"/>
       <c r="BXP2" s="16"/>
-      <c r="BXW2" s="33"/>
-      <c r="BXX2" s="34"/>
+      <c r="BXW2" s="34"/>
+      <c r="BXX2" s="35"/>
       <c r="BYO2" s="14"/>
       <c r="BYP2" s="15"/>
       <c r="BYQ2" s="15"/>
@@ -1817,8 +1841,8 @@
       <c r="BYV2" s="15"/>
       <c r="BYW2" s="15"/>
       <c r="BYX2" s="16"/>
-      <c r="BZE2" s="33"/>
-      <c r="BZF2" s="34"/>
+      <c r="BZE2" s="34"/>
+      <c r="BZF2" s="35"/>
       <c r="BZW2" s="14"/>
       <c r="BZX2" s="15"/>
       <c r="BZY2" s="15"/>
@@ -1829,8 +1853,8 @@
       <c r="CAD2" s="15"/>
       <c r="CAE2" s="15"/>
       <c r="CAF2" s="16"/>
-      <c r="CAM2" s="33"/>
-      <c r="CAN2" s="34"/>
+      <c r="CAM2" s="34"/>
+      <c r="CAN2" s="35"/>
       <c r="CBE2" s="14"/>
       <c r="CBF2" s="15"/>
       <c r="CBG2" s="15"/>
@@ -1841,8 +1865,8 @@
       <c r="CBL2" s="15"/>
       <c r="CBM2" s="15"/>
       <c r="CBN2" s="16"/>
-      <c r="CBU2" s="33"/>
-      <c r="CBV2" s="34"/>
+      <c r="CBU2" s="34"/>
+      <c r="CBV2" s="35"/>
       <c r="CCM2" s="14"/>
       <c r="CCN2" s="15"/>
       <c r="CCO2" s="15"/>
@@ -1853,8 +1877,8 @@
       <c r="CCT2" s="15"/>
       <c r="CCU2" s="15"/>
       <c r="CCV2" s="16"/>
-      <c r="CDC2" s="33"/>
-      <c r="CDD2" s="34"/>
+      <c r="CDC2" s="34"/>
+      <c r="CDD2" s="35"/>
       <c r="CDU2" s="14"/>
       <c r="CDV2" s="15"/>
       <c r="CDW2" s="15"/>
@@ -1865,8 +1889,8 @@
       <c r="CEB2" s="15"/>
       <c r="CEC2" s="15"/>
       <c r="CED2" s="16"/>
-      <c r="CEK2" s="33"/>
-      <c r="CEL2" s="34"/>
+      <c r="CEK2" s="34"/>
+      <c r="CEL2" s="35"/>
       <c r="CFC2" s="14"/>
       <c r="CFD2" s="15"/>
       <c r="CFE2" s="15"/>
@@ -1877,8 +1901,8 @@
       <c r="CFJ2" s="15"/>
       <c r="CFK2" s="15"/>
       <c r="CFL2" s="16"/>
-      <c r="CFS2" s="33"/>
-      <c r="CFT2" s="34"/>
+      <c r="CFS2" s="34"/>
+      <c r="CFT2" s="35"/>
       <c r="CGK2" s="14"/>
       <c r="CGL2" s="15"/>
       <c r="CGM2" s="15"/>
@@ -1889,8 +1913,8 @@
       <c r="CGR2" s="15"/>
       <c r="CGS2" s="15"/>
       <c r="CGT2" s="16"/>
-      <c r="CHA2" s="33"/>
-      <c r="CHB2" s="34"/>
+      <c r="CHA2" s="34"/>
+      <c r="CHB2" s="35"/>
       <c r="CHS2" s="14"/>
       <c r="CHT2" s="15"/>
       <c r="CHU2" s="15"/>
@@ -1901,8 +1925,8 @@
       <c r="CHZ2" s="15"/>
       <c r="CIA2" s="15"/>
       <c r="CIB2" s="16"/>
-      <c r="CII2" s="33"/>
-      <c r="CIJ2" s="34"/>
+      <c r="CII2" s="34"/>
+      <c r="CIJ2" s="35"/>
       <c r="CJA2" s="14"/>
       <c r="CJB2" s="15"/>
       <c r="CJC2" s="15"/>
@@ -1913,8 +1937,8 @@
       <c r="CJH2" s="15"/>
       <c r="CJI2" s="15"/>
       <c r="CJJ2" s="16"/>
-      <c r="CJQ2" s="33"/>
-      <c r="CJR2" s="34"/>
+      <c r="CJQ2" s="34"/>
+      <c r="CJR2" s="35"/>
       <c r="CKI2" s="14"/>
       <c r="CKJ2" s="15"/>
       <c r="CKK2" s="15"/>
@@ -1925,8 +1949,8 @@
       <c r="CKP2" s="15"/>
       <c r="CKQ2" s="15"/>
       <c r="CKR2" s="16"/>
-      <c r="CKY2" s="33"/>
-      <c r="CKZ2" s="34"/>
+      <c r="CKY2" s="34"/>
+      <c r="CKZ2" s="35"/>
       <c r="CLQ2" s="14"/>
       <c r="CLR2" s="15"/>
       <c r="CLS2" s="15"/>
@@ -1937,8 +1961,8 @@
       <c r="CLX2" s="15"/>
       <c r="CLY2" s="15"/>
       <c r="CLZ2" s="16"/>
-      <c r="CMG2" s="33"/>
-      <c r="CMH2" s="34"/>
+      <c r="CMG2" s="34"/>
+      <c r="CMH2" s="35"/>
       <c r="CMY2" s="14"/>
       <c r="CMZ2" s="15"/>
       <c r="CNA2" s="15"/>
@@ -1949,8 +1973,8 @@
       <c r="CNF2" s="15"/>
       <c r="CNG2" s="15"/>
       <c r="CNH2" s="16"/>
-      <c r="CNO2" s="33"/>
-      <c r="CNP2" s="34"/>
+      <c r="CNO2" s="34"/>
+      <c r="CNP2" s="35"/>
       <c r="COG2" s="14"/>
       <c r="COH2" s="15"/>
       <c r="COI2" s="15"/>
@@ -1961,8 +1985,8 @@
       <c r="CON2" s="15"/>
       <c r="COO2" s="15"/>
       <c r="COP2" s="16"/>
-      <c r="COW2" s="33"/>
-      <c r="COX2" s="34"/>
+      <c r="COW2" s="34"/>
+      <c r="COX2" s="35"/>
       <c r="CPO2" s="14"/>
       <c r="CPP2" s="15"/>
       <c r="CPQ2" s="15"/>
@@ -1973,8 +1997,8 @@
       <c r="CPV2" s="15"/>
       <c r="CPW2" s="15"/>
       <c r="CPX2" s="16"/>
-      <c r="CQE2" s="33"/>
-      <c r="CQF2" s="34"/>
+      <c r="CQE2" s="34"/>
+      <c r="CQF2" s="35"/>
       <c r="CQW2" s="14"/>
       <c r="CQX2" s="15"/>
       <c r="CQY2" s="15"/>
@@ -1985,8 +2009,8 @@
       <c r="CRD2" s="15"/>
       <c r="CRE2" s="15"/>
       <c r="CRF2" s="16"/>
-      <c r="CRM2" s="33"/>
-      <c r="CRN2" s="34"/>
+      <c r="CRM2" s="34"/>
+      <c r="CRN2" s="35"/>
       <c r="CSE2" s="14"/>
       <c r="CSF2" s="15"/>
       <c r="CSG2" s="15"/>
@@ -1997,8 +2021,8 @@
       <c r="CSL2" s="15"/>
       <c r="CSM2" s="15"/>
       <c r="CSN2" s="16"/>
-      <c r="CSU2" s="33"/>
-      <c r="CSV2" s="34"/>
+      <c r="CSU2" s="34"/>
+      <c r="CSV2" s="35"/>
       <c r="CTM2" s="14"/>
       <c r="CTN2" s="15"/>
       <c r="CTO2" s="15"/>
@@ -2009,8 +2033,8 @@
       <c r="CTT2" s="15"/>
       <c r="CTU2" s="15"/>
       <c r="CTV2" s="16"/>
-      <c r="CUC2" s="33"/>
-      <c r="CUD2" s="34"/>
+      <c r="CUC2" s="34"/>
+      <c r="CUD2" s="35"/>
       <c r="CUU2" s="14"/>
       <c r="CUV2" s="15"/>
       <c r="CUW2" s="15"/>
@@ -2021,8 +2045,8 @@
       <c r="CVB2" s="15"/>
       <c r="CVC2" s="15"/>
       <c r="CVD2" s="16"/>
-      <c r="CVK2" s="33"/>
-      <c r="CVL2" s="34"/>
+      <c r="CVK2" s="34"/>
+      <c r="CVL2" s="35"/>
       <c r="CWC2" s="14"/>
       <c r="CWD2" s="15"/>
       <c r="CWE2" s="15"/>
@@ -2033,8 +2057,8 @@
       <c r="CWJ2" s="15"/>
       <c r="CWK2" s="15"/>
       <c r="CWL2" s="16"/>
-      <c r="CWS2" s="33"/>
-      <c r="CWT2" s="34"/>
+      <c r="CWS2" s="34"/>
+      <c r="CWT2" s="35"/>
       <c r="CXK2" s="14"/>
       <c r="CXL2" s="15"/>
       <c r="CXM2" s="15"/>
@@ -2045,8 +2069,8 @@
       <c r="CXR2" s="15"/>
       <c r="CXS2" s="15"/>
       <c r="CXT2" s="16"/>
-      <c r="CYA2" s="33"/>
-      <c r="CYB2" s="34"/>
+      <c r="CYA2" s="34"/>
+      <c r="CYB2" s="35"/>
       <c r="CYS2" s="14"/>
       <c r="CYT2" s="15"/>
       <c r="CYU2" s="15"/>
@@ -2057,8 +2081,8 @@
       <c r="CYZ2" s="15"/>
       <c r="CZA2" s="15"/>
       <c r="CZB2" s="16"/>
-      <c r="CZI2" s="33"/>
-      <c r="CZJ2" s="34"/>
+      <c r="CZI2" s="34"/>
+      <c r="CZJ2" s="35"/>
       <c r="DAA2" s="14"/>
       <c r="DAB2" s="15"/>
       <c r="DAC2" s="15"/>
@@ -2069,8 +2093,8 @@
       <c r="DAH2" s="15"/>
       <c r="DAI2" s="15"/>
       <c r="DAJ2" s="16"/>
-      <c r="DAQ2" s="33"/>
-      <c r="DAR2" s="34"/>
+      <c r="DAQ2" s="34"/>
+      <c r="DAR2" s="35"/>
       <c r="DBI2" s="14"/>
       <c r="DBJ2" s="15"/>
       <c r="DBK2" s="15"/>
@@ -2081,8 +2105,8 @@
       <c r="DBP2" s="15"/>
       <c r="DBQ2" s="15"/>
       <c r="DBR2" s="16"/>
-      <c r="DBY2" s="33"/>
-      <c r="DBZ2" s="34"/>
+      <c r="DBY2" s="34"/>
+      <c r="DBZ2" s="35"/>
       <c r="DCQ2" s="14"/>
       <c r="DCR2" s="15"/>
       <c r="DCS2" s="15"/>
@@ -2093,8 +2117,8 @@
       <c r="DCX2" s="15"/>
       <c r="DCY2" s="15"/>
       <c r="DCZ2" s="16"/>
-      <c r="DDG2" s="33"/>
-      <c r="DDH2" s="34"/>
+      <c r="DDG2" s="34"/>
+      <c r="DDH2" s="35"/>
       <c r="DDY2" s="14"/>
       <c r="DDZ2" s="15"/>
       <c r="DEA2" s="15"/>
@@ -2105,8 +2129,8 @@
       <c r="DEF2" s="15"/>
       <c r="DEG2" s="15"/>
       <c r="DEH2" s="16"/>
-      <c r="DEO2" s="33"/>
-      <c r="DEP2" s="34"/>
+      <c r="DEO2" s="34"/>
+      <c r="DEP2" s="35"/>
       <c r="DFG2" s="14"/>
       <c r="DFH2" s="15"/>
       <c r="DFI2" s="15"/>
@@ -2117,8 +2141,8 @@
       <c r="DFN2" s="15"/>
       <c r="DFO2" s="15"/>
       <c r="DFP2" s="16"/>
-      <c r="DFW2" s="33"/>
-      <c r="DFX2" s="34"/>
+      <c r="DFW2" s="34"/>
+      <c r="DFX2" s="35"/>
       <c r="DGO2" s="14"/>
       <c r="DGP2" s="15"/>
       <c r="DGQ2" s="15"/>
@@ -2129,8 +2153,8 @@
       <c r="DGV2" s="15"/>
       <c r="DGW2" s="15"/>
       <c r="DGX2" s="16"/>
-      <c r="DHE2" s="33"/>
-      <c r="DHF2" s="34"/>
+      <c r="DHE2" s="34"/>
+      <c r="DHF2" s="35"/>
       <c r="DHW2" s="14"/>
       <c r="DHX2" s="15"/>
       <c r="DHY2" s="15"/>
@@ -2141,8 +2165,8 @@
       <c r="DID2" s="15"/>
       <c r="DIE2" s="15"/>
       <c r="DIF2" s="16"/>
-      <c r="DIM2" s="33"/>
-      <c r="DIN2" s="34"/>
+      <c r="DIM2" s="34"/>
+      <c r="DIN2" s="35"/>
       <c r="DJE2" s="14"/>
       <c r="DJF2" s="15"/>
       <c r="DJG2" s="15"/>
@@ -2153,8 +2177,8 @@
       <c r="DJL2" s="15"/>
       <c r="DJM2" s="15"/>
       <c r="DJN2" s="16"/>
-      <c r="DJU2" s="33"/>
-      <c r="DJV2" s="34"/>
+      <c r="DJU2" s="34"/>
+      <c r="DJV2" s="35"/>
       <c r="DKM2" s="14"/>
       <c r="DKN2" s="15"/>
       <c r="DKO2" s="15"/>
@@ -2165,8 +2189,8 @@
       <c r="DKT2" s="15"/>
       <c r="DKU2" s="15"/>
       <c r="DKV2" s="16"/>
-      <c r="DLC2" s="33"/>
-      <c r="DLD2" s="34"/>
+      <c r="DLC2" s="34"/>
+      <c r="DLD2" s="35"/>
       <c r="DLU2" s="14"/>
       <c r="DLV2" s="15"/>
       <c r="DLW2" s="15"/>
@@ -2177,8 +2201,8 @@
       <c r="DMB2" s="15"/>
       <c r="DMC2" s="15"/>
       <c r="DMD2" s="16"/>
-      <c r="DMK2" s="33"/>
-      <c r="DML2" s="34"/>
+      <c r="DMK2" s="34"/>
+      <c r="DML2" s="35"/>
       <c r="DNC2" s="14"/>
       <c r="DND2" s="15"/>
       <c r="DNE2" s="15"/>
@@ -2189,8 +2213,8 @@
       <c r="DNJ2" s="15"/>
       <c r="DNK2" s="15"/>
       <c r="DNL2" s="16"/>
-      <c r="DNS2" s="33"/>
-      <c r="DNT2" s="34"/>
+      <c r="DNS2" s="34"/>
+      <c r="DNT2" s="35"/>
       <c r="DOK2" s="14"/>
       <c r="DOL2" s="15"/>
       <c r="DOM2" s="15"/>
@@ -2201,8 +2225,8 @@
       <c r="DOR2" s="15"/>
       <c r="DOS2" s="15"/>
       <c r="DOT2" s="16"/>
-      <c r="DPA2" s="33"/>
-      <c r="DPB2" s="34"/>
+      <c r="DPA2" s="34"/>
+      <c r="DPB2" s="35"/>
       <c r="DPS2" s="14"/>
       <c r="DPT2" s="15"/>
       <c r="DPU2" s="15"/>
@@ -2213,8 +2237,8 @@
       <c r="DPZ2" s="15"/>
       <c r="DQA2" s="15"/>
       <c r="DQB2" s="16"/>
-      <c r="DQI2" s="33"/>
-      <c r="DQJ2" s="34"/>
+      <c r="DQI2" s="34"/>
+      <c r="DQJ2" s="35"/>
       <c r="DRA2" s="14"/>
       <c r="DRB2" s="15"/>
       <c r="DRC2" s="15"/>
@@ -2225,8 +2249,8 @@
       <c r="DRH2" s="15"/>
       <c r="DRI2" s="15"/>
       <c r="DRJ2" s="16"/>
-      <c r="DRQ2" s="33"/>
-      <c r="DRR2" s="34"/>
+      <c r="DRQ2" s="34"/>
+      <c r="DRR2" s="35"/>
       <c r="DSI2" s="14"/>
       <c r="DSJ2" s="15"/>
       <c r="DSK2" s="15"/>
@@ -2237,8 +2261,8 @@
       <c r="DSP2" s="15"/>
       <c r="DSQ2" s="15"/>
       <c r="DSR2" s="16"/>
-      <c r="DSY2" s="33"/>
-      <c r="DSZ2" s="34"/>
+      <c r="DSY2" s="34"/>
+      <c r="DSZ2" s="35"/>
       <c r="DTQ2" s="14"/>
       <c r="DTR2" s="15"/>
       <c r="DTS2" s="15"/>
@@ -2249,8 +2273,8 @@
       <c r="DTX2" s="15"/>
       <c r="DTY2" s="15"/>
       <c r="DTZ2" s="16"/>
-      <c r="DUG2" s="33"/>
-      <c r="DUH2" s="34"/>
+      <c r="DUG2" s="34"/>
+      <c r="DUH2" s="35"/>
       <c r="DUY2" s="14"/>
       <c r="DUZ2" s="15"/>
       <c r="DVA2" s="15"/>
@@ -2261,8 +2285,8 @@
       <c r="DVF2" s="15"/>
       <c r="DVG2" s="15"/>
       <c r="DVH2" s="16"/>
-      <c r="DVO2" s="33"/>
-      <c r="DVP2" s="34"/>
+      <c r="DVO2" s="34"/>
+      <c r="DVP2" s="35"/>
       <c r="DWG2" s="14"/>
       <c r="DWH2" s="15"/>
       <c r="DWI2" s="15"/>
@@ -2273,8 +2297,8 @@
       <c r="DWN2" s="15"/>
       <c r="DWO2" s="15"/>
       <c r="DWP2" s="16"/>
-      <c r="DWW2" s="33"/>
-      <c r="DWX2" s="34"/>
+      <c r="DWW2" s="34"/>
+      <c r="DWX2" s="35"/>
       <c r="DXO2" s="14"/>
       <c r="DXP2" s="15"/>
       <c r="DXQ2" s="15"/>
@@ -2285,8 +2309,8 @@
       <c r="DXV2" s="15"/>
       <c r="DXW2" s="15"/>
       <c r="DXX2" s="16"/>
-      <c r="DYE2" s="33"/>
-      <c r="DYF2" s="34"/>
+      <c r="DYE2" s="34"/>
+      <c r="DYF2" s="35"/>
       <c r="DYW2" s="14"/>
       <c r="DYX2" s="15"/>
       <c r="DYY2" s="15"/>
@@ -2297,8 +2321,8 @@
       <c r="DZD2" s="15"/>
       <c r="DZE2" s="15"/>
       <c r="DZF2" s="16"/>
-      <c r="DZM2" s="33"/>
-      <c r="DZN2" s="34"/>
+      <c r="DZM2" s="34"/>
+      <c r="DZN2" s="35"/>
       <c r="EAE2" s="14"/>
       <c r="EAF2" s="15"/>
       <c r="EAG2" s="15"/>
@@ -2309,8 +2333,8 @@
       <c r="EAL2" s="15"/>
       <c r="EAM2" s="15"/>
       <c r="EAN2" s="16"/>
-      <c r="EAU2" s="33"/>
-      <c r="EAV2" s="34"/>
+      <c r="EAU2" s="34"/>
+      <c r="EAV2" s="35"/>
       <c r="EBM2" s="14"/>
       <c r="EBN2" s="15"/>
       <c r="EBO2" s="15"/>
@@ -2321,8 +2345,8 @@
       <c r="EBT2" s="15"/>
       <c r="EBU2" s="15"/>
       <c r="EBV2" s="16"/>
-      <c r="ECC2" s="33"/>
-      <c r="ECD2" s="34"/>
+      <c r="ECC2" s="34"/>
+      <c r="ECD2" s="35"/>
       <c r="ECU2" s="14"/>
       <c r="ECV2" s="15"/>
       <c r="ECW2" s="15"/>
@@ -2333,8 +2357,8 @@
       <c r="EDB2" s="15"/>
       <c r="EDC2" s="15"/>
       <c r="EDD2" s="16"/>
-      <c r="EDK2" s="33"/>
-      <c r="EDL2" s="34"/>
+      <c r="EDK2" s="34"/>
+      <c r="EDL2" s="35"/>
       <c r="EEC2" s="14"/>
       <c r="EED2" s="15"/>
       <c r="EEE2" s="15"/>
@@ -2345,8 +2369,8 @@
       <c r="EEJ2" s="15"/>
       <c r="EEK2" s="15"/>
       <c r="EEL2" s="16"/>
-      <c r="EES2" s="33"/>
-      <c r="EET2" s="34"/>
+      <c r="EES2" s="34"/>
+      <c r="EET2" s="35"/>
       <c r="EFK2" s="14"/>
       <c r="EFL2" s="15"/>
       <c r="EFM2" s="15"/>
@@ -2357,8 +2381,8 @@
       <c r="EFR2" s="15"/>
       <c r="EFS2" s="15"/>
       <c r="EFT2" s="16"/>
-      <c r="EGA2" s="33"/>
-      <c r="EGB2" s="34"/>
+      <c r="EGA2" s="34"/>
+      <c r="EGB2" s="35"/>
       <c r="EGS2" s="14"/>
       <c r="EGT2" s="15"/>
       <c r="EGU2" s="15"/>
@@ -2369,8 +2393,8 @@
       <c r="EGZ2" s="15"/>
       <c r="EHA2" s="15"/>
       <c r="EHB2" s="16"/>
-      <c r="EHI2" s="33"/>
-      <c r="EHJ2" s="34"/>
+      <c r="EHI2" s="34"/>
+      <c r="EHJ2" s="35"/>
       <c r="EIA2" s="14"/>
       <c r="EIB2" s="15"/>
       <c r="EIC2" s="15"/>
@@ -2381,8 +2405,8 @@
       <c r="EIH2" s="15"/>
       <c r="EII2" s="15"/>
       <c r="EIJ2" s="16"/>
-      <c r="EIQ2" s="33"/>
-      <c r="EIR2" s="34"/>
+      <c r="EIQ2" s="34"/>
+      <c r="EIR2" s="35"/>
       <c r="EJI2" s="14"/>
       <c r="EJJ2" s="15"/>
       <c r="EJK2" s="15"/>
@@ -2393,8 +2417,8 @@
       <c r="EJP2" s="15"/>
       <c r="EJQ2" s="15"/>
       <c r="EJR2" s="16"/>
-      <c r="EJY2" s="33"/>
-      <c r="EJZ2" s="34"/>
+      <c r="EJY2" s="34"/>
+      <c r="EJZ2" s="35"/>
       <c r="EKQ2" s="14"/>
       <c r="EKR2" s="15"/>
       <c r="EKS2" s="15"/>
@@ -2405,8 +2429,8 @@
       <c r="EKX2" s="15"/>
       <c r="EKY2" s="15"/>
       <c r="EKZ2" s="16"/>
-      <c r="ELG2" s="33"/>
-      <c r="ELH2" s="34"/>
+      <c r="ELG2" s="34"/>
+      <c r="ELH2" s="35"/>
       <c r="ELY2" s="14"/>
       <c r="ELZ2" s="15"/>
       <c r="EMA2" s="15"/>
@@ -2417,8 +2441,8 @@
       <c r="EMF2" s="15"/>
       <c r="EMG2" s="15"/>
       <c r="EMH2" s="16"/>
-      <c r="EMO2" s="33"/>
-      <c r="EMP2" s="34"/>
+      <c r="EMO2" s="34"/>
+      <c r="EMP2" s="35"/>
       <c r="ENG2" s="14"/>
       <c r="ENH2" s="15"/>
       <c r="ENI2" s="15"/>
@@ -2429,8 +2453,8 @@
       <c r="ENN2" s="15"/>
       <c r="ENO2" s="15"/>
       <c r="ENP2" s="16"/>
-      <c r="ENW2" s="33"/>
-      <c r="ENX2" s="34"/>
+      <c r="ENW2" s="34"/>
+      <c r="ENX2" s="35"/>
       <c r="EOO2" s="14"/>
       <c r="EOP2" s="15"/>
       <c r="EOQ2" s="15"/>
@@ -2441,8 +2465,8 @@
       <c r="EOV2" s="15"/>
       <c r="EOW2" s="15"/>
       <c r="EOX2" s="16"/>
-      <c r="EPE2" s="33"/>
-      <c r="EPF2" s="34"/>
+      <c r="EPE2" s="34"/>
+      <c r="EPF2" s="35"/>
       <c r="EPW2" s="14"/>
       <c r="EPX2" s="15"/>
       <c r="EPY2" s="15"/>
@@ -2453,8 +2477,8 @@
       <c r="EQD2" s="15"/>
       <c r="EQE2" s="15"/>
       <c r="EQF2" s="16"/>
-      <c r="EQM2" s="33"/>
-      <c r="EQN2" s="34"/>
+      <c r="EQM2" s="34"/>
+      <c r="EQN2" s="35"/>
       <c r="ERE2" s="14"/>
       <c r="ERF2" s="15"/>
       <c r="ERG2" s="15"/>
@@ -2465,8 +2489,8 @@
       <c r="ERL2" s="15"/>
       <c r="ERM2" s="15"/>
       <c r="ERN2" s="16"/>
-      <c r="ERU2" s="33"/>
-      <c r="ERV2" s="34"/>
+      <c r="ERU2" s="34"/>
+      <c r="ERV2" s="35"/>
       <c r="ESM2" s="14"/>
       <c r="ESN2" s="15"/>
       <c r="ESO2" s="15"/>
@@ -2477,8 +2501,8 @@
       <c r="EST2" s="15"/>
       <c r="ESU2" s="15"/>
       <c r="ESV2" s="16"/>
-      <c r="ETC2" s="33"/>
-      <c r="ETD2" s="34"/>
+      <c r="ETC2" s="34"/>
+      <c r="ETD2" s="35"/>
       <c r="ETU2" s="14"/>
       <c r="ETV2" s="15"/>
       <c r="ETW2" s="15"/>
@@ -2489,8 +2513,8 @@
       <c r="EUB2" s="15"/>
       <c r="EUC2" s="15"/>
       <c r="EUD2" s="16"/>
-      <c r="EUK2" s="33"/>
-      <c r="EUL2" s="34"/>
+      <c r="EUK2" s="34"/>
+      <c r="EUL2" s="35"/>
       <c r="EVC2" s="14"/>
       <c r="EVD2" s="15"/>
       <c r="EVE2" s="15"/>
@@ -2501,8 +2525,8 @@
       <c r="EVJ2" s="15"/>
       <c r="EVK2" s="15"/>
       <c r="EVL2" s="16"/>
-      <c r="EVS2" s="33"/>
-      <c r="EVT2" s="34"/>
+      <c r="EVS2" s="34"/>
+      <c r="EVT2" s="35"/>
       <c r="EWK2" s="14"/>
       <c r="EWL2" s="15"/>
       <c r="EWM2" s="15"/>
@@ -2513,8 +2537,8 @@
       <c r="EWR2" s="15"/>
       <c r="EWS2" s="15"/>
       <c r="EWT2" s="16"/>
-      <c r="EXA2" s="33"/>
-      <c r="EXB2" s="34"/>
+      <c r="EXA2" s="34"/>
+      <c r="EXB2" s="35"/>
       <c r="EXS2" s="14"/>
       <c r="EXT2" s="15"/>
       <c r="EXU2" s="15"/>
@@ -2525,8 +2549,8 @@
       <c r="EXZ2" s="15"/>
       <c r="EYA2" s="15"/>
       <c r="EYB2" s="16"/>
-      <c r="EYI2" s="33"/>
-      <c r="EYJ2" s="34"/>
+      <c r="EYI2" s="34"/>
+      <c r="EYJ2" s="35"/>
       <c r="EZA2" s="14"/>
       <c r="EZB2" s="15"/>
       <c r="EZC2" s="15"/>
@@ -2537,8 +2561,8 @@
       <c r="EZH2" s="15"/>
       <c r="EZI2" s="15"/>
       <c r="EZJ2" s="16"/>
-      <c r="EZQ2" s="33"/>
-      <c r="EZR2" s="34"/>
+      <c r="EZQ2" s="34"/>
+      <c r="EZR2" s="35"/>
       <c r="FAI2" s="14"/>
       <c r="FAJ2" s="15"/>
       <c r="FAK2" s="15"/>
@@ -2549,8 +2573,8 @@
       <c r="FAP2" s="15"/>
       <c r="FAQ2" s="15"/>
       <c r="FAR2" s="16"/>
-      <c r="FAY2" s="33"/>
-      <c r="FAZ2" s="34"/>
+      <c r="FAY2" s="34"/>
+      <c r="FAZ2" s="35"/>
       <c r="FBQ2" s="14"/>
       <c r="FBR2" s="15"/>
       <c r="FBS2" s="15"/>
@@ -2561,8 +2585,8 @@
       <c r="FBX2" s="15"/>
       <c r="FBY2" s="15"/>
       <c r="FBZ2" s="16"/>
-      <c r="FCG2" s="33"/>
-      <c r="FCH2" s="34"/>
+      <c r="FCG2" s="34"/>
+      <c r="FCH2" s="35"/>
       <c r="FCY2" s="14"/>
       <c r="FCZ2" s="15"/>
       <c r="FDA2" s="15"/>
@@ -2573,8 +2597,8 @@
       <c r="FDF2" s="15"/>
       <c r="FDG2" s="15"/>
       <c r="FDH2" s="16"/>
-      <c r="FDO2" s="33"/>
-      <c r="FDP2" s="34"/>
+      <c r="FDO2" s="34"/>
+      <c r="FDP2" s="35"/>
       <c r="FEG2" s="14"/>
       <c r="FEH2" s="15"/>
       <c r="FEI2" s="15"/>
@@ -2585,8 +2609,8 @@
       <c r="FEN2" s="15"/>
       <c r="FEO2" s="15"/>
       <c r="FEP2" s="16"/>
-      <c r="FEW2" s="33"/>
-      <c r="FEX2" s="34"/>
+      <c r="FEW2" s="34"/>
+      <c r="FEX2" s="35"/>
       <c r="FFO2" s="14"/>
       <c r="FFP2" s="15"/>
       <c r="FFQ2" s="15"/>
@@ -2597,8 +2621,8 @@
       <c r="FFV2" s="15"/>
       <c r="FFW2" s="15"/>
       <c r="FFX2" s="16"/>
-      <c r="FGE2" s="33"/>
-      <c r="FGF2" s="34"/>
+      <c r="FGE2" s="34"/>
+      <c r="FGF2" s="35"/>
       <c r="FGW2" s="14"/>
       <c r="FGX2" s="15"/>
       <c r="FGY2" s="15"/>
@@ -2609,8 +2633,8 @@
       <c r="FHD2" s="15"/>
       <c r="FHE2" s="15"/>
       <c r="FHF2" s="16"/>
-      <c r="FHM2" s="33"/>
-      <c r="FHN2" s="34"/>
+      <c r="FHM2" s="34"/>
+      <c r="FHN2" s="35"/>
       <c r="FIE2" s="14"/>
       <c r="FIF2" s="15"/>
       <c r="FIG2" s="15"/>
@@ -2621,8 +2645,8 @@
       <c r="FIL2" s="15"/>
       <c r="FIM2" s="15"/>
       <c r="FIN2" s="16"/>
-      <c r="FIU2" s="33"/>
-      <c r="FIV2" s="34"/>
+      <c r="FIU2" s="34"/>
+      <c r="FIV2" s="35"/>
       <c r="FJM2" s="14"/>
       <c r="FJN2" s="15"/>
       <c r="FJO2" s="15"/>
@@ -2633,8 +2657,8 @@
       <c r="FJT2" s="15"/>
       <c r="FJU2" s="15"/>
       <c r="FJV2" s="16"/>
-      <c r="FKC2" s="33"/>
-      <c r="FKD2" s="34"/>
+      <c r="FKC2" s="34"/>
+      <c r="FKD2" s="35"/>
       <c r="FKU2" s="14"/>
       <c r="FKV2" s="15"/>
       <c r="FKW2" s="15"/>
@@ -2645,8 +2669,8 @@
       <c r="FLB2" s="15"/>
       <c r="FLC2" s="15"/>
       <c r="FLD2" s="16"/>
-      <c r="FLK2" s="33"/>
-      <c r="FLL2" s="34"/>
+      <c r="FLK2" s="34"/>
+      <c r="FLL2" s="35"/>
       <c r="FMC2" s="14"/>
       <c r="FMD2" s="15"/>
       <c r="FME2" s="15"/>
@@ -2657,8 +2681,8 @@
       <c r="FMJ2" s="15"/>
       <c r="FMK2" s="15"/>
       <c r="FML2" s="16"/>
-      <c r="FMS2" s="33"/>
-      <c r="FMT2" s="34"/>
+      <c r="FMS2" s="34"/>
+      <c r="FMT2" s="35"/>
       <c r="FNK2" s="14"/>
       <c r="FNL2" s="15"/>
       <c r="FNM2" s="15"/>
@@ -2669,8 +2693,8 @@
       <c r="FNR2" s="15"/>
       <c r="FNS2" s="15"/>
       <c r="FNT2" s="16"/>
-      <c r="FOA2" s="33"/>
-      <c r="FOB2" s="34"/>
+      <c r="FOA2" s="34"/>
+      <c r="FOB2" s="35"/>
       <c r="FOS2" s="14"/>
       <c r="FOT2" s="15"/>
       <c r="FOU2" s="15"/>
@@ -2681,8 +2705,8 @@
       <c r="FOZ2" s="15"/>
       <c r="FPA2" s="15"/>
       <c r="FPB2" s="16"/>
-      <c r="FPI2" s="33"/>
-      <c r="FPJ2" s="34"/>
+      <c r="FPI2" s="34"/>
+      <c r="FPJ2" s="35"/>
       <c r="FQA2" s="14"/>
       <c r="FQB2" s="15"/>
       <c r="FQC2" s="15"/>
@@ -2693,8 +2717,8 @@
       <c r="FQH2" s="15"/>
       <c r="FQI2" s="15"/>
       <c r="FQJ2" s="16"/>
-      <c r="FQQ2" s="33"/>
-      <c r="FQR2" s="34"/>
+      <c r="FQQ2" s="34"/>
+      <c r="FQR2" s="35"/>
       <c r="FRI2" s="14"/>
       <c r="FRJ2" s="15"/>
       <c r="FRK2" s="15"/>
@@ -2705,8 +2729,8 @@
       <c r="FRP2" s="15"/>
       <c r="FRQ2" s="15"/>
       <c r="FRR2" s="16"/>
-      <c r="FRY2" s="33"/>
-      <c r="FRZ2" s="34"/>
+      <c r="FRY2" s="34"/>
+      <c r="FRZ2" s="35"/>
       <c r="FSQ2" s="14"/>
       <c r="FSR2" s="15"/>
       <c r="FSS2" s="15"/>
@@ -2717,8 +2741,8 @@
       <c r="FSX2" s="15"/>
       <c r="FSY2" s="15"/>
       <c r="FSZ2" s="16"/>
-      <c r="FTG2" s="33"/>
-      <c r="FTH2" s="34"/>
+      <c r="FTG2" s="34"/>
+      <c r="FTH2" s="35"/>
       <c r="FTY2" s="14"/>
       <c r="FTZ2" s="15"/>
       <c r="FUA2" s="15"/>
@@ -2729,8 +2753,8 @@
       <c r="FUF2" s="15"/>
       <c r="FUG2" s="15"/>
       <c r="FUH2" s="16"/>
-      <c r="FUO2" s="33"/>
-      <c r="FUP2" s="34"/>
+      <c r="FUO2" s="34"/>
+      <c r="FUP2" s="35"/>
       <c r="FVG2" s="14"/>
       <c r="FVH2" s="15"/>
       <c r="FVI2" s="15"/>
@@ -2741,8 +2765,8 @@
       <c r="FVN2" s="15"/>
       <c r="FVO2" s="15"/>
       <c r="FVP2" s="16"/>
-      <c r="FVW2" s="33"/>
-      <c r="FVX2" s="34"/>
+      <c r="FVW2" s="34"/>
+      <c r="FVX2" s="35"/>
       <c r="FWO2" s="14"/>
       <c r="FWP2" s="15"/>
       <c r="FWQ2" s="15"/>
@@ -2753,8 +2777,8 @@
       <c r="FWV2" s="15"/>
       <c r="FWW2" s="15"/>
       <c r="FWX2" s="16"/>
-      <c r="FXE2" s="33"/>
-      <c r="FXF2" s="34"/>
+      <c r="FXE2" s="34"/>
+      <c r="FXF2" s="35"/>
       <c r="FXW2" s="14"/>
       <c r="FXX2" s="15"/>
       <c r="FXY2" s="15"/>
@@ -2765,8 +2789,8 @@
       <c r="FYD2" s="15"/>
       <c r="FYE2" s="15"/>
       <c r="FYF2" s="16"/>
-      <c r="FYM2" s="33"/>
-      <c r="FYN2" s="34"/>
+      <c r="FYM2" s="34"/>
+      <c r="FYN2" s="35"/>
       <c r="FZE2" s="14"/>
       <c r="FZF2" s="15"/>
       <c r="FZG2" s="15"/>
@@ -2777,8 +2801,8 @@
       <c r="FZL2" s="15"/>
       <c r="FZM2" s="15"/>
       <c r="FZN2" s="16"/>
-      <c r="FZU2" s="33"/>
-      <c r="FZV2" s="34"/>
+      <c r="FZU2" s="34"/>
+      <c r="FZV2" s="35"/>
       <c r="GAM2" s="14"/>
       <c r="GAN2" s="15"/>
       <c r="GAO2" s="15"/>
@@ -2789,8 +2813,8 @@
       <c r="GAT2" s="15"/>
       <c r="GAU2" s="15"/>
       <c r="GAV2" s="16"/>
-      <c r="GBC2" s="33"/>
-      <c r="GBD2" s="34"/>
+      <c r="GBC2" s="34"/>
+      <c r="GBD2" s="35"/>
       <c r="GBU2" s="14"/>
       <c r="GBV2" s="15"/>
       <c r="GBW2" s="15"/>
@@ -2801,8 +2825,8 @@
       <c r="GCB2" s="15"/>
       <c r="GCC2" s="15"/>
       <c r="GCD2" s="16"/>
-      <c r="GCK2" s="33"/>
-      <c r="GCL2" s="34"/>
+      <c r="GCK2" s="34"/>
+      <c r="GCL2" s="35"/>
       <c r="GDC2" s="14"/>
       <c r="GDD2" s="15"/>
       <c r="GDE2" s="15"/>
@@ -2813,8 +2837,8 @@
       <c r="GDJ2" s="15"/>
       <c r="GDK2" s="15"/>
       <c r="GDL2" s="16"/>
-      <c r="GDS2" s="33"/>
-      <c r="GDT2" s="34"/>
+      <c r="GDS2" s="34"/>
+      <c r="GDT2" s="35"/>
       <c r="GEK2" s="14"/>
       <c r="GEL2" s="15"/>
       <c r="GEM2" s="15"/>
@@ -2825,8 +2849,8 @@
       <c r="GER2" s="15"/>
       <c r="GES2" s="15"/>
       <c r="GET2" s="16"/>
-      <c r="GFA2" s="33"/>
-      <c r="GFB2" s="34"/>
+      <c r="GFA2" s="34"/>
+      <c r="GFB2" s="35"/>
       <c r="GFS2" s="14"/>
       <c r="GFT2" s="15"/>
       <c r="GFU2" s="15"/>
@@ -2837,8 +2861,8 @@
       <c r="GFZ2" s="15"/>
       <c r="GGA2" s="15"/>
       <c r="GGB2" s="16"/>
-      <c r="GGI2" s="33"/>
-      <c r="GGJ2" s="34"/>
+      <c r="GGI2" s="34"/>
+      <c r="GGJ2" s="35"/>
       <c r="GHA2" s="14"/>
       <c r="GHB2" s="15"/>
       <c r="GHC2" s="15"/>
@@ -2849,8 +2873,8 @@
       <c r="GHH2" s="15"/>
       <c r="GHI2" s="15"/>
       <c r="GHJ2" s="16"/>
-      <c r="GHQ2" s="33"/>
-      <c r="GHR2" s="34"/>
+      <c r="GHQ2" s="34"/>
+      <c r="GHR2" s="35"/>
       <c r="GII2" s="14"/>
       <c r="GIJ2" s="15"/>
       <c r="GIK2" s="15"/>
@@ -2861,8 +2885,8 @@
       <c r="GIP2" s="15"/>
       <c r="GIQ2" s="15"/>
       <c r="GIR2" s="16"/>
-      <c r="GIY2" s="33"/>
-      <c r="GIZ2" s="34"/>
+      <c r="GIY2" s="34"/>
+      <c r="GIZ2" s="35"/>
       <c r="GJQ2" s="14"/>
       <c r="GJR2" s="15"/>
       <c r="GJS2" s="15"/>
@@ -2873,8 +2897,8 @@
       <c r="GJX2" s="15"/>
       <c r="GJY2" s="15"/>
       <c r="GJZ2" s="16"/>
-      <c r="GKG2" s="33"/>
-      <c r="GKH2" s="34"/>
+      <c r="GKG2" s="34"/>
+      <c r="GKH2" s="35"/>
       <c r="GKY2" s="14"/>
       <c r="GKZ2" s="15"/>
       <c r="GLA2" s="15"/>
@@ -2885,8 +2909,8 @@
       <c r="GLF2" s="15"/>
       <c r="GLG2" s="15"/>
       <c r="GLH2" s="16"/>
-      <c r="GLO2" s="33"/>
-      <c r="GLP2" s="34"/>
+      <c r="GLO2" s="34"/>
+      <c r="GLP2" s="35"/>
       <c r="GMG2" s="14"/>
       <c r="GMH2" s="15"/>
       <c r="GMI2" s="15"/>
@@ -2897,8 +2921,8 @@
       <c r="GMN2" s="15"/>
       <c r="GMO2" s="15"/>
       <c r="GMP2" s="16"/>
-      <c r="GMW2" s="33"/>
-      <c r="GMX2" s="34"/>
+      <c r="GMW2" s="34"/>
+      <c r="GMX2" s="35"/>
       <c r="GNO2" s="14"/>
       <c r="GNP2" s="15"/>
       <c r="GNQ2" s="15"/>
@@ -2909,8 +2933,8 @@
       <c r="GNV2" s="15"/>
       <c r="GNW2" s="15"/>
       <c r="GNX2" s="16"/>
-      <c r="GOE2" s="33"/>
-      <c r="GOF2" s="34"/>
+      <c r="GOE2" s="34"/>
+      <c r="GOF2" s="35"/>
       <c r="GOW2" s="14"/>
       <c r="GOX2" s="15"/>
       <c r="GOY2" s="15"/>
@@ -2921,8 +2945,8 @@
       <c r="GPD2" s="15"/>
       <c r="GPE2" s="15"/>
       <c r="GPF2" s="16"/>
-      <c r="GPM2" s="33"/>
-      <c r="GPN2" s="34"/>
+      <c r="GPM2" s="34"/>
+      <c r="GPN2" s="35"/>
       <c r="GQE2" s="14"/>
       <c r="GQF2" s="15"/>
       <c r="GQG2" s="15"/>
@@ -2933,8 +2957,8 @@
       <c r="GQL2" s="15"/>
       <c r="GQM2" s="15"/>
       <c r="GQN2" s="16"/>
-      <c r="GQU2" s="33"/>
-      <c r="GQV2" s="34"/>
+      <c r="GQU2" s="34"/>
+      <c r="GQV2" s="35"/>
       <c r="GRM2" s="14"/>
       <c r="GRN2" s="15"/>
       <c r="GRO2" s="15"/>
@@ -2945,8 +2969,8 @@
       <c r="GRT2" s="15"/>
       <c r="GRU2" s="15"/>
       <c r="GRV2" s="16"/>
-      <c r="GSC2" s="33"/>
-      <c r="GSD2" s="34"/>
+      <c r="GSC2" s="34"/>
+      <c r="GSD2" s="35"/>
       <c r="GSU2" s="14"/>
       <c r="GSV2" s="15"/>
       <c r="GSW2" s="15"/>
@@ -2957,8 +2981,8 @@
       <c r="GTB2" s="15"/>
       <c r="GTC2" s="15"/>
       <c r="GTD2" s="16"/>
-      <c r="GTK2" s="33"/>
-      <c r="GTL2" s="34"/>
+      <c r="GTK2" s="34"/>
+      <c r="GTL2" s="35"/>
       <c r="GUC2" s="14"/>
       <c r="GUD2" s="15"/>
       <c r="GUE2" s="15"/>
@@ -2969,8 +2993,8 @@
       <c r="GUJ2" s="15"/>
       <c r="GUK2" s="15"/>
       <c r="GUL2" s="16"/>
-      <c r="GUS2" s="33"/>
-      <c r="GUT2" s="34"/>
+      <c r="GUS2" s="34"/>
+      <c r="GUT2" s="35"/>
       <c r="GVK2" s="14"/>
       <c r="GVL2" s="15"/>
       <c r="GVM2" s="15"/>
@@ -2981,8 +3005,8 @@
       <c r="GVR2" s="15"/>
       <c r="GVS2" s="15"/>
       <c r="GVT2" s="16"/>
-      <c r="GWA2" s="33"/>
-      <c r="GWB2" s="34"/>
+      <c r="GWA2" s="34"/>
+      <c r="GWB2" s="35"/>
       <c r="GWS2" s="14"/>
       <c r="GWT2" s="15"/>
       <c r="GWU2" s="15"/>
@@ -2993,8 +3017,8 @@
       <c r="GWZ2" s="15"/>
       <c r="GXA2" s="15"/>
       <c r="GXB2" s="16"/>
-      <c r="GXI2" s="33"/>
-      <c r="GXJ2" s="34"/>
+      <c r="GXI2" s="34"/>
+      <c r="GXJ2" s="35"/>
       <c r="GYA2" s="14"/>
       <c r="GYB2" s="15"/>
       <c r="GYC2" s="15"/>
@@ -3005,8 +3029,8 @@
       <c r="GYH2" s="15"/>
       <c r="GYI2" s="15"/>
       <c r="GYJ2" s="16"/>
-      <c r="GYQ2" s="33"/>
-      <c r="GYR2" s="34"/>
+      <c r="GYQ2" s="34"/>
+      <c r="GYR2" s="35"/>
       <c r="GZI2" s="14"/>
       <c r="GZJ2" s="15"/>
       <c r="GZK2" s="15"/>
@@ -3017,8 +3041,8 @@
       <c r="GZP2" s="15"/>
       <c r="GZQ2" s="15"/>
       <c r="GZR2" s="16"/>
-      <c r="GZY2" s="33"/>
-      <c r="GZZ2" s="34"/>
+      <c r="GZY2" s="34"/>
+      <c r="GZZ2" s="35"/>
       <c r="HAQ2" s="14"/>
       <c r="HAR2" s="15"/>
       <c r="HAS2" s="15"/>
@@ -3029,8 +3053,8 @@
       <c r="HAX2" s="15"/>
       <c r="HAY2" s="15"/>
       <c r="HAZ2" s="16"/>
-      <c r="HBG2" s="33"/>
-      <c r="HBH2" s="34"/>
+      <c r="HBG2" s="34"/>
+      <c r="HBH2" s="35"/>
       <c r="HBY2" s="14"/>
       <c r="HBZ2" s="15"/>
       <c r="HCA2" s="15"/>
@@ -3041,8 +3065,8 @@
       <c r="HCF2" s="15"/>
       <c r="HCG2" s="15"/>
       <c r="HCH2" s="16"/>
-      <c r="HCO2" s="33"/>
-      <c r="HCP2" s="34"/>
+      <c r="HCO2" s="34"/>
+      <c r="HCP2" s="35"/>
       <c r="HDG2" s="14"/>
       <c r="HDH2" s="15"/>
       <c r="HDI2" s="15"/>
@@ -3053,8 +3077,8 @@
       <c r="HDN2" s="15"/>
       <c r="HDO2" s="15"/>
       <c r="HDP2" s="16"/>
-      <c r="HDW2" s="33"/>
-      <c r="HDX2" s="34"/>
+      <c r="HDW2" s="34"/>
+      <c r="HDX2" s="35"/>
       <c r="HEO2" s="14"/>
       <c r="HEP2" s="15"/>
       <c r="HEQ2" s="15"/>
@@ -3065,8 +3089,8 @@
       <c r="HEV2" s="15"/>
       <c r="HEW2" s="15"/>
       <c r="HEX2" s="16"/>
-      <c r="HFE2" s="33"/>
-      <c r="HFF2" s="34"/>
+      <c r="HFE2" s="34"/>
+      <c r="HFF2" s="35"/>
       <c r="HFW2" s="14"/>
       <c r="HFX2" s="15"/>
       <c r="HFY2" s="15"/>
@@ -3077,8 +3101,8 @@
       <c r="HGD2" s="15"/>
       <c r="HGE2" s="15"/>
       <c r="HGF2" s="16"/>
-      <c r="HGM2" s="33"/>
-      <c r="HGN2" s="34"/>
+      <c r="HGM2" s="34"/>
+      <c r="HGN2" s="35"/>
       <c r="HHE2" s="14"/>
       <c r="HHF2" s="15"/>
       <c r="HHG2" s="15"/>
@@ -3089,8 +3113,8 @@
       <c r="HHL2" s="15"/>
       <c r="HHM2" s="15"/>
       <c r="HHN2" s="16"/>
-      <c r="HHU2" s="33"/>
-      <c r="HHV2" s="34"/>
+      <c r="HHU2" s="34"/>
+      <c r="HHV2" s="35"/>
       <c r="HIM2" s="14"/>
       <c r="HIN2" s="15"/>
       <c r="HIO2" s="15"/>
@@ -3101,8 +3125,8 @@
       <c r="HIT2" s="15"/>
       <c r="HIU2" s="15"/>
       <c r="HIV2" s="16"/>
-      <c r="HJC2" s="33"/>
-      <c r="HJD2" s="34"/>
+      <c r="HJC2" s="34"/>
+      <c r="HJD2" s="35"/>
       <c r="HJU2" s="14"/>
       <c r="HJV2" s="15"/>
       <c r="HJW2" s="15"/>
@@ -3113,8 +3137,8 @@
       <c r="HKB2" s="15"/>
       <c r="HKC2" s="15"/>
       <c r="HKD2" s="16"/>
-      <c r="HKK2" s="33"/>
-      <c r="HKL2" s="34"/>
+      <c r="HKK2" s="34"/>
+      <c r="HKL2" s="35"/>
       <c r="HLC2" s="14"/>
       <c r="HLD2" s="15"/>
       <c r="HLE2" s="15"/>
@@ -3125,8 +3149,8 @@
       <c r="HLJ2" s="15"/>
       <c r="HLK2" s="15"/>
       <c r="HLL2" s="16"/>
-      <c r="HLS2" s="33"/>
-      <c r="HLT2" s="34"/>
+      <c r="HLS2" s="34"/>
+      <c r="HLT2" s="35"/>
       <c r="HMK2" s="14"/>
       <c r="HML2" s="15"/>
       <c r="HMM2" s="15"/>
@@ -3137,8 +3161,8 @@
       <c r="HMR2" s="15"/>
       <c r="HMS2" s="15"/>
       <c r="HMT2" s="16"/>
-      <c r="HNA2" s="33"/>
-      <c r="HNB2" s="34"/>
+      <c r="HNA2" s="34"/>
+      <c r="HNB2" s="35"/>
       <c r="HNS2" s="14"/>
       <c r="HNT2" s="15"/>
       <c r="HNU2" s="15"/>
@@ -3149,8 +3173,8 @@
       <c r="HNZ2" s="15"/>
       <c r="HOA2" s="15"/>
       <c r="HOB2" s="16"/>
-      <c r="HOI2" s="33"/>
-      <c r="HOJ2" s="34"/>
+      <c r="HOI2" s="34"/>
+      <c r="HOJ2" s="35"/>
       <c r="HPA2" s="14"/>
       <c r="HPB2" s="15"/>
       <c r="HPC2" s="15"/>
@@ -3161,8 +3185,8 @@
       <c r="HPH2" s="15"/>
       <c r="HPI2" s="15"/>
       <c r="HPJ2" s="16"/>
-      <c r="HPQ2" s="33"/>
-      <c r="HPR2" s="34"/>
+      <c r="HPQ2" s="34"/>
+      <c r="HPR2" s="35"/>
       <c r="HQI2" s="14"/>
       <c r="HQJ2" s="15"/>
       <c r="HQK2" s="15"/>
@@ -3173,8 +3197,8 @@
       <c r="HQP2" s="15"/>
       <c r="HQQ2" s="15"/>
       <c r="HQR2" s="16"/>
-      <c r="HQY2" s="33"/>
-      <c r="HQZ2" s="34"/>
+      <c r="HQY2" s="34"/>
+      <c r="HQZ2" s="35"/>
       <c r="HRQ2" s="14"/>
       <c r="HRR2" s="15"/>
       <c r="HRS2" s="15"/>
@@ -3185,8 +3209,8 @@
       <c r="HRX2" s="15"/>
       <c r="HRY2" s="15"/>
       <c r="HRZ2" s="16"/>
-      <c r="HSG2" s="33"/>
-      <c r="HSH2" s="34"/>
+      <c r="HSG2" s="34"/>
+      <c r="HSH2" s="35"/>
       <c r="HSY2" s="14"/>
       <c r="HSZ2" s="15"/>
       <c r="HTA2" s="15"/>
@@ -3197,8 +3221,8 @@
       <c r="HTF2" s="15"/>
       <c r="HTG2" s="15"/>
       <c r="HTH2" s="16"/>
-      <c r="HTO2" s="33"/>
-      <c r="HTP2" s="34"/>
+      <c r="HTO2" s="34"/>
+      <c r="HTP2" s="35"/>
       <c r="HUG2" s="14"/>
       <c r="HUH2" s="15"/>
       <c r="HUI2" s="15"/>
@@ -3209,8 +3233,8 @@
       <c r="HUN2" s="15"/>
       <c r="HUO2" s="15"/>
       <c r="HUP2" s="16"/>
-      <c r="HUW2" s="33"/>
-      <c r="HUX2" s="34"/>
+      <c r="HUW2" s="34"/>
+      <c r="HUX2" s="35"/>
       <c r="HVO2" s="14"/>
       <c r="HVP2" s="15"/>
       <c r="HVQ2" s="15"/>
@@ -3221,8 +3245,8 @@
       <c r="HVV2" s="15"/>
       <c r="HVW2" s="15"/>
       <c r="HVX2" s="16"/>
-      <c r="HWE2" s="33"/>
-      <c r="HWF2" s="34"/>
+      <c r="HWE2" s="34"/>
+      <c r="HWF2" s="35"/>
       <c r="HWW2" s="14"/>
       <c r="HWX2" s="15"/>
       <c r="HWY2" s="15"/>
@@ -3233,8 +3257,8 @@
       <c r="HXD2" s="15"/>
       <c r="HXE2" s="15"/>
       <c r="HXF2" s="16"/>
-      <c r="HXM2" s="33"/>
-      <c r="HXN2" s="34"/>
+      <c r="HXM2" s="34"/>
+      <c r="HXN2" s="35"/>
       <c r="HYE2" s="14"/>
       <c r="HYF2" s="15"/>
       <c r="HYG2" s="15"/>
@@ -3245,8 +3269,8 @@
       <c r="HYL2" s="15"/>
       <c r="HYM2" s="15"/>
       <c r="HYN2" s="16"/>
-      <c r="HYU2" s="33"/>
-      <c r="HYV2" s="34"/>
+      <c r="HYU2" s="34"/>
+      <c r="HYV2" s="35"/>
       <c r="HZM2" s="14"/>
       <c r="HZN2" s="15"/>
       <c r="HZO2" s="15"/>
@@ -3257,8 +3281,8 @@
       <c r="HZT2" s="15"/>
       <c r="HZU2" s="15"/>
       <c r="HZV2" s="16"/>
-      <c r="IAC2" s="33"/>
-      <c r="IAD2" s="34"/>
+      <c r="IAC2" s="34"/>
+      <c r="IAD2" s="35"/>
       <c r="IAU2" s="14"/>
       <c r="IAV2" s="15"/>
       <c r="IAW2" s="15"/>
@@ -3269,8 +3293,8 @@
       <c r="IBB2" s="15"/>
       <c r="IBC2" s="15"/>
       <c r="IBD2" s="16"/>
-      <c r="IBK2" s="33"/>
-      <c r="IBL2" s="34"/>
+      <c r="IBK2" s="34"/>
+      <c r="IBL2" s="35"/>
       <c r="ICC2" s="14"/>
       <c r="ICD2" s="15"/>
       <c r="ICE2" s="15"/>
@@ -3281,8 +3305,8 @@
       <c r="ICJ2" s="15"/>
       <c r="ICK2" s="15"/>
       <c r="ICL2" s="16"/>
-      <c r="ICS2" s="33"/>
-      <c r="ICT2" s="34"/>
+      <c r="ICS2" s="34"/>
+      <c r="ICT2" s="35"/>
       <c r="IDK2" s="14"/>
       <c r="IDL2" s="15"/>
       <c r="IDM2" s="15"/>
@@ -3293,8 +3317,8 @@
       <c r="IDR2" s="15"/>
       <c r="IDS2" s="15"/>
       <c r="IDT2" s="16"/>
-      <c r="IEA2" s="33"/>
-      <c r="IEB2" s="34"/>
+      <c r="IEA2" s="34"/>
+      <c r="IEB2" s="35"/>
       <c r="IES2" s="14"/>
       <c r="IET2" s="15"/>
       <c r="IEU2" s="15"/>
@@ -3305,8 +3329,8 @@
       <c r="IEZ2" s="15"/>
       <c r="IFA2" s="15"/>
       <c r="IFB2" s="16"/>
-      <c r="IFI2" s="33"/>
-      <c r="IFJ2" s="34"/>
+      <c r="IFI2" s="34"/>
+      <c r="IFJ2" s="35"/>
       <c r="IGA2" s="14"/>
       <c r="IGB2" s="15"/>
       <c r="IGC2" s="15"/>
@@ -3317,8 +3341,8 @@
       <c r="IGH2" s="15"/>
       <c r="IGI2" s="15"/>
       <c r="IGJ2" s="16"/>
-      <c r="IGQ2" s="33"/>
-      <c r="IGR2" s="34"/>
+      <c r="IGQ2" s="34"/>
+      <c r="IGR2" s="35"/>
       <c r="IHI2" s="14"/>
       <c r="IHJ2" s="15"/>
       <c r="IHK2" s="15"/>
@@ -3329,8 +3353,8 @@
       <c r="IHP2" s="15"/>
       <c r="IHQ2" s="15"/>
       <c r="IHR2" s="16"/>
-      <c r="IHY2" s="33"/>
-      <c r="IHZ2" s="34"/>
+      <c r="IHY2" s="34"/>
+      <c r="IHZ2" s="35"/>
       <c r="IIQ2" s="14"/>
       <c r="IIR2" s="15"/>
       <c r="IIS2" s="15"/>
@@ -3341,8 +3365,8 @@
       <c r="IIX2" s="15"/>
       <c r="IIY2" s="15"/>
       <c r="IIZ2" s="16"/>
-      <c r="IJG2" s="33"/>
-      <c r="IJH2" s="34"/>
+      <c r="IJG2" s="34"/>
+      <c r="IJH2" s="35"/>
       <c r="IJY2" s="14"/>
       <c r="IJZ2" s="15"/>
       <c r="IKA2" s="15"/>
@@ -3353,8 +3377,8 @@
       <c r="IKF2" s="15"/>
       <c r="IKG2" s="15"/>
       <c r="IKH2" s="16"/>
-      <c r="IKO2" s="33"/>
-      <c r="IKP2" s="34"/>
+      <c r="IKO2" s="34"/>
+      <c r="IKP2" s="35"/>
       <c r="ILG2" s="14"/>
       <c r="ILH2" s="15"/>
       <c r="ILI2" s="15"/>
@@ -3365,8 +3389,8 @@
       <c r="ILN2" s="15"/>
       <c r="ILO2" s="15"/>
       <c r="ILP2" s="16"/>
-      <c r="ILW2" s="33"/>
-      <c r="ILX2" s="34"/>
+      <c r="ILW2" s="34"/>
+      <c r="ILX2" s="35"/>
       <c r="IMO2" s="14"/>
       <c r="IMP2" s="15"/>
       <c r="IMQ2" s="15"/>
@@ -3377,8 +3401,8 @@
       <c r="IMV2" s="15"/>
       <c r="IMW2" s="15"/>
       <c r="IMX2" s="16"/>
-      <c r="INE2" s="33"/>
-      <c r="INF2" s="34"/>
+      <c r="INE2" s="34"/>
+      <c r="INF2" s="35"/>
       <c r="INW2" s="14"/>
       <c r="INX2" s="15"/>
       <c r="INY2" s="15"/>
@@ -3389,8 +3413,8 @@
       <c r="IOD2" s="15"/>
       <c r="IOE2" s="15"/>
       <c r="IOF2" s="16"/>
-      <c r="IOM2" s="33"/>
-      <c r="ION2" s="34"/>
+      <c r="IOM2" s="34"/>
+      <c r="ION2" s="35"/>
       <c r="IPE2" s="14"/>
       <c r="IPF2" s="15"/>
       <c r="IPG2" s="15"/>
@@ -3401,8 +3425,8 @@
       <c r="IPL2" s="15"/>
       <c r="IPM2" s="15"/>
       <c r="IPN2" s="16"/>
-      <c r="IPU2" s="33"/>
-      <c r="IPV2" s="34"/>
+      <c r="IPU2" s="34"/>
+      <c r="IPV2" s="35"/>
       <c r="IQM2" s="14"/>
       <c r="IQN2" s="15"/>
       <c r="IQO2" s="15"/>
@@ -3413,8 +3437,8 @@
       <c r="IQT2" s="15"/>
       <c r="IQU2" s="15"/>
       <c r="IQV2" s="16"/>
-      <c r="IRC2" s="33"/>
-      <c r="IRD2" s="34"/>
+      <c r="IRC2" s="34"/>
+      <c r="IRD2" s="35"/>
       <c r="IRU2" s="14"/>
       <c r="IRV2" s="15"/>
       <c r="IRW2" s="15"/>
@@ -3425,8 +3449,8 @@
       <c r="ISB2" s="15"/>
       <c r="ISC2" s="15"/>
       <c r="ISD2" s="16"/>
-      <c r="ISK2" s="33"/>
-      <c r="ISL2" s="34"/>
+      <c r="ISK2" s="34"/>
+      <c r="ISL2" s="35"/>
       <c r="ITC2" s="14"/>
       <c r="ITD2" s="15"/>
       <c r="ITE2" s="15"/>
@@ -3437,8 +3461,8 @@
       <c r="ITJ2" s="15"/>
       <c r="ITK2" s="15"/>
       <c r="ITL2" s="16"/>
-      <c r="ITS2" s="33"/>
-      <c r="ITT2" s="34"/>
+      <c r="ITS2" s="34"/>
+      <c r="ITT2" s="35"/>
       <c r="IUK2" s="14"/>
       <c r="IUL2" s="15"/>
       <c r="IUM2" s="15"/>
@@ -3449,8 +3473,8 @@
       <c r="IUR2" s="15"/>
       <c r="IUS2" s="15"/>
       <c r="IUT2" s="16"/>
-      <c r="IVA2" s="33"/>
-      <c r="IVB2" s="34"/>
+      <c r="IVA2" s="34"/>
+      <c r="IVB2" s="35"/>
       <c r="IVS2" s="14"/>
       <c r="IVT2" s="15"/>
       <c r="IVU2" s="15"/>
@@ -3461,8 +3485,8 @@
       <c r="IVZ2" s="15"/>
       <c r="IWA2" s="15"/>
       <c r="IWB2" s="16"/>
-      <c r="IWI2" s="33"/>
-      <c r="IWJ2" s="34"/>
+      <c r="IWI2" s="34"/>
+      <c r="IWJ2" s="35"/>
       <c r="IXA2" s="14"/>
       <c r="IXB2" s="15"/>
       <c r="IXC2" s="15"/>
@@ -3473,8 +3497,8 @@
       <c r="IXH2" s="15"/>
       <c r="IXI2" s="15"/>
       <c r="IXJ2" s="16"/>
-      <c r="IXQ2" s="33"/>
-      <c r="IXR2" s="34"/>
+      <c r="IXQ2" s="34"/>
+      <c r="IXR2" s="35"/>
       <c r="IYI2" s="14"/>
       <c r="IYJ2" s="15"/>
       <c r="IYK2" s="15"/>
@@ -3485,8 +3509,8 @@
       <c r="IYP2" s="15"/>
       <c r="IYQ2" s="15"/>
       <c r="IYR2" s="16"/>
-      <c r="IYY2" s="33"/>
-      <c r="IYZ2" s="34"/>
+      <c r="IYY2" s="34"/>
+      <c r="IYZ2" s="35"/>
       <c r="IZQ2" s="14"/>
       <c r="IZR2" s="15"/>
       <c r="IZS2" s="15"/>
@@ -3497,8 +3521,8 @@
       <c r="IZX2" s="15"/>
       <c r="IZY2" s="15"/>
       <c r="IZZ2" s="16"/>
-      <c r="JAG2" s="33"/>
-      <c r="JAH2" s="34"/>
+      <c r="JAG2" s="34"/>
+      <c r="JAH2" s="35"/>
       <c r="JAY2" s="14"/>
       <c r="JAZ2" s="15"/>
       <c r="JBA2" s="15"/>
@@ -3509,8 +3533,8 @@
       <c r="JBF2" s="15"/>
       <c r="JBG2" s="15"/>
       <c r="JBH2" s="16"/>
-      <c r="JBO2" s="33"/>
-      <c r="JBP2" s="34"/>
+      <c r="JBO2" s="34"/>
+      <c r="JBP2" s="35"/>
       <c r="JCG2" s="14"/>
       <c r="JCH2" s="15"/>
       <c r="JCI2" s="15"/>
@@ -3521,8 +3545,8 @@
       <c r="JCN2" s="15"/>
       <c r="JCO2" s="15"/>
       <c r="JCP2" s="16"/>
-      <c r="JCW2" s="33"/>
-      <c r="JCX2" s="34"/>
+      <c r="JCW2" s="34"/>
+      <c r="JCX2" s="35"/>
       <c r="JDO2" s="14"/>
       <c r="JDP2" s="15"/>
       <c r="JDQ2" s="15"/>
@@ -3533,8 +3557,8 @@
       <c r="JDV2" s="15"/>
       <c r="JDW2" s="15"/>
       <c r="JDX2" s="16"/>
-      <c r="JEE2" s="33"/>
-      <c r="JEF2" s="34"/>
+      <c r="JEE2" s="34"/>
+      <c r="JEF2" s="35"/>
       <c r="JEW2" s="14"/>
       <c r="JEX2" s="15"/>
       <c r="JEY2" s="15"/>
@@ -3545,8 +3569,8 @@
       <c r="JFD2" s="15"/>
       <c r="JFE2" s="15"/>
       <c r="JFF2" s="16"/>
-      <c r="JFM2" s="33"/>
-      <c r="JFN2" s="34"/>
+      <c r="JFM2" s="34"/>
+      <c r="JFN2" s="35"/>
       <c r="JGE2" s="14"/>
       <c r="JGF2" s="15"/>
       <c r="JGG2" s="15"/>
@@ -3557,8 +3581,8 @@
       <c r="JGL2" s="15"/>
       <c r="JGM2" s="15"/>
       <c r="JGN2" s="16"/>
-      <c r="JGU2" s="33"/>
-      <c r="JGV2" s="34"/>
+      <c r="JGU2" s="34"/>
+      <c r="JGV2" s="35"/>
       <c r="JHM2" s="14"/>
       <c r="JHN2" s="15"/>
       <c r="JHO2" s="15"/>
@@ -3569,8 +3593,8 @@
       <c r="JHT2" s="15"/>
       <c r="JHU2" s="15"/>
       <c r="JHV2" s="16"/>
-      <c r="JIC2" s="33"/>
-      <c r="JID2" s="34"/>
+      <c r="JIC2" s="34"/>
+      <c r="JID2" s="35"/>
       <c r="JIU2" s="14"/>
       <c r="JIV2" s="15"/>
       <c r="JIW2" s="15"/>
@@ -3581,8 +3605,8 @@
       <c r="JJB2" s="15"/>
       <c r="JJC2" s="15"/>
       <c r="JJD2" s="16"/>
-      <c r="JJK2" s="33"/>
-      <c r="JJL2" s="34"/>
+      <c r="JJK2" s="34"/>
+      <c r="JJL2" s="35"/>
       <c r="JKC2" s="14"/>
       <c r="JKD2" s="15"/>
       <c r="JKE2" s="15"/>
@@ -3593,8 +3617,8 @@
       <c r="JKJ2" s="15"/>
       <c r="JKK2" s="15"/>
       <c r="JKL2" s="16"/>
-      <c r="JKS2" s="33"/>
-      <c r="JKT2" s="34"/>
+      <c r="JKS2" s="34"/>
+      <c r="JKT2" s="35"/>
       <c r="JLK2" s="14"/>
       <c r="JLL2" s="15"/>
       <c r="JLM2" s="15"/>
@@ -3605,8 +3629,8 @@
       <c r="JLR2" s="15"/>
       <c r="JLS2" s="15"/>
       <c r="JLT2" s="16"/>
-      <c r="JMA2" s="33"/>
-      <c r="JMB2" s="34"/>
+      <c r="JMA2" s="34"/>
+      <c r="JMB2" s="35"/>
       <c r="JMS2" s="14"/>
       <c r="JMT2" s="15"/>
       <c r="JMU2" s="15"/>
@@ -3617,8 +3641,8 @@
       <c r="JMZ2" s="15"/>
       <c r="JNA2" s="15"/>
       <c r="JNB2" s="16"/>
-      <c r="JNI2" s="33"/>
-      <c r="JNJ2" s="34"/>
+      <c r="JNI2" s="34"/>
+      <c r="JNJ2" s="35"/>
       <c r="JOA2" s="14"/>
       <c r="JOB2" s="15"/>
       <c r="JOC2" s="15"/>
@@ -3629,8 +3653,8 @@
       <c r="JOH2" s="15"/>
       <c r="JOI2" s="15"/>
       <c r="JOJ2" s="16"/>
-      <c r="JOQ2" s="33"/>
-      <c r="JOR2" s="34"/>
+      <c r="JOQ2" s="34"/>
+      <c r="JOR2" s="35"/>
       <c r="JPI2" s="14"/>
       <c r="JPJ2" s="15"/>
       <c r="JPK2" s="15"/>
@@ -3641,8 +3665,8 @@
       <c r="JPP2" s="15"/>
       <c r="JPQ2" s="15"/>
       <c r="JPR2" s="16"/>
-      <c r="JPY2" s="33"/>
-      <c r="JPZ2" s="34"/>
+      <c r="JPY2" s="34"/>
+      <c r="JPZ2" s="35"/>
       <c r="JQQ2" s="14"/>
       <c r="JQR2" s="15"/>
       <c r="JQS2" s="15"/>
@@ -3653,8 +3677,8 @@
       <c r="JQX2" s="15"/>
       <c r="JQY2" s="15"/>
       <c r="JQZ2" s="16"/>
-      <c r="JRG2" s="33"/>
-      <c r="JRH2" s="34"/>
+      <c r="JRG2" s="34"/>
+      <c r="JRH2" s="35"/>
       <c r="JRY2" s="14"/>
       <c r="JRZ2" s="15"/>
       <c r="JSA2" s="15"/>
@@ -3665,8 +3689,8 @@
       <c r="JSF2" s="15"/>
       <c r="JSG2" s="15"/>
       <c r="JSH2" s="16"/>
-      <c r="JSO2" s="33"/>
-      <c r="JSP2" s="34"/>
+      <c r="JSO2" s="34"/>
+      <c r="JSP2" s="35"/>
       <c r="JTG2" s="14"/>
       <c r="JTH2" s="15"/>
       <c r="JTI2" s="15"/>
@@ -3677,8 +3701,8 @@
       <c r="JTN2" s="15"/>
       <c r="JTO2" s="15"/>
       <c r="JTP2" s="16"/>
-      <c r="JTW2" s="33"/>
-      <c r="JTX2" s="34"/>
+      <c r="JTW2" s="34"/>
+      <c r="JTX2" s="35"/>
       <c r="JUO2" s="14"/>
       <c r="JUP2" s="15"/>
       <c r="JUQ2" s="15"/>
@@ -3689,8 +3713,8 @@
       <c r="JUV2" s="15"/>
       <c r="JUW2" s="15"/>
       <c r="JUX2" s="16"/>
-      <c r="JVE2" s="33"/>
-      <c r="JVF2" s="34"/>
+      <c r="JVE2" s="34"/>
+      <c r="JVF2" s="35"/>
       <c r="JVW2" s="14"/>
       <c r="JVX2" s="15"/>
       <c r="JVY2" s="15"/>
@@ -3701,8 +3725,8 @@
       <c r="JWD2" s="15"/>
       <c r="JWE2" s="15"/>
       <c r="JWF2" s="16"/>
-      <c r="JWM2" s="33"/>
-      <c r="JWN2" s="34"/>
+      <c r="JWM2" s="34"/>
+      <c r="JWN2" s="35"/>
       <c r="JXE2" s="14"/>
       <c r="JXF2" s="15"/>
       <c r="JXG2" s="15"/>
@@ -3713,8 +3737,8 @@
       <c r="JXL2" s="15"/>
       <c r="JXM2" s="15"/>
       <c r="JXN2" s="16"/>
-      <c r="JXU2" s="33"/>
-      <c r="JXV2" s="34"/>
+      <c r="JXU2" s="34"/>
+      <c r="JXV2" s="35"/>
       <c r="JYM2" s="14"/>
       <c r="JYN2" s="15"/>
       <c r="JYO2" s="15"/>
@@ -3725,8 +3749,8 @@
       <c r="JYT2" s="15"/>
       <c r="JYU2" s="15"/>
       <c r="JYV2" s="16"/>
-      <c r="JZC2" s="33"/>
-      <c r="JZD2" s="34"/>
+      <c r="JZC2" s="34"/>
+      <c r="JZD2" s="35"/>
       <c r="JZU2" s="14"/>
       <c r="JZV2" s="15"/>
       <c r="JZW2" s="15"/>
@@ -3737,8 +3761,8 @@
       <c r="KAB2" s="15"/>
       <c r="KAC2" s="15"/>
       <c r="KAD2" s="16"/>
-      <c r="KAK2" s="33"/>
-      <c r="KAL2" s="34"/>
+      <c r="KAK2" s="34"/>
+      <c r="KAL2" s="35"/>
       <c r="KBC2" s="14"/>
       <c r="KBD2" s="15"/>
       <c r="KBE2" s="15"/>
@@ -3749,8 +3773,8 @@
       <c r="KBJ2" s="15"/>
       <c r="KBK2" s="15"/>
       <c r="KBL2" s="16"/>
-      <c r="KBS2" s="33"/>
-      <c r="KBT2" s="34"/>
+      <c r="KBS2" s="34"/>
+      <c r="KBT2" s="35"/>
       <c r="KCK2" s="14"/>
       <c r="KCL2" s="15"/>
       <c r="KCM2" s="15"/>
@@ -3761,8 +3785,8 @@
       <c r="KCR2" s="15"/>
       <c r="KCS2" s="15"/>
       <c r="KCT2" s="16"/>
-      <c r="KDA2" s="33"/>
-      <c r="KDB2" s="34"/>
+      <c r="KDA2" s="34"/>
+      <c r="KDB2" s="35"/>
       <c r="KDS2" s="14"/>
       <c r="KDT2" s="15"/>
       <c r="KDU2" s="15"/>
@@ -3773,8 +3797,8 @@
       <c r="KDZ2" s="15"/>
       <c r="KEA2" s="15"/>
       <c r="KEB2" s="16"/>
-      <c r="KEI2" s="33"/>
-      <c r="KEJ2" s="34"/>
+      <c r="KEI2" s="34"/>
+      <c r="KEJ2" s="35"/>
       <c r="KFA2" s="14"/>
       <c r="KFB2" s="15"/>
       <c r="KFC2" s="15"/>
@@ -3785,8 +3809,8 @@
       <c r="KFH2" s="15"/>
       <c r="KFI2" s="15"/>
       <c r="KFJ2" s="16"/>
-      <c r="KFQ2" s="33"/>
-      <c r="KFR2" s="34"/>
+      <c r="KFQ2" s="34"/>
+      <c r="KFR2" s="35"/>
       <c r="KGI2" s="14"/>
       <c r="KGJ2" s="15"/>
       <c r="KGK2" s="15"/>
@@ -3797,8 +3821,8 @@
       <c r="KGP2" s="15"/>
       <c r="KGQ2" s="15"/>
       <c r="KGR2" s="16"/>
-      <c r="KGY2" s="33"/>
-      <c r="KGZ2" s="34"/>
+      <c r="KGY2" s="34"/>
+      <c r="KGZ2" s="35"/>
       <c r="KHQ2" s="14"/>
       <c r="KHR2" s="15"/>
       <c r="KHS2" s="15"/>
@@ -3809,8 +3833,8 @@
       <c r="KHX2" s="15"/>
       <c r="KHY2" s="15"/>
       <c r="KHZ2" s="16"/>
-      <c r="KIG2" s="33"/>
-      <c r="KIH2" s="34"/>
+      <c r="KIG2" s="34"/>
+      <c r="KIH2" s="35"/>
       <c r="KIY2" s="14"/>
       <c r="KIZ2" s="15"/>
       <c r="KJA2" s="15"/>
@@ -3821,8 +3845,8 @@
       <c r="KJF2" s="15"/>
       <c r="KJG2" s="15"/>
       <c r="KJH2" s="16"/>
-      <c r="KJO2" s="33"/>
-      <c r="KJP2" s="34"/>
+      <c r="KJO2" s="34"/>
+      <c r="KJP2" s="35"/>
       <c r="KKG2" s="14"/>
       <c r="KKH2" s="15"/>
       <c r="KKI2" s="15"/>
@@ -3833,8 +3857,8 @@
       <c r="KKN2" s="15"/>
       <c r="KKO2" s="15"/>
       <c r="KKP2" s="16"/>
-      <c r="KKW2" s="33"/>
-      <c r="KKX2" s="34"/>
+      <c r="KKW2" s="34"/>
+      <c r="KKX2" s="35"/>
       <c r="KLO2" s="14"/>
       <c r="KLP2" s="15"/>
       <c r="KLQ2" s="15"/>
@@ -3845,8 +3869,8 @@
       <c r="KLV2" s="15"/>
       <c r="KLW2" s="15"/>
       <c r="KLX2" s="16"/>
-      <c r="KME2" s="33"/>
-      <c r="KMF2" s="34"/>
+      <c r="KME2" s="34"/>
+      <c r="KMF2" s="35"/>
       <c r="KMW2" s="14"/>
       <c r="KMX2" s="15"/>
       <c r="KMY2" s="15"/>
@@ -3857,8 +3881,8 @@
       <c r="KND2" s="15"/>
       <c r="KNE2" s="15"/>
       <c r="KNF2" s="16"/>
-      <c r="KNM2" s="33"/>
-      <c r="KNN2" s="34"/>
+      <c r="KNM2" s="34"/>
+      <c r="KNN2" s="35"/>
       <c r="KOE2" s="14"/>
       <c r="KOF2" s="15"/>
       <c r="KOG2" s="15"/>
@@ -3869,8 +3893,8 @@
       <c r="KOL2" s="15"/>
       <c r="KOM2" s="15"/>
       <c r="KON2" s="16"/>
-      <c r="KOU2" s="33"/>
-      <c r="KOV2" s="34"/>
+      <c r="KOU2" s="34"/>
+      <c r="KOV2" s="35"/>
       <c r="KPM2" s="14"/>
       <c r="KPN2" s="15"/>
       <c r="KPO2" s="15"/>
@@ -3881,8 +3905,8 @@
       <c r="KPT2" s="15"/>
       <c r="KPU2" s="15"/>
       <c r="KPV2" s="16"/>
-      <c r="KQC2" s="33"/>
-      <c r="KQD2" s="34"/>
+      <c r="KQC2" s="34"/>
+      <c r="KQD2" s="35"/>
       <c r="KQU2" s="14"/>
       <c r="KQV2" s="15"/>
       <c r="KQW2" s="15"/>
@@ -3893,8 +3917,8 @@
       <c r="KRB2" s="15"/>
       <c r="KRC2" s="15"/>
       <c r="KRD2" s="16"/>
-      <c r="KRK2" s="33"/>
-      <c r="KRL2" s="34"/>
+      <c r="KRK2" s="34"/>
+      <c r="KRL2" s="35"/>
       <c r="KSC2" s="14"/>
       <c r="KSD2" s="15"/>
       <c r="KSE2" s="15"/>
@@ -3905,8 +3929,8 @@
       <c r="KSJ2" s="15"/>
       <c r="KSK2" s="15"/>
       <c r="KSL2" s="16"/>
-      <c r="KSS2" s="33"/>
-      <c r="KST2" s="34"/>
+      <c r="KSS2" s="34"/>
+      <c r="KST2" s="35"/>
       <c r="KTK2" s="14"/>
       <c r="KTL2" s="15"/>
       <c r="KTM2" s="15"/>
@@ -3917,8 +3941,8 @@
       <c r="KTR2" s="15"/>
       <c r="KTS2" s="15"/>
       <c r="KTT2" s="16"/>
-      <c r="KUA2" s="33"/>
-      <c r="KUB2" s="34"/>
+      <c r="KUA2" s="34"/>
+      <c r="KUB2" s="35"/>
       <c r="KUS2" s="14"/>
       <c r="KUT2" s="15"/>
       <c r="KUU2" s="15"/>
@@ -3929,8 +3953,8 @@
       <c r="KUZ2" s="15"/>
       <c r="KVA2" s="15"/>
       <c r="KVB2" s="16"/>
-      <c r="KVI2" s="33"/>
-      <c r="KVJ2" s="34"/>
+      <c r="KVI2" s="34"/>
+      <c r="KVJ2" s="35"/>
       <c r="KWA2" s="14"/>
       <c r="KWB2" s="15"/>
       <c r="KWC2" s="15"/>
@@ -3941,8 +3965,8 @@
       <c r="KWH2" s="15"/>
       <c r="KWI2" s="15"/>
       <c r="KWJ2" s="16"/>
-      <c r="KWQ2" s="33"/>
-      <c r="KWR2" s="34"/>
+      <c r="KWQ2" s="34"/>
+      <c r="KWR2" s="35"/>
       <c r="KXI2" s="14"/>
       <c r="KXJ2" s="15"/>
       <c r="KXK2" s="15"/>
@@ -3953,8 +3977,8 @@
       <c r="KXP2" s="15"/>
       <c r="KXQ2" s="15"/>
       <c r="KXR2" s="16"/>
-      <c r="KXY2" s="33"/>
-      <c r="KXZ2" s="34"/>
+      <c r="KXY2" s="34"/>
+      <c r="KXZ2" s="35"/>
       <c r="KYQ2" s="14"/>
       <c r="KYR2" s="15"/>
       <c r="KYS2" s="15"/>
@@ -3965,8 +3989,8 @@
       <c r="KYX2" s="15"/>
       <c r="KYY2" s="15"/>
       <c r="KYZ2" s="16"/>
-      <c r="KZG2" s="33"/>
-      <c r="KZH2" s="34"/>
+      <c r="KZG2" s="34"/>
+      <c r="KZH2" s="35"/>
       <c r="KZY2" s="14"/>
       <c r="KZZ2" s="15"/>
       <c r="LAA2" s="15"/>
@@ -3977,8 +4001,8 @@
       <c r="LAF2" s="15"/>
       <c r="LAG2" s="15"/>
       <c r="LAH2" s="16"/>
-      <c r="LAO2" s="33"/>
-      <c r="LAP2" s="34"/>
+      <c r="LAO2" s="34"/>
+      <c r="LAP2" s="35"/>
       <c r="LBG2" s="14"/>
       <c r="LBH2" s="15"/>
       <c r="LBI2" s="15"/>
@@ -3989,8 +4013,8 @@
       <c r="LBN2" s="15"/>
       <c r="LBO2" s="15"/>
       <c r="LBP2" s="16"/>
-      <c r="LBW2" s="33"/>
-      <c r="LBX2" s="34"/>
+      <c r="LBW2" s="34"/>
+      <c r="LBX2" s="35"/>
       <c r="LCO2" s="14"/>
       <c r="LCP2" s="15"/>
       <c r="LCQ2" s="15"/>
@@ -4001,8 +4025,8 @@
       <c r="LCV2" s="15"/>
       <c r="LCW2" s="15"/>
       <c r="LCX2" s="16"/>
-      <c r="LDE2" s="33"/>
-      <c r="LDF2" s="34"/>
+      <c r="LDE2" s="34"/>
+      <c r="LDF2" s="35"/>
       <c r="LDW2" s="14"/>
       <c r="LDX2" s="15"/>
       <c r="LDY2" s="15"/>
@@ -4013,8 +4037,8 @@
       <c r="LED2" s="15"/>
       <c r="LEE2" s="15"/>
       <c r="LEF2" s="16"/>
-      <c r="LEM2" s="33"/>
-      <c r="LEN2" s="34"/>
+      <c r="LEM2" s="34"/>
+      <c r="LEN2" s="35"/>
       <c r="LFE2" s="14"/>
       <c r="LFF2" s="15"/>
       <c r="LFG2" s="15"/>
@@ -4025,8 +4049,8 @@
       <c r="LFL2" s="15"/>
       <c r="LFM2" s="15"/>
       <c r="LFN2" s="16"/>
-      <c r="LFU2" s="33"/>
-      <c r="LFV2" s="34"/>
+      <c r="LFU2" s="34"/>
+      <c r="LFV2" s="35"/>
       <c r="LGM2" s="14"/>
       <c r="LGN2" s="15"/>
       <c r="LGO2" s="15"/>
@@ -4037,8 +4061,8 @@
       <c r="LGT2" s="15"/>
       <c r="LGU2" s="15"/>
       <c r="LGV2" s="16"/>
-      <c r="LHC2" s="33"/>
-      <c r="LHD2" s="34"/>
+      <c r="LHC2" s="34"/>
+      <c r="LHD2" s="35"/>
       <c r="LHU2" s="14"/>
       <c r="LHV2" s="15"/>
       <c r="LHW2" s="15"/>
@@ -4049,8 +4073,8 @@
       <c r="LIB2" s="15"/>
       <c r="LIC2" s="15"/>
       <c r="LID2" s="16"/>
-      <c r="LIK2" s="33"/>
-      <c r="LIL2" s="34"/>
+      <c r="LIK2" s="34"/>
+      <c r="LIL2" s="35"/>
       <c r="LJC2" s="14"/>
       <c r="LJD2" s="15"/>
       <c r="LJE2" s="15"/>
@@ -4061,8 +4085,8 @@
       <c r="LJJ2" s="15"/>
       <c r="LJK2" s="15"/>
       <c r="LJL2" s="16"/>
-      <c r="LJS2" s="33"/>
-      <c r="LJT2" s="34"/>
+      <c r="LJS2" s="34"/>
+      <c r="LJT2" s="35"/>
       <c r="LKK2" s="14"/>
       <c r="LKL2" s="15"/>
       <c r="LKM2" s="15"/>
@@ -4073,8 +4097,8 @@
       <c r="LKR2" s="15"/>
       <c r="LKS2" s="15"/>
       <c r="LKT2" s="16"/>
-      <c r="LLA2" s="33"/>
-      <c r="LLB2" s="34"/>
+      <c r="LLA2" s="34"/>
+      <c r="LLB2" s="35"/>
       <c r="LLS2" s="14"/>
       <c r="LLT2" s="15"/>
       <c r="LLU2" s="15"/>
@@ -4085,8 +4109,8 @@
       <c r="LLZ2" s="15"/>
       <c r="LMA2" s="15"/>
       <c r="LMB2" s="16"/>
-      <c r="LMI2" s="33"/>
-      <c r="LMJ2" s="34"/>
+      <c r="LMI2" s="34"/>
+      <c r="LMJ2" s="35"/>
       <c r="LNA2" s="14"/>
       <c r="LNB2" s="15"/>
       <c r="LNC2" s="15"/>
@@ -4097,8 +4121,8 @@
       <c r="LNH2" s="15"/>
       <c r="LNI2" s="15"/>
       <c r="LNJ2" s="16"/>
-      <c r="LNQ2" s="33"/>
-      <c r="LNR2" s="34"/>
+      <c r="LNQ2" s="34"/>
+      <c r="LNR2" s="35"/>
       <c r="LOI2" s="14"/>
       <c r="LOJ2" s="15"/>
       <c r="LOK2" s="15"/>
@@ -4109,8 +4133,8 @@
       <c r="LOP2" s="15"/>
       <c r="LOQ2" s="15"/>
       <c r="LOR2" s="16"/>
-      <c r="LOY2" s="33"/>
-      <c r="LOZ2" s="34"/>
+      <c r="LOY2" s="34"/>
+      <c r="LOZ2" s="35"/>
       <c r="LPQ2" s="14"/>
       <c r="LPR2" s="15"/>
       <c r="LPS2" s="15"/>
@@ -4121,8 +4145,8 @@
       <c r="LPX2" s="15"/>
       <c r="LPY2" s="15"/>
       <c r="LPZ2" s="16"/>
-      <c r="LQG2" s="33"/>
-      <c r="LQH2" s="34"/>
+      <c r="LQG2" s="34"/>
+      <c r="LQH2" s="35"/>
       <c r="LQY2" s="14"/>
       <c r="LQZ2" s="15"/>
       <c r="LRA2" s="15"/>
@@ -4133,8 +4157,8 @@
       <c r="LRF2" s="15"/>
       <c r="LRG2" s="15"/>
       <c r="LRH2" s="16"/>
-      <c r="LRO2" s="33"/>
-      <c r="LRP2" s="34"/>
+      <c r="LRO2" s="34"/>
+      <c r="LRP2" s="35"/>
       <c r="LSG2" s="14"/>
       <c r="LSH2" s="15"/>
       <c r="LSI2" s="15"/>
@@ -4145,8 +4169,8 @@
       <c r="LSN2" s="15"/>
       <c r="LSO2" s="15"/>
       <c r="LSP2" s="16"/>
-      <c r="LSW2" s="33"/>
-      <c r="LSX2" s="34"/>
+      <c r="LSW2" s="34"/>
+      <c r="LSX2" s="35"/>
       <c r="LTO2" s="14"/>
       <c r="LTP2" s="15"/>
       <c r="LTQ2" s="15"/>
@@ -4157,8 +4181,8 @@
       <c r="LTV2" s="15"/>
       <c r="LTW2" s="15"/>
       <c r="LTX2" s="16"/>
-      <c r="LUE2" s="33"/>
-      <c r="LUF2" s="34"/>
+      <c r="LUE2" s="34"/>
+      <c r="LUF2" s="35"/>
       <c r="LUW2" s="14"/>
       <c r="LUX2" s="15"/>
       <c r="LUY2" s="15"/>
@@ -4169,8 +4193,8 @@
       <c r="LVD2" s="15"/>
       <c r="LVE2" s="15"/>
       <c r="LVF2" s="16"/>
-      <c r="LVM2" s="33"/>
-      <c r="LVN2" s="34"/>
+      <c r="LVM2" s="34"/>
+      <c r="LVN2" s="35"/>
       <c r="LWE2" s="14"/>
       <c r="LWF2" s="15"/>
       <c r="LWG2" s="15"/>
@@ -4181,8 +4205,8 @@
       <c r="LWL2" s="15"/>
       <c r="LWM2" s="15"/>
       <c r="LWN2" s="16"/>
-      <c r="LWU2" s="33"/>
-      <c r="LWV2" s="34"/>
+      <c r="LWU2" s="34"/>
+      <c r="LWV2" s="35"/>
       <c r="LXM2" s="14"/>
       <c r="LXN2" s="15"/>
       <c r="LXO2" s="15"/>
@@ -4193,8 +4217,8 @@
       <c r="LXT2" s="15"/>
       <c r="LXU2" s="15"/>
       <c r="LXV2" s="16"/>
-      <c r="LYC2" s="33"/>
-      <c r="LYD2" s="34"/>
+      <c r="LYC2" s="34"/>
+      <c r="LYD2" s="35"/>
       <c r="LYU2" s="14"/>
       <c r="LYV2" s="15"/>
       <c r="LYW2" s="15"/>
@@ -4205,8 +4229,8 @@
       <c r="LZB2" s="15"/>
       <c r="LZC2" s="15"/>
       <c r="LZD2" s="16"/>
-      <c r="LZK2" s="33"/>
-      <c r="LZL2" s="34"/>
+      <c r="LZK2" s="34"/>
+      <c r="LZL2" s="35"/>
       <c r="MAC2" s="14"/>
       <c r="MAD2" s="15"/>
       <c r="MAE2" s="15"/>
@@ -4217,8 +4241,8 @@
       <c r="MAJ2" s="15"/>
       <c r="MAK2" s="15"/>
       <c r="MAL2" s="16"/>
-      <c r="MAS2" s="33"/>
-      <c r="MAT2" s="34"/>
+      <c r="MAS2" s="34"/>
+      <c r="MAT2" s="35"/>
       <c r="MBK2" s="14"/>
       <c r="MBL2" s="15"/>
       <c r="MBM2" s="15"/>
@@ -4229,8 +4253,8 @@
       <c r="MBR2" s="15"/>
       <c r="MBS2" s="15"/>
       <c r="MBT2" s="16"/>
-      <c r="MCA2" s="33"/>
-      <c r="MCB2" s="34"/>
+      <c r="MCA2" s="34"/>
+      <c r="MCB2" s="35"/>
       <c r="MCS2" s="14"/>
       <c r="MCT2" s="15"/>
       <c r="MCU2" s="15"/>
@@ -4241,8 +4265,8 @@
       <c r="MCZ2" s="15"/>
       <c r="MDA2" s="15"/>
       <c r="MDB2" s="16"/>
-      <c r="MDI2" s="33"/>
-      <c r="MDJ2" s="34"/>
+      <c r="MDI2" s="34"/>
+      <c r="MDJ2" s="35"/>
       <c r="MEA2" s="14"/>
       <c r="MEB2" s="15"/>
       <c r="MEC2" s="15"/>
@@ -4253,8 +4277,8 @@
       <c r="MEH2" s="15"/>
       <c r="MEI2" s="15"/>
       <c r="MEJ2" s="16"/>
-      <c r="MEQ2" s="33"/>
-      <c r="MER2" s="34"/>
+      <c r="MEQ2" s="34"/>
+      <c r="MER2" s="35"/>
       <c r="MFI2" s="14"/>
       <c r="MFJ2" s="15"/>
       <c r="MFK2" s="15"/>
@@ -4265,8 +4289,8 @@
       <c r="MFP2" s="15"/>
       <c r="MFQ2" s="15"/>
       <c r="MFR2" s="16"/>
-      <c r="MFY2" s="33"/>
-      <c r="MFZ2" s="34"/>
+      <c r="MFY2" s="34"/>
+      <c r="MFZ2" s="35"/>
       <c r="MGQ2" s="14"/>
       <c r="MGR2" s="15"/>
       <c r="MGS2" s="15"/>
@@ -4277,8 +4301,8 @@
       <c r="MGX2" s="15"/>
       <c r="MGY2" s="15"/>
       <c r="MGZ2" s="16"/>
-      <c r="MHG2" s="33"/>
-      <c r="MHH2" s="34"/>
+      <c r="MHG2" s="34"/>
+      <c r="MHH2" s="35"/>
       <c r="MHY2" s="14"/>
       <c r="MHZ2" s="15"/>
       <c r="MIA2" s="15"/>
@@ -4289,8 +4313,8 @@
       <c r="MIF2" s="15"/>
       <c r="MIG2" s="15"/>
       <c r="MIH2" s="16"/>
-      <c r="MIO2" s="33"/>
-      <c r="MIP2" s="34"/>
+      <c r="MIO2" s="34"/>
+      <c r="MIP2" s="35"/>
       <c r="MJG2" s="14"/>
       <c r="MJH2" s="15"/>
       <c r="MJI2" s="15"/>
@@ -4301,8 +4325,8 @@
       <c r="MJN2" s="15"/>
       <c r="MJO2" s="15"/>
       <c r="MJP2" s="16"/>
-      <c r="MJW2" s="33"/>
-      <c r="MJX2" s="34"/>
+      <c r="MJW2" s="34"/>
+      <c r="MJX2" s="35"/>
       <c r="MKO2" s="14"/>
       <c r="MKP2" s="15"/>
       <c r="MKQ2" s="15"/>
@@ -4313,8 +4337,8 @@
       <c r="MKV2" s="15"/>
       <c r="MKW2" s="15"/>
       <c r="MKX2" s="16"/>
-      <c r="MLE2" s="33"/>
-      <c r="MLF2" s="34"/>
+      <c r="MLE2" s="34"/>
+      <c r="MLF2" s="35"/>
       <c r="MLW2" s="14"/>
       <c r="MLX2" s="15"/>
       <c r="MLY2" s="15"/>
@@ -4325,8 +4349,8 @@
       <c r="MMD2" s="15"/>
       <c r="MME2" s="15"/>
       <c r="MMF2" s="16"/>
-      <c r="MMM2" s="33"/>
-      <c r="MMN2" s="34"/>
+      <c r="MMM2" s="34"/>
+      <c r="MMN2" s="35"/>
       <c r="MNE2" s="14"/>
       <c r="MNF2" s="15"/>
       <c r="MNG2" s="15"/>
@@ -4337,8 +4361,8 @@
       <c r="MNL2" s="15"/>
       <c r="MNM2" s="15"/>
       <c r="MNN2" s="16"/>
-      <c r="MNU2" s="33"/>
-      <c r="MNV2" s="34"/>
+      <c r="MNU2" s="34"/>
+      <c r="MNV2" s="35"/>
       <c r="MOM2" s="14"/>
       <c r="MON2" s="15"/>
       <c r="MOO2" s="15"/>
@@ -4349,8 +4373,8 @@
       <c r="MOT2" s="15"/>
       <c r="MOU2" s="15"/>
       <c r="MOV2" s="16"/>
-      <c r="MPC2" s="33"/>
-      <c r="MPD2" s="34"/>
+      <c r="MPC2" s="34"/>
+      <c r="MPD2" s="35"/>
       <c r="MPU2" s="14"/>
       <c r="MPV2" s="15"/>
       <c r="MPW2" s="15"/>
@@ -4361,8 +4385,8 @@
       <c r="MQB2" s="15"/>
       <c r="MQC2" s="15"/>
       <c r="MQD2" s="16"/>
-      <c r="MQK2" s="33"/>
-      <c r="MQL2" s="34"/>
+      <c r="MQK2" s="34"/>
+      <c r="MQL2" s="35"/>
       <c r="MRC2" s="14"/>
       <c r="MRD2" s="15"/>
       <c r="MRE2" s="15"/>
@@ -4373,8 +4397,8 @@
       <c r="MRJ2" s="15"/>
       <c r="MRK2" s="15"/>
       <c r="MRL2" s="16"/>
-      <c r="MRS2" s="33"/>
-      <c r="MRT2" s="34"/>
+      <c r="MRS2" s="34"/>
+      <c r="MRT2" s="35"/>
       <c r="MSK2" s="14"/>
       <c r="MSL2" s="15"/>
       <c r="MSM2" s="15"/>
@@ -4385,8 +4409,8 @@
       <c r="MSR2" s="15"/>
       <c r="MSS2" s="15"/>
       <c r="MST2" s="16"/>
-      <c r="MTA2" s="33"/>
-      <c r="MTB2" s="34"/>
+      <c r="MTA2" s="34"/>
+      <c r="MTB2" s="35"/>
       <c r="MTS2" s="14"/>
       <c r="MTT2" s="15"/>
       <c r="MTU2" s="15"/>
@@ -4397,8 +4421,8 @@
       <c r="MTZ2" s="15"/>
       <c r="MUA2" s="15"/>
       <c r="MUB2" s="16"/>
-      <c r="MUI2" s="33"/>
-      <c r="MUJ2" s="34"/>
+      <c r="MUI2" s="34"/>
+      <c r="MUJ2" s="35"/>
       <c r="MVA2" s="14"/>
       <c r="MVB2" s="15"/>
       <c r="MVC2" s="15"/>
@@ -4409,8 +4433,8 @@
       <c r="MVH2" s="15"/>
       <c r="MVI2" s="15"/>
       <c r="MVJ2" s="16"/>
-      <c r="MVQ2" s="33"/>
-      <c r="MVR2" s="34"/>
+      <c r="MVQ2" s="34"/>
+      <c r="MVR2" s="35"/>
       <c r="MWI2" s="14"/>
       <c r="MWJ2" s="15"/>
       <c r="MWK2" s="15"/>
@@ -4421,8 +4445,8 @@
       <c r="MWP2" s="15"/>
       <c r="MWQ2" s="15"/>
       <c r="MWR2" s="16"/>
-      <c r="MWY2" s="33"/>
-      <c r="MWZ2" s="34"/>
+      <c r="MWY2" s="34"/>
+      <c r="MWZ2" s="35"/>
       <c r="MXQ2" s="14"/>
       <c r="MXR2" s="15"/>
       <c r="MXS2" s="15"/>
@@ -4433,8 +4457,8 @@
       <c r="MXX2" s="15"/>
       <c r="MXY2" s="15"/>
       <c r="MXZ2" s="16"/>
-      <c r="MYG2" s="33"/>
-      <c r="MYH2" s="34"/>
+      <c r="MYG2" s="34"/>
+      <c r="MYH2" s="35"/>
       <c r="MYY2" s="14"/>
       <c r="MYZ2" s="15"/>
       <c r="MZA2" s="15"/>
@@ -4445,8 +4469,8 @@
       <c r="MZF2" s="15"/>
       <c r="MZG2" s="15"/>
       <c r="MZH2" s="16"/>
-      <c r="MZO2" s="33"/>
-      <c r="MZP2" s="34"/>
+      <c r="MZO2" s="34"/>
+      <c r="MZP2" s="35"/>
       <c r="NAG2" s="14"/>
       <c r="NAH2" s="15"/>
       <c r="NAI2" s="15"/>
@@ -4457,8 +4481,8 @@
       <c r="NAN2" s="15"/>
       <c r="NAO2" s="15"/>
       <c r="NAP2" s="16"/>
-      <c r="NAW2" s="33"/>
-      <c r="NAX2" s="34"/>
+      <c r="NAW2" s="34"/>
+      <c r="NAX2" s="35"/>
       <c r="NBO2" s="14"/>
       <c r="NBP2" s="15"/>
       <c r="NBQ2" s="15"/>
@@ -4469,8 +4493,8 @@
       <c r="NBV2" s="15"/>
       <c r="NBW2" s="15"/>
       <c r="NBX2" s="16"/>
-      <c r="NCE2" s="33"/>
-      <c r="NCF2" s="34"/>
+      <c r="NCE2" s="34"/>
+      <c r="NCF2" s="35"/>
       <c r="NCW2" s="14"/>
       <c r="NCX2" s="15"/>
       <c r="NCY2" s="15"/>
@@ -4481,8 +4505,8 @@
       <c r="NDD2" s="15"/>
       <c r="NDE2" s="15"/>
       <c r="NDF2" s="16"/>
-      <c r="NDM2" s="33"/>
-      <c r="NDN2" s="34"/>
+      <c r="NDM2" s="34"/>
+      <c r="NDN2" s="35"/>
       <c r="NEE2" s="14"/>
       <c r="NEF2" s="15"/>
       <c r="NEG2" s="15"/>
@@ -4493,8 +4517,8 @@
       <c r="NEL2" s="15"/>
       <c r="NEM2" s="15"/>
       <c r="NEN2" s="16"/>
-      <c r="NEU2" s="33"/>
-      <c r="NEV2" s="34"/>
+      <c r="NEU2" s="34"/>
+      <c r="NEV2" s="35"/>
       <c r="NFM2" s="14"/>
       <c r="NFN2" s="15"/>
       <c r="NFO2" s="15"/>
@@ -4505,8 +4529,8 @@
       <c r="NFT2" s="15"/>
       <c r="NFU2" s="15"/>
       <c r="NFV2" s="16"/>
-      <c r="NGC2" s="33"/>
-      <c r="NGD2" s="34"/>
+      <c r="NGC2" s="34"/>
+      <c r="NGD2" s="35"/>
       <c r="NGU2" s="14"/>
       <c r="NGV2" s="15"/>
       <c r="NGW2" s="15"/>
@@ -4517,8 +4541,8 @@
       <c r="NHB2" s="15"/>
       <c r="NHC2" s="15"/>
       <c r="NHD2" s="16"/>
-      <c r="NHK2" s="33"/>
-      <c r="NHL2" s="34"/>
+      <c r="NHK2" s="34"/>
+      <c r="NHL2" s="35"/>
       <c r="NIC2" s="14"/>
       <c r="NID2" s="15"/>
       <c r="NIE2" s="15"/>
@@ -4529,8 +4553,8 @@
       <c r="NIJ2" s="15"/>
       <c r="NIK2" s="15"/>
       <c r="NIL2" s="16"/>
-      <c r="NIS2" s="33"/>
-      <c r="NIT2" s="34"/>
+      <c r="NIS2" s="34"/>
+      <c r="NIT2" s="35"/>
       <c r="NJK2" s="14"/>
       <c r="NJL2" s="15"/>
       <c r="NJM2" s="15"/>
@@ -4541,8 +4565,8 @@
       <c r="NJR2" s="15"/>
       <c r="NJS2" s="15"/>
       <c r="NJT2" s="16"/>
-      <c r="NKA2" s="33"/>
-      <c r="NKB2" s="34"/>
+      <c r="NKA2" s="34"/>
+      <c r="NKB2" s="35"/>
       <c r="NKS2" s="14"/>
       <c r="NKT2" s="15"/>
       <c r="NKU2" s="15"/>
@@ -4553,8 +4577,8 @@
       <c r="NKZ2" s="15"/>
       <c r="NLA2" s="15"/>
       <c r="NLB2" s="16"/>
-      <c r="NLI2" s="33"/>
-      <c r="NLJ2" s="34"/>
+      <c r="NLI2" s="34"/>
+      <c r="NLJ2" s="35"/>
       <c r="NMA2" s="14"/>
       <c r="NMB2" s="15"/>
       <c r="NMC2" s="15"/>
@@ -4565,8 +4589,8 @@
       <c r="NMH2" s="15"/>
       <c r="NMI2" s="15"/>
       <c r="NMJ2" s="16"/>
-      <c r="NMQ2" s="33"/>
-      <c r="NMR2" s="34"/>
+      <c r="NMQ2" s="34"/>
+      <c r="NMR2" s="35"/>
       <c r="NNI2" s="14"/>
       <c r="NNJ2" s="15"/>
       <c r="NNK2" s="15"/>
@@ -4577,8 +4601,8 @@
       <c r="NNP2" s="15"/>
       <c r="NNQ2" s="15"/>
       <c r="NNR2" s="16"/>
-      <c r="NNY2" s="33"/>
-      <c r="NNZ2" s="34"/>
+      <c r="NNY2" s="34"/>
+      <c r="NNZ2" s="35"/>
       <c r="NOQ2" s="14"/>
       <c r="NOR2" s="15"/>
       <c r="NOS2" s="15"/>
@@ -4589,8 +4613,8 @@
       <c r="NOX2" s="15"/>
       <c r="NOY2" s="15"/>
       <c r="NOZ2" s="16"/>
-      <c r="NPG2" s="33"/>
-      <c r="NPH2" s="34"/>
+      <c r="NPG2" s="34"/>
+      <c r="NPH2" s="35"/>
       <c r="NPY2" s="14"/>
       <c r="NPZ2" s="15"/>
       <c r="NQA2" s="15"/>
@@ -4601,8 +4625,8 @@
       <c r="NQF2" s="15"/>
       <c r="NQG2" s="15"/>
       <c r="NQH2" s="16"/>
-      <c r="NQO2" s="33"/>
-      <c r="NQP2" s="34"/>
+      <c r="NQO2" s="34"/>
+      <c r="NQP2" s="35"/>
       <c r="NRG2" s="14"/>
       <c r="NRH2" s="15"/>
       <c r="NRI2" s="15"/>
@@ -4613,8 +4637,8 @@
       <c r="NRN2" s="15"/>
       <c r="NRO2" s="15"/>
       <c r="NRP2" s="16"/>
-      <c r="NRW2" s="33"/>
-      <c r="NRX2" s="34"/>
+      <c r="NRW2" s="34"/>
+      <c r="NRX2" s="35"/>
       <c r="NSO2" s="14"/>
       <c r="NSP2" s="15"/>
       <c r="NSQ2" s="15"/>
@@ -4625,8 +4649,8 @@
       <c r="NSV2" s="15"/>
       <c r="NSW2" s="15"/>
       <c r="NSX2" s="16"/>
-      <c r="NTE2" s="33"/>
-      <c r="NTF2" s="34"/>
+      <c r="NTE2" s="34"/>
+      <c r="NTF2" s="35"/>
       <c r="NTW2" s="14"/>
       <c r="NTX2" s="15"/>
       <c r="NTY2" s="15"/>
@@ -4637,8 +4661,8 @@
       <c r="NUD2" s="15"/>
       <c r="NUE2" s="15"/>
       <c r="NUF2" s="16"/>
-      <c r="NUM2" s="33"/>
-      <c r="NUN2" s="34"/>
+      <c r="NUM2" s="34"/>
+      <c r="NUN2" s="35"/>
       <c r="NVE2" s="14"/>
       <c r="NVF2" s="15"/>
       <c r="NVG2" s="15"/>
@@ -4649,8 +4673,8 @@
       <c r="NVL2" s="15"/>
       <c r="NVM2" s="15"/>
       <c r="NVN2" s="16"/>
-      <c r="NVU2" s="33"/>
-      <c r="NVV2" s="34"/>
+      <c r="NVU2" s="34"/>
+      <c r="NVV2" s="35"/>
       <c r="NWM2" s="14"/>
       <c r="NWN2" s="15"/>
       <c r="NWO2" s="15"/>
@@ -4661,8 +4685,8 @@
       <c r="NWT2" s="15"/>
       <c r="NWU2" s="15"/>
       <c r="NWV2" s="16"/>
-      <c r="NXC2" s="33"/>
-      <c r="NXD2" s="34"/>
+      <c r="NXC2" s="34"/>
+      <c r="NXD2" s="35"/>
       <c r="NXU2" s="14"/>
       <c r="NXV2" s="15"/>
       <c r="NXW2" s="15"/>
@@ -4673,8 +4697,8 @@
       <c r="NYB2" s="15"/>
       <c r="NYC2" s="15"/>
       <c r="NYD2" s="16"/>
-      <c r="NYK2" s="33"/>
-      <c r="NYL2" s="34"/>
+      <c r="NYK2" s="34"/>
+      <c r="NYL2" s="35"/>
       <c r="NZC2" s="14"/>
       <c r="NZD2" s="15"/>
       <c r="NZE2" s="15"/>
@@ -4685,8 +4709,8 @@
       <c r="NZJ2" s="15"/>
       <c r="NZK2" s="15"/>
       <c r="NZL2" s="16"/>
-      <c r="NZS2" s="33"/>
-      <c r="NZT2" s="34"/>
+      <c r="NZS2" s="34"/>
+      <c r="NZT2" s="35"/>
       <c r="OAK2" s="14"/>
       <c r="OAL2" s="15"/>
       <c r="OAM2" s="15"/>
@@ -4697,8 +4721,8 @@
       <c r="OAR2" s="15"/>
       <c r="OAS2" s="15"/>
       <c r="OAT2" s="16"/>
-      <c r="OBA2" s="33"/>
-      <c r="OBB2" s="34"/>
+      <c r="OBA2" s="34"/>
+      <c r="OBB2" s="35"/>
       <c r="OBS2" s="14"/>
       <c r="OBT2" s="15"/>
       <c r="OBU2" s="15"/>
@@ -4709,8 +4733,8 @@
       <c r="OBZ2" s="15"/>
       <c r="OCA2" s="15"/>
       <c r="OCB2" s="16"/>
-      <c r="OCI2" s="33"/>
-      <c r="OCJ2" s="34"/>
+      <c r="OCI2" s="34"/>
+      <c r="OCJ2" s="35"/>
       <c r="ODA2" s="14"/>
       <c r="ODB2" s="15"/>
       <c r="ODC2" s="15"/>
@@ -4721,8 +4745,8 @@
       <c r="ODH2" s="15"/>
       <c r="ODI2" s="15"/>
       <c r="ODJ2" s="16"/>
-      <c r="ODQ2" s="33"/>
-      <c r="ODR2" s="34"/>
+      <c r="ODQ2" s="34"/>
+      <c r="ODR2" s="35"/>
       <c r="OEI2" s="14"/>
       <c r="OEJ2" s="15"/>
       <c r="OEK2" s="15"/>
@@ -4733,8 +4757,8 @@
       <c r="OEP2" s="15"/>
       <c r="OEQ2" s="15"/>
       <c r="OER2" s="16"/>
-      <c r="OEY2" s="33"/>
-      <c r="OEZ2" s="34"/>
+      <c r="OEY2" s="34"/>
+      <c r="OEZ2" s="35"/>
       <c r="OFQ2" s="14"/>
       <c r="OFR2" s="15"/>
       <c r="OFS2" s="15"/>
@@ -4745,8 +4769,8 @@
       <c r="OFX2" s="15"/>
       <c r="OFY2" s="15"/>
       <c r="OFZ2" s="16"/>
-      <c r="OGG2" s="33"/>
-      <c r="OGH2" s="34"/>
+      <c r="OGG2" s="34"/>
+      <c r="OGH2" s="35"/>
       <c r="OGY2" s="14"/>
       <c r="OGZ2" s="15"/>
       <c r="OHA2" s="15"/>
@@ -4757,8 +4781,8 @@
       <c r="OHF2" s="15"/>
       <c r="OHG2" s="15"/>
       <c r="OHH2" s="16"/>
-      <c r="OHO2" s="33"/>
-      <c r="OHP2" s="34"/>
+      <c r="OHO2" s="34"/>
+      <c r="OHP2" s="35"/>
       <c r="OIG2" s="14"/>
       <c r="OIH2" s="15"/>
       <c r="OII2" s="15"/>
@@ -4769,8 +4793,8 @@
       <c r="OIN2" s="15"/>
       <c r="OIO2" s="15"/>
       <c r="OIP2" s="16"/>
-      <c r="OIW2" s="33"/>
-      <c r="OIX2" s="34"/>
+      <c r="OIW2" s="34"/>
+      <c r="OIX2" s="35"/>
       <c r="OJO2" s="14"/>
       <c r="OJP2" s="15"/>
       <c r="OJQ2" s="15"/>
@@ -4781,8 +4805,8 @@
       <c r="OJV2" s="15"/>
       <c r="OJW2" s="15"/>
       <c r="OJX2" s="16"/>
-      <c r="OKE2" s="33"/>
-      <c r="OKF2" s="34"/>
+      <c r="OKE2" s="34"/>
+      <c r="OKF2" s="35"/>
       <c r="OKW2" s="14"/>
       <c r="OKX2" s="15"/>
       <c r="OKY2" s="15"/>
@@ -4793,8 +4817,8 @@
       <c r="OLD2" s="15"/>
       <c r="OLE2" s="15"/>
       <c r="OLF2" s="16"/>
-      <c r="OLM2" s="33"/>
-      <c r="OLN2" s="34"/>
+      <c r="OLM2" s="34"/>
+      <c r="OLN2" s="35"/>
       <c r="OME2" s="14"/>
       <c r="OMF2" s="15"/>
       <c r="OMG2" s="15"/>
@@ -4805,8 +4829,8 @@
       <c r="OML2" s="15"/>
       <c r="OMM2" s="15"/>
       <c r="OMN2" s="16"/>
-      <c r="OMU2" s="33"/>
-      <c r="OMV2" s="34"/>
+      <c r="OMU2" s="34"/>
+      <c r="OMV2" s="35"/>
       <c r="ONM2" s="14"/>
       <c r="ONN2" s="15"/>
       <c r="ONO2" s="15"/>
@@ -4817,8 +4841,8 @@
       <c r="ONT2" s="15"/>
       <c r="ONU2" s="15"/>
       <c r="ONV2" s="16"/>
-      <c r="OOC2" s="33"/>
-      <c r="OOD2" s="34"/>
+      <c r="OOC2" s="34"/>
+      <c r="OOD2" s="35"/>
       <c r="OOU2" s="14"/>
       <c r="OOV2" s="15"/>
       <c r="OOW2" s="15"/>
@@ -4829,8 +4853,8 @@
       <c r="OPB2" s="15"/>
       <c r="OPC2" s="15"/>
       <c r="OPD2" s="16"/>
-      <c r="OPK2" s="33"/>
-      <c r="OPL2" s="34"/>
+      <c r="OPK2" s="34"/>
+      <c r="OPL2" s="35"/>
       <c r="OQC2" s="14"/>
       <c r="OQD2" s="15"/>
       <c r="OQE2" s="15"/>
@@ -4841,8 +4865,8 @@
       <c r="OQJ2" s="15"/>
       <c r="OQK2" s="15"/>
       <c r="OQL2" s="16"/>
-      <c r="OQS2" s="33"/>
-      <c r="OQT2" s="34"/>
+      <c r="OQS2" s="34"/>
+      <c r="OQT2" s="35"/>
       <c r="ORK2" s="14"/>
       <c r="ORL2" s="15"/>
       <c r="ORM2" s="15"/>
@@ -4853,8 +4877,8 @@
       <c r="ORR2" s="15"/>
       <c r="ORS2" s="15"/>
       <c r="ORT2" s="16"/>
-      <c r="OSA2" s="33"/>
-      <c r="OSB2" s="34"/>
+      <c r="OSA2" s="34"/>
+      <c r="OSB2" s="35"/>
       <c r="OSS2" s="14"/>
       <c r="OST2" s="15"/>
       <c r="OSU2" s="15"/>
@@ -4865,8 +4889,8 @@
       <c r="OSZ2" s="15"/>
       <c r="OTA2" s="15"/>
       <c r="OTB2" s="16"/>
-      <c r="OTI2" s="33"/>
-      <c r="OTJ2" s="34"/>
+      <c r="OTI2" s="34"/>
+      <c r="OTJ2" s="35"/>
       <c r="OUA2" s="14"/>
       <c r="OUB2" s="15"/>
       <c r="OUC2" s="15"/>
@@ -4877,8 +4901,8 @@
       <c r="OUH2" s="15"/>
       <c r="OUI2" s="15"/>
       <c r="OUJ2" s="16"/>
-      <c r="OUQ2" s="33"/>
-      <c r="OUR2" s="34"/>
+      <c r="OUQ2" s="34"/>
+      <c r="OUR2" s="35"/>
       <c r="OVI2" s="14"/>
       <c r="OVJ2" s="15"/>
       <c r="OVK2" s="15"/>
@@ -4889,8 +4913,8 @@
       <c r="OVP2" s="15"/>
       <c r="OVQ2" s="15"/>
       <c r="OVR2" s="16"/>
-      <c r="OVY2" s="33"/>
-      <c r="OVZ2" s="34"/>
+      <c r="OVY2" s="34"/>
+      <c r="OVZ2" s="35"/>
       <c r="OWQ2" s="14"/>
       <c r="OWR2" s="15"/>
       <c r="OWS2" s="15"/>
@@ -4901,8 +4925,8 @@
       <c r="OWX2" s="15"/>
       <c r="OWY2" s="15"/>
       <c r="OWZ2" s="16"/>
-      <c r="OXG2" s="33"/>
-      <c r="OXH2" s="34"/>
+      <c r="OXG2" s="34"/>
+      <c r="OXH2" s="35"/>
       <c r="OXY2" s="14"/>
       <c r="OXZ2" s="15"/>
       <c r="OYA2" s="15"/>
@@ -4913,8 +4937,8 @@
       <c r="OYF2" s="15"/>
       <c r="OYG2" s="15"/>
       <c r="OYH2" s="16"/>
-      <c r="OYO2" s="33"/>
-      <c r="OYP2" s="34"/>
+      <c r="OYO2" s="34"/>
+      <c r="OYP2" s="35"/>
       <c r="OZG2" s="14"/>
       <c r="OZH2" s="15"/>
       <c r="OZI2" s="15"/>
@@ -4925,8 +4949,8 @@
       <c r="OZN2" s="15"/>
       <c r="OZO2" s="15"/>
       <c r="OZP2" s="16"/>
-      <c r="OZW2" s="33"/>
-      <c r="OZX2" s="34"/>
+      <c r="OZW2" s="34"/>
+      <c r="OZX2" s="35"/>
       <c r="PAO2" s="14"/>
       <c r="PAP2" s="15"/>
       <c r="PAQ2" s="15"/>
@@ -4937,8 +4961,8 @@
       <c r="PAV2" s="15"/>
       <c r="PAW2" s="15"/>
       <c r="PAX2" s="16"/>
-      <c r="PBE2" s="33"/>
-      <c r="PBF2" s="34"/>
+      <c r="PBE2" s="34"/>
+      <c r="PBF2" s="35"/>
       <c r="PBW2" s="14"/>
       <c r="PBX2" s="15"/>
       <c r="PBY2" s="15"/>
@@ -4949,8 +4973,8 @@
       <c r="PCD2" s="15"/>
       <c r="PCE2" s="15"/>
       <c r="PCF2" s="16"/>
-      <c r="PCM2" s="33"/>
-      <c r="PCN2" s="34"/>
+      <c r="PCM2" s="34"/>
+      <c r="PCN2" s="35"/>
       <c r="PDE2" s="14"/>
       <c r="PDF2" s="15"/>
       <c r="PDG2" s="15"/>
@@ -4961,8 +4985,8 @@
       <c r="PDL2" s="15"/>
       <c r="PDM2" s="15"/>
       <c r="PDN2" s="16"/>
-      <c r="PDU2" s="33"/>
-      <c r="PDV2" s="34"/>
+      <c r="PDU2" s="34"/>
+      <c r="PDV2" s="35"/>
       <c r="PEM2" s="14"/>
       <c r="PEN2" s="15"/>
       <c r="PEO2" s="15"/>
@@ -4973,8 +4997,8 @@
       <c r="PET2" s="15"/>
       <c r="PEU2" s="15"/>
       <c r="PEV2" s="16"/>
-      <c r="PFC2" s="33"/>
-      <c r="PFD2" s="34"/>
+      <c r="PFC2" s="34"/>
+      <c r="PFD2" s="35"/>
       <c r="PFU2" s="14"/>
       <c r="PFV2" s="15"/>
       <c r="PFW2" s="15"/>
@@ -4985,8 +5009,8 @@
       <c r="PGB2" s="15"/>
       <c r="PGC2" s="15"/>
       <c r="PGD2" s="16"/>
-      <c r="PGK2" s="33"/>
-      <c r="PGL2" s="34"/>
+      <c r="PGK2" s="34"/>
+      <c r="PGL2" s="35"/>
       <c r="PHC2" s="14"/>
       <c r="PHD2" s="15"/>
       <c r="PHE2" s="15"/>
@@ -4997,8 +5021,8 @@
       <c r="PHJ2" s="15"/>
       <c r="PHK2" s="15"/>
       <c r="PHL2" s="16"/>
-      <c r="PHS2" s="33"/>
-      <c r="PHT2" s="34"/>
+      <c r="PHS2" s="34"/>
+      <c r="PHT2" s="35"/>
       <c r="PIK2" s="14"/>
       <c r="PIL2" s="15"/>
       <c r="PIM2" s="15"/>
@@ -5009,8 +5033,8 @@
       <c r="PIR2" s="15"/>
       <c r="PIS2" s="15"/>
       <c r="PIT2" s="16"/>
-      <c r="PJA2" s="33"/>
-      <c r="PJB2" s="34"/>
+      <c r="PJA2" s="34"/>
+      <c r="PJB2" s="35"/>
       <c r="PJS2" s="14"/>
       <c r="PJT2" s="15"/>
       <c r="PJU2" s="15"/>
@@ -5021,8 +5045,8 @@
       <c r="PJZ2" s="15"/>
       <c r="PKA2" s="15"/>
       <c r="PKB2" s="16"/>
-      <c r="PKI2" s="33"/>
-      <c r="PKJ2" s="34"/>
+      <c r="PKI2" s="34"/>
+      <c r="PKJ2" s="35"/>
       <c r="PLA2" s="14"/>
       <c r="PLB2" s="15"/>
       <c r="PLC2" s="15"/>
@@ -5033,8 +5057,8 @@
       <c r="PLH2" s="15"/>
       <c r="PLI2" s="15"/>
       <c r="PLJ2" s="16"/>
-      <c r="PLQ2" s="33"/>
-      <c r="PLR2" s="34"/>
+      <c r="PLQ2" s="34"/>
+      <c r="PLR2" s="35"/>
       <c r="PMI2" s="14"/>
       <c r="PMJ2" s="15"/>
       <c r="PMK2" s="15"/>
@@ -5045,8 +5069,8 @@
       <c r="PMP2" s="15"/>
       <c r="PMQ2" s="15"/>
       <c r="PMR2" s="16"/>
-      <c r="PMY2" s="33"/>
-      <c r="PMZ2" s="34"/>
+      <c r="PMY2" s="34"/>
+      <c r="PMZ2" s="35"/>
       <c r="PNQ2" s="14"/>
       <c r="PNR2" s="15"/>
       <c r="PNS2" s="15"/>
@@ -5057,8 +5081,8 @@
       <c r="PNX2" s="15"/>
       <c r="PNY2" s="15"/>
       <c r="PNZ2" s="16"/>
-      <c r="POG2" s="33"/>
-      <c r="POH2" s="34"/>
+      <c r="POG2" s="34"/>
+      <c r="POH2" s="35"/>
       <c r="POY2" s="14"/>
       <c r="POZ2" s="15"/>
       <c r="PPA2" s="15"/>
@@ -5069,8 +5093,8 @@
       <c r="PPF2" s="15"/>
       <c r="PPG2" s="15"/>
       <c r="PPH2" s="16"/>
-      <c r="PPO2" s="33"/>
-      <c r="PPP2" s="34"/>
+      <c r="PPO2" s="34"/>
+      <c r="PPP2" s="35"/>
       <c r="PQG2" s="14"/>
       <c r="PQH2" s="15"/>
       <c r="PQI2" s="15"/>
@@ -5081,8 +5105,8 @@
       <c r="PQN2" s="15"/>
       <c r="PQO2" s="15"/>
       <c r="PQP2" s="16"/>
-      <c r="PQW2" s="33"/>
-      <c r="PQX2" s="34"/>
+      <c r="PQW2" s="34"/>
+      <c r="PQX2" s="35"/>
       <c r="PRO2" s="14"/>
       <c r="PRP2" s="15"/>
       <c r="PRQ2" s="15"/>
@@ -5093,8 +5117,8 @@
       <c r="PRV2" s="15"/>
       <c r="PRW2" s="15"/>
       <c r="PRX2" s="16"/>
-      <c r="PSE2" s="33"/>
-      <c r="PSF2" s="34"/>
+      <c r="PSE2" s="34"/>
+      <c r="PSF2" s="35"/>
       <c r="PSW2" s="14"/>
       <c r="PSX2" s="15"/>
       <c r="PSY2" s="15"/>
@@ -5105,8 +5129,8 @@
       <c r="PTD2" s="15"/>
       <c r="PTE2" s="15"/>
       <c r="PTF2" s="16"/>
-      <c r="PTM2" s="33"/>
-      <c r="PTN2" s="34"/>
+      <c r="PTM2" s="34"/>
+      <c r="PTN2" s="35"/>
       <c r="PUE2" s="14"/>
       <c r="PUF2" s="15"/>
       <c r="PUG2" s="15"/>
@@ -5117,8 +5141,8 @@
       <c r="PUL2" s="15"/>
       <c r="PUM2" s="15"/>
       <c r="PUN2" s="16"/>
-      <c r="PUU2" s="33"/>
-      <c r="PUV2" s="34"/>
+      <c r="PUU2" s="34"/>
+      <c r="PUV2" s="35"/>
       <c r="PVM2" s="14"/>
       <c r="PVN2" s="15"/>
       <c r="PVO2" s="15"/>
@@ -5129,8 +5153,8 @@
       <c r="PVT2" s="15"/>
       <c r="PVU2" s="15"/>
       <c r="PVV2" s="16"/>
-      <c r="PWC2" s="33"/>
-      <c r="PWD2" s="34"/>
+      <c r="PWC2" s="34"/>
+      <c r="PWD2" s="35"/>
       <c r="PWU2" s="14"/>
       <c r="PWV2" s="15"/>
       <c r="PWW2" s="15"/>
@@ -5141,8 +5165,8 @@
       <c r="PXB2" s="15"/>
       <c r="PXC2" s="15"/>
       <c r="PXD2" s="16"/>
-      <c r="PXK2" s="33"/>
-      <c r="PXL2" s="34"/>
+      <c r="PXK2" s="34"/>
+      <c r="PXL2" s="35"/>
       <c r="PYC2" s="14"/>
       <c r="PYD2" s="15"/>
       <c r="PYE2" s="15"/>
@@ -5153,8 +5177,8 @@
       <c r="PYJ2" s="15"/>
       <c r="PYK2" s="15"/>
       <c r="PYL2" s="16"/>
-      <c r="PYS2" s="33"/>
-      <c r="PYT2" s="34"/>
+      <c r="PYS2" s="34"/>
+      <c r="PYT2" s="35"/>
       <c r="PZK2" s="14"/>
       <c r="PZL2" s="15"/>
       <c r="PZM2" s="15"/>
@@ -5165,8 +5189,8 @@
       <c r="PZR2" s="15"/>
       <c r="PZS2" s="15"/>
       <c r="PZT2" s="16"/>
-      <c r="QAA2" s="33"/>
-      <c r="QAB2" s="34"/>
+      <c r="QAA2" s="34"/>
+      <c r="QAB2" s="35"/>
       <c r="QAS2" s="14"/>
       <c r="QAT2" s="15"/>
       <c r="QAU2" s="15"/>
@@ -5177,8 +5201,8 @@
       <c r="QAZ2" s="15"/>
       <c r="QBA2" s="15"/>
       <c r="QBB2" s="16"/>
-      <c r="QBI2" s="33"/>
-      <c r="QBJ2" s="34"/>
+      <c r="QBI2" s="34"/>
+      <c r="QBJ2" s="35"/>
       <c r="QCA2" s="14"/>
       <c r="QCB2" s="15"/>
       <c r="QCC2" s="15"/>
@@ -5189,8 +5213,8 @@
       <c r="QCH2" s="15"/>
       <c r="QCI2" s="15"/>
       <c r="QCJ2" s="16"/>
-      <c r="QCQ2" s="33"/>
-      <c r="QCR2" s="34"/>
+      <c r="QCQ2" s="34"/>
+      <c r="QCR2" s="35"/>
       <c r="QDI2" s="14"/>
       <c r="QDJ2" s="15"/>
       <c r="QDK2" s="15"/>
@@ -5201,8 +5225,8 @@
       <c r="QDP2" s="15"/>
       <c r="QDQ2" s="15"/>
       <c r="QDR2" s="16"/>
-      <c r="QDY2" s="33"/>
-      <c r="QDZ2" s="34"/>
+      <c r="QDY2" s="34"/>
+      <c r="QDZ2" s="35"/>
       <c r="QEQ2" s="14"/>
       <c r="QER2" s="15"/>
       <c r="QES2" s="15"/>
@@ -5213,8 +5237,8 @@
       <c r="QEX2" s="15"/>
       <c r="QEY2" s="15"/>
       <c r="QEZ2" s="16"/>
-      <c r="QFG2" s="33"/>
-      <c r="QFH2" s="34"/>
+      <c r="QFG2" s="34"/>
+      <c r="QFH2" s="35"/>
       <c r="QFY2" s="14"/>
       <c r="QFZ2" s="15"/>
       <c r="QGA2" s="15"/>
@@ -5225,8 +5249,8 @@
       <c r="QGF2" s="15"/>
       <c r="QGG2" s="15"/>
       <c r="QGH2" s="16"/>
-      <c r="QGO2" s="33"/>
-      <c r="QGP2" s="34"/>
+      <c r="QGO2" s="34"/>
+      <c r="QGP2" s="35"/>
       <c r="QHG2" s="14"/>
       <c r="QHH2" s="15"/>
       <c r="QHI2" s="15"/>
@@ -5237,8 +5261,8 @@
       <c r="QHN2" s="15"/>
       <c r="QHO2" s="15"/>
       <c r="QHP2" s="16"/>
-      <c r="QHW2" s="33"/>
-      <c r="QHX2" s="34"/>
+      <c r="QHW2" s="34"/>
+      <c r="QHX2" s="35"/>
       <c r="QIO2" s="14"/>
       <c r="QIP2" s="15"/>
       <c r="QIQ2" s="15"/>
@@ -5249,8 +5273,8 @@
       <c r="QIV2" s="15"/>
       <c r="QIW2" s="15"/>
       <c r="QIX2" s="16"/>
-      <c r="QJE2" s="33"/>
-      <c r="QJF2" s="34"/>
+      <c r="QJE2" s="34"/>
+      <c r="QJF2" s="35"/>
       <c r="QJW2" s="14"/>
       <c r="QJX2" s="15"/>
       <c r="QJY2" s="15"/>
@@ -5261,8 +5285,8 @@
       <c r="QKD2" s="15"/>
       <c r="QKE2" s="15"/>
       <c r="QKF2" s="16"/>
-      <c r="QKM2" s="33"/>
-      <c r="QKN2" s="34"/>
+      <c r="QKM2" s="34"/>
+      <c r="QKN2" s="35"/>
       <c r="QLE2" s="14"/>
       <c r="QLF2" s="15"/>
       <c r="QLG2" s="15"/>
@@ -5273,8 +5297,8 @@
       <c r="QLL2" s="15"/>
       <c r="QLM2" s="15"/>
       <c r="QLN2" s="16"/>
-      <c r="QLU2" s="33"/>
-      <c r="QLV2" s="34"/>
+      <c r="QLU2" s="34"/>
+      <c r="QLV2" s="35"/>
       <c r="QMM2" s="14"/>
       <c r="QMN2" s="15"/>
       <c r="QMO2" s="15"/>
@@ -5285,8 +5309,8 @@
       <c r="QMT2" s="15"/>
       <c r="QMU2" s="15"/>
       <c r="QMV2" s="16"/>
-      <c r="QNC2" s="33"/>
-      <c r="QND2" s="34"/>
+      <c r="QNC2" s="34"/>
+      <c r="QND2" s="35"/>
       <c r="QNU2" s="14"/>
       <c r="QNV2" s="15"/>
       <c r="QNW2" s="15"/>
@@ -5297,8 +5321,8 @@
       <c r="QOB2" s="15"/>
       <c r="QOC2" s="15"/>
       <c r="QOD2" s="16"/>
-      <c r="QOK2" s="33"/>
-      <c r="QOL2" s="34"/>
+      <c r="QOK2" s="34"/>
+      <c r="QOL2" s="35"/>
       <c r="QPC2" s="14"/>
       <c r="QPD2" s="15"/>
       <c r="QPE2" s="15"/>
@@ -5309,8 +5333,8 @@
       <c r="QPJ2" s="15"/>
       <c r="QPK2" s="15"/>
       <c r="QPL2" s="16"/>
-      <c r="QPS2" s="33"/>
-      <c r="QPT2" s="34"/>
+      <c r="QPS2" s="34"/>
+      <c r="QPT2" s="35"/>
       <c r="QQK2" s="14"/>
       <c r="QQL2" s="15"/>
       <c r="QQM2" s="15"/>
@@ -5321,8 +5345,8 @@
       <c r="QQR2" s="15"/>
       <c r="QQS2" s="15"/>
       <c r="QQT2" s="16"/>
-      <c r="QRA2" s="33"/>
-      <c r="QRB2" s="34"/>
+      <c r="QRA2" s="34"/>
+      <c r="QRB2" s="35"/>
       <c r="QRS2" s="14"/>
       <c r="QRT2" s="15"/>
       <c r="QRU2" s="15"/>
@@ -5333,8 +5357,8 @@
       <c r="QRZ2" s="15"/>
       <c r="QSA2" s="15"/>
       <c r="QSB2" s="16"/>
-      <c r="QSI2" s="33"/>
-      <c r="QSJ2" s="34"/>
+      <c r="QSI2" s="34"/>
+      <c r="QSJ2" s="35"/>
       <c r="QTA2" s="14"/>
       <c r="QTB2" s="15"/>
       <c r="QTC2" s="15"/>
@@ -5345,8 +5369,8 @@
       <c r="QTH2" s="15"/>
       <c r="QTI2" s="15"/>
       <c r="QTJ2" s="16"/>
-      <c r="QTQ2" s="33"/>
-      <c r="QTR2" s="34"/>
+      <c r="QTQ2" s="34"/>
+      <c r="QTR2" s="35"/>
       <c r="QUI2" s="14"/>
       <c r="QUJ2" s="15"/>
       <c r="QUK2" s="15"/>
@@ -5357,8 +5381,8 @@
       <c r="QUP2" s="15"/>
       <c r="QUQ2" s="15"/>
       <c r="QUR2" s="16"/>
-      <c r="QUY2" s="33"/>
-      <c r="QUZ2" s="34"/>
+      <c r="QUY2" s="34"/>
+      <c r="QUZ2" s="35"/>
       <c r="QVQ2" s="14"/>
       <c r="QVR2" s="15"/>
       <c r="QVS2" s="15"/>
@@ -5369,8 +5393,8 @@
       <c r="QVX2" s="15"/>
       <c r="QVY2" s="15"/>
       <c r="QVZ2" s="16"/>
-      <c r="QWG2" s="33"/>
-      <c r="QWH2" s="34"/>
+      <c r="QWG2" s="34"/>
+      <c r="QWH2" s="35"/>
       <c r="QWY2" s="14"/>
       <c r="QWZ2" s="15"/>
       <c r="QXA2" s="15"/>
@@ -5381,8 +5405,8 @@
       <c r="QXF2" s="15"/>
       <c r="QXG2" s="15"/>
       <c r="QXH2" s="16"/>
-      <c r="QXO2" s="33"/>
-      <c r="QXP2" s="34"/>
+      <c r="QXO2" s="34"/>
+      <c r="QXP2" s="35"/>
       <c r="QYG2" s="14"/>
       <c r="QYH2" s="15"/>
       <c r="QYI2" s="15"/>
@@ -5393,8 +5417,8 @@
       <c r="QYN2" s="15"/>
       <c r="QYO2" s="15"/>
       <c r="QYP2" s="16"/>
-      <c r="QYW2" s="33"/>
-      <c r="QYX2" s="34"/>
+      <c r="QYW2" s="34"/>
+      <c r="QYX2" s="35"/>
       <c r="QZO2" s="14"/>
       <c r="QZP2" s="15"/>
       <c r="QZQ2" s="15"/>
@@ -5405,8 +5429,8 @@
       <c r="QZV2" s="15"/>
       <c r="QZW2" s="15"/>
       <c r="QZX2" s="16"/>
-      <c r="RAE2" s="33"/>
-      <c r="RAF2" s="34"/>
+      <c r="RAE2" s="34"/>
+      <c r="RAF2" s="35"/>
       <c r="RAW2" s="14"/>
       <c r="RAX2" s="15"/>
       <c r="RAY2" s="15"/>
@@ -5417,8 +5441,8 @@
       <c r="RBD2" s="15"/>
       <c r="RBE2" s="15"/>
       <c r="RBF2" s="16"/>
-      <c r="RBM2" s="33"/>
-      <c r="RBN2" s="34"/>
+      <c r="RBM2" s="34"/>
+      <c r="RBN2" s="35"/>
       <c r="RCE2" s="14"/>
       <c r="RCF2" s="15"/>
       <c r="RCG2" s="15"/>
@@ -5429,8 +5453,8 @@
       <c r="RCL2" s="15"/>
       <c r="RCM2" s="15"/>
       <c r="RCN2" s="16"/>
-      <c r="RCU2" s="33"/>
-      <c r="RCV2" s="34"/>
+      <c r="RCU2" s="34"/>
+      <c r="RCV2" s="35"/>
       <c r="RDM2" s="14"/>
       <c r="RDN2" s="15"/>
       <c r="RDO2" s="15"/>
@@ -5441,8 +5465,8 @@
       <c r="RDT2" s="15"/>
       <c r="RDU2" s="15"/>
       <c r="RDV2" s="16"/>
-      <c r="REC2" s="33"/>
-      <c r="RED2" s="34"/>
+      <c r="REC2" s="34"/>
+      <c r="RED2" s="35"/>
       <c r="REU2" s="14"/>
       <c r="REV2" s="15"/>
       <c r="REW2" s="15"/>
@@ -5453,8 +5477,8 @@
       <c r="RFB2" s="15"/>
       <c r="RFC2" s="15"/>
       <c r="RFD2" s="16"/>
-      <c r="RFK2" s="33"/>
-      <c r="RFL2" s="34"/>
+      <c r="RFK2" s="34"/>
+      <c r="RFL2" s="35"/>
       <c r="RGC2" s="14"/>
       <c r="RGD2" s="15"/>
       <c r="RGE2" s="15"/>
@@ -5465,8 +5489,8 @@
       <c r="RGJ2" s="15"/>
       <c r="RGK2" s="15"/>
       <c r="RGL2" s="16"/>
-      <c r="RGS2" s="33"/>
-      <c r="RGT2" s="34"/>
+      <c r="RGS2" s="34"/>
+      <c r="RGT2" s="35"/>
       <c r="RHK2" s="14"/>
       <c r="RHL2" s="15"/>
       <c r="RHM2" s="15"/>
@@ -5477,8 +5501,8 @@
       <c r="RHR2" s="15"/>
       <c r="RHS2" s="15"/>
       <c r="RHT2" s="16"/>
-      <c r="RIA2" s="33"/>
-      <c r="RIB2" s="34"/>
+      <c r="RIA2" s="34"/>
+      <c r="RIB2" s="35"/>
       <c r="RIS2" s="14"/>
       <c r="RIT2" s="15"/>
       <c r="RIU2" s="15"/>
@@ -5489,8 +5513,8 @@
       <c r="RIZ2" s="15"/>
       <c r="RJA2" s="15"/>
       <c r="RJB2" s="16"/>
-      <c r="RJI2" s="33"/>
-      <c r="RJJ2" s="34"/>
+      <c r="RJI2" s="34"/>
+      <c r="RJJ2" s="35"/>
       <c r="RKA2" s="14"/>
       <c r="RKB2" s="15"/>
       <c r="RKC2" s="15"/>
@@ -5501,8 +5525,8 @@
       <c r="RKH2" s="15"/>
       <c r="RKI2" s="15"/>
       <c r="RKJ2" s="16"/>
-      <c r="RKQ2" s="33"/>
-      <c r="RKR2" s="34"/>
+      <c r="RKQ2" s="34"/>
+      <c r="RKR2" s="35"/>
       <c r="RLI2" s="14"/>
       <c r="RLJ2" s="15"/>
       <c r="RLK2" s="15"/>
@@ -5513,8 +5537,8 @@
       <c r="RLP2" s="15"/>
       <c r="RLQ2" s="15"/>
       <c r="RLR2" s="16"/>
-      <c r="RLY2" s="33"/>
-      <c r="RLZ2" s="34"/>
+      <c r="RLY2" s="34"/>
+      <c r="RLZ2" s="35"/>
       <c r="RMQ2" s="14"/>
       <c r="RMR2" s="15"/>
       <c r="RMS2" s="15"/>
@@ -5525,8 +5549,8 @@
       <c r="RMX2" s="15"/>
       <c r="RMY2" s="15"/>
       <c r="RMZ2" s="16"/>
-      <c r="RNG2" s="33"/>
-      <c r="RNH2" s="34"/>
+      <c r="RNG2" s="34"/>
+      <c r="RNH2" s="35"/>
       <c r="RNY2" s="14"/>
       <c r="RNZ2" s="15"/>
       <c r="ROA2" s="15"/>
@@ -5537,8 +5561,8 @@
       <c r="ROF2" s="15"/>
       <c r="ROG2" s="15"/>
       <c r="ROH2" s="16"/>
-      <c r="ROO2" s="33"/>
-      <c r="ROP2" s="34"/>
+      <c r="ROO2" s="34"/>
+      <c r="ROP2" s="35"/>
       <c r="RPG2" s="14"/>
       <c r="RPH2" s="15"/>
       <c r="RPI2" s="15"/>
@@ -5549,8 +5573,8 @@
       <c r="RPN2" s="15"/>
       <c r="RPO2" s="15"/>
       <c r="RPP2" s="16"/>
-      <c r="RPW2" s="33"/>
-      <c r="RPX2" s="34"/>
+      <c r="RPW2" s="34"/>
+      <c r="RPX2" s="35"/>
       <c r="RQO2" s="14"/>
       <c r="RQP2" s="15"/>
       <c r="RQQ2" s="15"/>
@@ -5561,8 +5585,8 @@
       <c r="RQV2" s="15"/>
       <c r="RQW2" s="15"/>
       <c r="RQX2" s="16"/>
-      <c r="RRE2" s="33"/>
-      <c r="RRF2" s="34"/>
+      <c r="RRE2" s="34"/>
+      <c r="RRF2" s="35"/>
       <c r="RRW2" s="14"/>
       <c r="RRX2" s="15"/>
       <c r="RRY2" s="15"/>
@@ -5573,8 +5597,8 @@
       <c r="RSD2" s="15"/>
       <c r="RSE2" s="15"/>
       <c r="RSF2" s="16"/>
-      <c r="RSM2" s="33"/>
-      <c r="RSN2" s="34"/>
+      <c r="RSM2" s="34"/>
+      <c r="RSN2" s="35"/>
       <c r="RTE2" s="14"/>
       <c r="RTF2" s="15"/>
       <c r="RTG2" s="15"/>
@@ -5585,8 +5609,8 @@
       <c r="RTL2" s="15"/>
       <c r="RTM2" s="15"/>
       <c r="RTN2" s="16"/>
-      <c r="RTU2" s="33"/>
-      <c r="RTV2" s="34"/>
+      <c r="RTU2" s="34"/>
+      <c r="RTV2" s="35"/>
       <c r="RUM2" s="14"/>
       <c r="RUN2" s="15"/>
       <c r="RUO2" s="15"/>
@@ -5597,8 +5621,8 @@
       <c r="RUT2" s="15"/>
       <c r="RUU2" s="15"/>
       <c r="RUV2" s="16"/>
-      <c r="RVC2" s="33"/>
-      <c r="RVD2" s="34"/>
+      <c r="RVC2" s="34"/>
+      <c r="RVD2" s="35"/>
       <c r="RVU2" s="14"/>
       <c r="RVV2" s="15"/>
       <c r="RVW2" s="15"/>
@@ -5609,8 +5633,8 @@
       <c r="RWB2" s="15"/>
       <c r="RWC2" s="15"/>
       <c r="RWD2" s="16"/>
-      <c r="RWK2" s="33"/>
-      <c r="RWL2" s="34"/>
+      <c r="RWK2" s="34"/>
+      <c r="RWL2" s="35"/>
       <c r="RXC2" s="14"/>
       <c r="RXD2" s="15"/>
       <c r="RXE2" s="15"/>
@@ -5621,8 +5645,8 @@
       <c r="RXJ2" s="15"/>
       <c r="RXK2" s="15"/>
       <c r="RXL2" s="16"/>
-      <c r="RXS2" s="33"/>
-      <c r="RXT2" s="34"/>
+      <c r="RXS2" s="34"/>
+      <c r="RXT2" s="35"/>
       <c r="RYK2" s="14"/>
       <c r="RYL2" s="15"/>
       <c r="RYM2" s="15"/>
@@ -5633,8 +5657,8 @@
       <c r="RYR2" s="15"/>
       <c r="RYS2" s="15"/>
       <c r="RYT2" s="16"/>
-      <c r="RZA2" s="33"/>
-      <c r="RZB2" s="34"/>
+      <c r="RZA2" s="34"/>
+      <c r="RZB2" s="35"/>
       <c r="RZS2" s="14"/>
       <c r="RZT2" s="15"/>
       <c r="RZU2" s="15"/>
@@ -5645,8 +5669,8 @@
       <c r="RZZ2" s="15"/>
       <c r="SAA2" s="15"/>
       <c r="SAB2" s="16"/>
-      <c r="SAI2" s="33"/>
-      <c r="SAJ2" s="34"/>
+      <c r="SAI2" s="34"/>
+      <c r="SAJ2" s="35"/>
       <c r="SBA2" s="14"/>
       <c r="SBB2" s="15"/>
       <c r="SBC2" s="15"/>
@@ -5657,8 +5681,8 @@
       <c r="SBH2" s="15"/>
       <c r="SBI2" s="15"/>
       <c r="SBJ2" s="16"/>
-      <c r="SBQ2" s="33"/>
-      <c r="SBR2" s="34"/>
+      <c r="SBQ2" s="34"/>
+      <c r="SBR2" s="35"/>
       <c r="SCI2" s="14"/>
       <c r="SCJ2" s="15"/>
       <c r="SCK2" s="15"/>
@@ -5669,8 +5693,8 @@
       <c r="SCP2" s="15"/>
       <c r="SCQ2" s="15"/>
       <c r="SCR2" s="16"/>
-      <c r="SCY2" s="33"/>
-      <c r="SCZ2" s="34"/>
+      <c r="SCY2" s="34"/>
+      <c r="SCZ2" s="35"/>
       <c r="SDQ2" s="14"/>
       <c r="SDR2" s="15"/>
       <c r="SDS2" s="15"/>
@@ -5681,8 +5705,8 @@
       <c r="SDX2" s="15"/>
       <c r="SDY2" s="15"/>
       <c r="SDZ2" s="16"/>
-      <c r="SEG2" s="33"/>
-      <c r="SEH2" s="34"/>
+      <c r="SEG2" s="34"/>
+      <c r="SEH2" s="35"/>
       <c r="SEY2" s="14"/>
       <c r="SEZ2" s="15"/>
       <c r="SFA2" s="15"/>
@@ -5693,8 +5717,8 @@
       <c r="SFF2" s="15"/>
       <c r="SFG2" s="15"/>
       <c r="SFH2" s="16"/>
-      <c r="SFO2" s="33"/>
-      <c r="SFP2" s="34"/>
+      <c r="SFO2" s="34"/>
+      <c r="SFP2" s="35"/>
       <c r="SGG2" s="14"/>
       <c r="SGH2" s="15"/>
       <c r="SGI2" s="15"/>
@@ -5705,8 +5729,8 @@
       <c r="SGN2" s="15"/>
       <c r="SGO2" s="15"/>
       <c r="SGP2" s="16"/>
-      <c r="SGW2" s="33"/>
-      <c r="SGX2" s="34"/>
+      <c r="SGW2" s="34"/>
+      <c r="SGX2" s="35"/>
       <c r="SHO2" s="14"/>
       <c r="SHP2" s="15"/>
       <c r="SHQ2" s="15"/>
@@ -5717,8 +5741,8 @@
       <c r="SHV2" s="15"/>
       <c r="SHW2" s="15"/>
       <c r="SHX2" s="16"/>
-      <c r="SIE2" s="33"/>
-      <c r="SIF2" s="34"/>
+      <c r="SIE2" s="34"/>
+      <c r="SIF2" s="35"/>
       <c r="SIW2" s="14"/>
       <c r="SIX2" s="15"/>
       <c r="SIY2" s="15"/>
@@ -5729,8 +5753,8 @@
       <c r="SJD2" s="15"/>
       <c r="SJE2" s="15"/>
       <c r="SJF2" s="16"/>
-      <c r="SJM2" s="33"/>
-      <c r="SJN2" s="34"/>
+      <c r="SJM2" s="34"/>
+      <c r="SJN2" s="35"/>
       <c r="SKE2" s="14"/>
       <c r="SKF2" s="15"/>
       <c r="SKG2" s="15"/>
@@ -5741,8 +5765,8 @@
       <c r="SKL2" s="15"/>
       <c r="SKM2" s="15"/>
       <c r="SKN2" s="16"/>
-      <c r="SKU2" s="33"/>
-      <c r="SKV2" s="34"/>
+      <c r="SKU2" s="34"/>
+      <c r="SKV2" s="35"/>
       <c r="SLM2" s="14"/>
       <c r="SLN2" s="15"/>
       <c r="SLO2" s="15"/>
@@ -5753,8 +5777,8 @@
       <c r="SLT2" s="15"/>
       <c r="SLU2" s="15"/>
       <c r="SLV2" s="16"/>
-      <c r="SMC2" s="33"/>
-      <c r="SMD2" s="34"/>
+      <c r="SMC2" s="34"/>
+      <c r="SMD2" s="35"/>
       <c r="SMU2" s="14"/>
       <c r="SMV2" s="15"/>
       <c r="SMW2" s="15"/>
@@ -5765,8 +5789,8 @@
       <c r="SNB2" s="15"/>
       <c r="SNC2" s="15"/>
       <c r="SND2" s="16"/>
-      <c r="SNK2" s="33"/>
-      <c r="SNL2" s="34"/>
+      <c r="SNK2" s="34"/>
+      <c r="SNL2" s="35"/>
       <c r="SOC2" s="14"/>
       <c r="SOD2" s="15"/>
       <c r="SOE2" s="15"/>
@@ -5777,8 +5801,8 @@
       <c r="SOJ2" s="15"/>
       <c r="SOK2" s="15"/>
       <c r="SOL2" s="16"/>
-      <c r="SOS2" s="33"/>
-      <c r="SOT2" s="34"/>
+      <c r="SOS2" s="34"/>
+      <c r="SOT2" s="35"/>
       <c r="SPK2" s="14"/>
       <c r="SPL2" s="15"/>
       <c r="SPM2" s="15"/>
@@ -5789,8 +5813,8 @@
       <c r="SPR2" s="15"/>
       <c r="SPS2" s="15"/>
       <c r="SPT2" s="16"/>
-      <c r="SQA2" s="33"/>
-      <c r="SQB2" s="34"/>
+      <c r="SQA2" s="34"/>
+      <c r="SQB2" s="35"/>
       <c r="SQS2" s="14"/>
       <c r="SQT2" s="15"/>
       <c r="SQU2" s="15"/>
@@ -5801,8 +5825,8 @@
       <c r="SQZ2" s="15"/>
       <c r="SRA2" s="15"/>
       <c r="SRB2" s="16"/>
-      <c r="SRI2" s="33"/>
-      <c r="SRJ2" s="34"/>
+      <c r="SRI2" s="34"/>
+      <c r="SRJ2" s="35"/>
       <c r="SSA2" s="14"/>
       <c r="SSB2" s="15"/>
       <c r="SSC2" s="15"/>
@@ -5813,8 +5837,8 @@
       <c r="SSH2" s="15"/>
       <c r="SSI2" s="15"/>
       <c r="SSJ2" s="16"/>
-      <c r="SSQ2" s="33"/>
-      <c r="SSR2" s="34"/>
+      <c r="SSQ2" s="34"/>
+      <c r="SSR2" s="35"/>
       <c r="STI2" s="14"/>
       <c r="STJ2" s="15"/>
       <c r="STK2" s="15"/>
@@ -5825,8 +5849,8 @@
       <c r="STP2" s="15"/>
       <c r="STQ2" s="15"/>
       <c r="STR2" s="16"/>
-      <c r="STY2" s="33"/>
-      <c r="STZ2" s="34"/>
+      <c r="STY2" s="34"/>
+      <c r="STZ2" s="35"/>
       <c r="SUQ2" s="14"/>
       <c r="SUR2" s="15"/>
       <c r="SUS2" s="15"/>
@@ -5837,8 +5861,8 @@
       <c r="SUX2" s="15"/>
       <c r="SUY2" s="15"/>
       <c r="SUZ2" s="16"/>
-      <c r="SVG2" s="33"/>
-      <c r="SVH2" s="34"/>
+      <c r="SVG2" s="34"/>
+      <c r="SVH2" s="35"/>
       <c r="SVY2" s="14"/>
       <c r="SVZ2" s="15"/>
       <c r="SWA2" s="15"/>
@@ -5849,8 +5873,8 @@
       <c r="SWF2" s="15"/>
       <c r="SWG2" s="15"/>
       <c r="SWH2" s="16"/>
-      <c r="SWO2" s="33"/>
-      <c r="SWP2" s="34"/>
+      <c r="SWO2" s="34"/>
+      <c r="SWP2" s="35"/>
       <c r="SXG2" s="14"/>
       <c r="SXH2" s="15"/>
       <c r="SXI2" s="15"/>
@@ -5861,8 +5885,8 @@
       <c r="SXN2" s="15"/>
       <c r="SXO2" s="15"/>
       <c r="SXP2" s="16"/>
-      <c r="SXW2" s="33"/>
-      <c r="SXX2" s="34"/>
+      <c r="SXW2" s="34"/>
+      <c r="SXX2" s="35"/>
       <c r="SYO2" s="14"/>
       <c r="SYP2" s="15"/>
       <c r="SYQ2" s="15"/>
@@ -5873,8 +5897,8 @@
       <c r="SYV2" s="15"/>
       <c r="SYW2" s="15"/>
       <c r="SYX2" s="16"/>
-      <c r="SZE2" s="33"/>
-      <c r="SZF2" s="34"/>
+      <c r="SZE2" s="34"/>
+      <c r="SZF2" s="35"/>
       <c r="SZW2" s="14"/>
       <c r="SZX2" s="15"/>
       <c r="SZY2" s="15"/>
@@ -5885,8 +5909,8 @@
       <c r="TAD2" s="15"/>
       <c r="TAE2" s="15"/>
       <c r="TAF2" s="16"/>
-      <c r="TAM2" s="33"/>
-      <c r="TAN2" s="34"/>
+      <c r="TAM2" s="34"/>
+      <c r="TAN2" s="35"/>
       <c r="TBE2" s="14"/>
       <c r="TBF2" s="15"/>
       <c r="TBG2" s="15"/>
@@ -5897,8 +5921,8 @@
       <c r="TBL2" s="15"/>
       <c r="TBM2" s="15"/>
       <c r="TBN2" s="16"/>
-      <c r="TBU2" s="33"/>
-      <c r="TBV2" s="34"/>
+      <c r="TBU2" s="34"/>
+      <c r="TBV2" s="35"/>
       <c r="TCM2" s="14"/>
       <c r="TCN2" s="15"/>
       <c r="TCO2" s="15"/>
@@ -5909,8 +5933,8 @@
       <c r="TCT2" s="15"/>
       <c r="TCU2" s="15"/>
       <c r="TCV2" s="16"/>
-      <c r="TDC2" s="33"/>
-      <c r="TDD2" s="34"/>
+      <c r="TDC2" s="34"/>
+      <c r="TDD2" s="35"/>
       <c r="TDU2" s="14"/>
       <c r="TDV2" s="15"/>
       <c r="TDW2" s="15"/>
@@ -5921,8 +5945,8 @@
       <c r="TEB2" s="15"/>
       <c r="TEC2" s="15"/>
       <c r="TED2" s="16"/>
-      <c r="TEK2" s="33"/>
-      <c r="TEL2" s="34"/>
+      <c r="TEK2" s="34"/>
+      <c r="TEL2" s="35"/>
       <c r="TFC2" s="14"/>
       <c r="TFD2" s="15"/>
       <c r="TFE2" s="15"/>
@@ -5933,8 +5957,8 @@
       <c r="TFJ2" s="15"/>
       <c r="TFK2" s="15"/>
       <c r="TFL2" s="16"/>
-      <c r="TFS2" s="33"/>
-      <c r="TFT2" s="34"/>
+      <c r="TFS2" s="34"/>
+      <c r="TFT2" s="35"/>
       <c r="TGK2" s="14"/>
       <c r="TGL2" s="15"/>
       <c r="TGM2" s="15"/>
@@ -5945,8 +5969,8 @@
       <c r="TGR2" s="15"/>
       <c r="TGS2" s="15"/>
       <c r="TGT2" s="16"/>
-      <c r="THA2" s="33"/>
-      <c r="THB2" s="34"/>
+      <c r="THA2" s="34"/>
+      <c r="THB2" s="35"/>
       <c r="THS2" s="14"/>
       <c r="THT2" s="15"/>
       <c r="THU2" s="15"/>
@@ -5957,8 +5981,8 @@
       <c r="THZ2" s="15"/>
       <c r="TIA2" s="15"/>
       <c r="TIB2" s="16"/>
-      <c r="TII2" s="33"/>
-      <c r="TIJ2" s="34"/>
+      <c r="TII2" s="34"/>
+      <c r="TIJ2" s="35"/>
       <c r="TJA2" s="14"/>
       <c r="TJB2" s="15"/>
       <c r="TJC2" s="15"/>
@@ -5969,8 +5993,8 @@
       <c r="TJH2" s="15"/>
       <c r="TJI2" s="15"/>
       <c r="TJJ2" s="16"/>
-      <c r="TJQ2" s="33"/>
-      <c r="TJR2" s="34"/>
+      <c r="TJQ2" s="34"/>
+      <c r="TJR2" s="35"/>
       <c r="TKI2" s="14"/>
       <c r="TKJ2" s="15"/>
       <c r="TKK2" s="15"/>
@@ -5981,8 +6005,8 @@
       <c r="TKP2" s="15"/>
       <c r="TKQ2" s="15"/>
       <c r="TKR2" s="16"/>
-      <c r="TKY2" s="33"/>
-      <c r="TKZ2" s="34"/>
+      <c r="TKY2" s="34"/>
+      <c r="TKZ2" s="35"/>
       <c r="TLQ2" s="14"/>
       <c r="TLR2" s="15"/>
       <c r="TLS2" s="15"/>
@@ -5993,8 +6017,8 @@
       <c r="TLX2" s="15"/>
       <c r="TLY2" s="15"/>
       <c r="TLZ2" s="16"/>
-      <c r="TMG2" s="33"/>
-      <c r="TMH2" s="34"/>
+      <c r="TMG2" s="34"/>
+      <c r="TMH2" s="35"/>
       <c r="TMY2" s="14"/>
       <c r="TMZ2" s="15"/>
       <c r="TNA2" s="15"/>
@@ -6005,8 +6029,8 @@
       <c r="TNF2" s="15"/>
       <c r="TNG2" s="15"/>
       <c r="TNH2" s="16"/>
-      <c r="TNO2" s="33"/>
-      <c r="TNP2" s="34"/>
+      <c r="TNO2" s="34"/>
+      <c r="TNP2" s="35"/>
       <c r="TOG2" s="14"/>
       <c r="TOH2" s="15"/>
       <c r="TOI2" s="15"/>
@@ -6017,8 +6041,8 @@
       <c r="TON2" s="15"/>
       <c r="TOO2" s="15"/>
       <c r="TOP2" s="16"/>
-      <c r="TOW2" s="33"/>
-      <c r="TOX2" s="34"/>
+      <c r="TOW2" s="34"/>
+      <c r="TOX2" s="35"/>
       <c r="TPO2" s="14"/>
       <c r="TPP2" s="15"/>
       <c r="TPQ2" s="15"/>
@@ -6029,8 +6053,8 @@
       <c r="TPV2" s="15"/>
       <c r="TPW2" s="15"/>
       <c r="TPX2" s="16"/>
-      <c r="TQE2" s="33"/>
-      <c r="TQF2" s="34"/>
+      <c r="TQE2" s="34"/>
+      <c r="TQF2" s="35"/>
       <c r="TQW2" s="14"/>
       <c r="TQX2" s="15"/>
       <c r="TQY2" s="15"/>
@@ -6041,8 +6065,8 @@
       <c r="TRD2" s="15"/>
       <c r="TRE2" s="15"/>
       <c r="TRF2" s="16"/>
-      <c r="TRM2" s="33"/>
-      <c r="TRN2" s="34"/>
+      <c r="TRM2" s="34"/>
+      <c r="TRN2" s="35"/>
       <c r="TSE2" s="14"/>
       <c r="TSF2" s="15"/>
       <c r="TSG2" s="15"/>
@@ -6053,8 +6077,8 @@
       <c r="TSL2" s="15"/>
       <c r="TSM2" s="15"/>
       <c r="TSN2" s="16"/>
-      <c r="TSU2" s="33"/>
-      <c r="TSV2" s="34"/>
+      <c r="TSU2" s="34"/>
+      <c r="TSV2" s="35"/>
       <c r="TTM2" s="14"/>
       <c r="TTN2" s="15"/>
       <c r="TTO2" s="15"/>
@@ -6065,8 +6089,8 @@
       <c r="TTT2" s="15"/>
       <c r="TTU2" s="15"/>
       <c r="TTV2" s="16"/>
-      <c r="TUC2" s="33"/>
-      <c r="TUD2" s="34"/>
+      <c r="TUC2" s="34"/>
+      <c r="TUD2" s="35"/>
       <c r="TUU2" s="14"/>
       <c r="TUV2" s="15"/>
       <c r="TUW2" s="15"/>
@@ -6077,8 +6101,8 @@
       <c r="TVB2" s="15"/>
       <c r="TVC2" s="15"/>
       <c r="TVD2" s="16"/>
-      <c r="TVK2" s="33"/>
-      <c r="TVL2" s="34"/>
+      <c r="TVK2" s="34"/>
+      <c r="TVL2" s="35"/>
       <c r="TWC2" s="14"/>
       <c r="TWD2" s="15"/>
       <c r="TWE2" s="15"/>
@@ -6089,8 +6113,8 @@
       <c r="TWJ2" s="15"/>
       <c r="TWK2" s="15"/>
       <c r="TWL2" s="16"/>
-      <c r="TWS2" s="33"/>
-      <c r="TWT2" s="34"/>
+      <c r="TWS2" s="34"/>
+      <c r="TWT2" s="35"/>
       <c r="TXK2" s="14"/>
       <c r="TXL2" s="15"/>
       <c r="TXM2" s="15"/>
@@ -6101,8 +6125,8 @@
       <c r="TXR2" s="15"/>
       <c r="TXS2" s="15"/>
       <c r="TXT2" s="16"/>
-      <c r="TYA2" s="33"/>
-      <c r="TYB2" s="34"/>
+      <c r="TYA2" s="34"/>
+      <c r="TYB2" s="35"/>
       <c r="TYS2" s="14"/>
       <c r="TYT2" s="15"/>
       <c r="TYU2" s="15"/>
@@ -6113,8 +6137,8 @@
       <c r="TYZ2" s="15"/>
       <c r="TZA2" s="15"/>
       <c r="TZB2" s="16"/>
-      <c r="TZI2" s="33"/>
-      <c r="TZJ2" s="34"/>
+      <c r="TZI2" s="34"/>
+      <c r="TZJ2" s="35"/>
       <c r="UAA2" s="14"/>
       <c r="UAB2" s="15"/>
       <c r="UAC2" s="15"/>
@@ -6125,8 +6149,8 @@
       <c r="UAH2" s="15"/>
       <c r="UAI2" s="15"/>
       <c r="UAJ2" s="16"/>
-      <c r="UAQ2" s="33"/>
-      <c r="UAR2" s="34"/>
+      <c r="UAQ2" s="34"/>
+      <c r="UAR2" s="35"/>
       <c r="UBI2" s="14"/>
       <c r="UBJ2" s="15"/>
       <c r="UBK2" s="15"/>
@@ -6137,8 +6161,8 @@
       <c r="UBP2" s="15"/>
       <c r="UBQ2" s="15"/>
       <c r="UBR2" s="16"/>
-      <c r="UBY2" s="33"/>
-      <c r="UBZ2" s="34"/>
+      <c r="UBY2" s="34"/>
+      <c r="UBZ2" s="35"/>
       <c r="UCQ2" s="14"/>
       <c r="UCR2" s="15"/>
       <c r="UCS2" s="15"/>
@@ -6149,8 +6173,8 @@
       <c r="UCX2" s="15"/>
       <c r="UCY2" s="15"/>
       <c r="UCZ2" s="16"/>
-      <c r="UDG2" s="33"/>
-      <c r="UDH2" s="34"/>
+      <c r="UDG2" s="34"/>
+      <c r="UDH2" s="35"/>
       <c r="UDY2" s="14"/>
       <c r="UDZ2" s="15"/>
       <c r="UEA2" s="15"/>
@@ -6161,8 +6185,8 @@
       <c r="UEF2" s="15"/>
       <c r="UEG2" s="15"/>
       <c r="UEH2" s="16"/>
-      <c r="UEO2" s="33"/>
-      <c r="UEP2" s="34"/>
+      <c r="UEO2" s="34"/>
+      <c r="UEP2" s="35"/>
       <c r="UFG2" s="14"/>
       <c r="UFH2" s="15"/>
       <c r="UFI2" s="15"/>
@@ -6173,8 +6197,8 @@
       <c r="UFN2" s="15"/>
       <c r="UFO2" s="15"/>
       <c r="UFP2" s="16"/>
-      <c r="UFW2" s="33"/>
-      <c r="UFX2" s="34"/>
+      <c r="UFW2" s="34"/>
+      <c r="UFX2" s="35"/>
       <c r="UGO2" s="14"/>
       <c r="UGP2" s="15"/>
       <c r="UGQ2" s="15"/>
@@ -6185,8 +6209,8 @@
       <c r="UGV2" s="15"/>
       <c r="UGW2" s="15"/>
       <c r="UGX2" s="16"/>
-      <c r="UHE2" s="33"/>
-      <c r="UHF2" s="34"/>
+      <c r="UHE2" s="34"/>
+      <c r="UHF2" s="35"/>
       <c r="UHW2" s="14"/>
       <c r="UHX2" s="15"/>
       <c r="UHY2" s="15"/>
@@ -6197,8 +6221,8 @@
       <c r="UID2" s="15"/>
       <c r="UIE2" s="15"/>
       <c r="UIF2" s="16"/>
-      <c r="UIM2" s="33"/>
-      <c r="UIN2" s="34"/>
+      <c r="UIM2" s="34"/>
+      <c r="UIN2" s="35"/>
       <c r="UJE2" s="14"/>
       <c r="UJF2" s="15"/>
       <c r="UJG2" s="15"/>
@@ -6209,8 +6233,8 @@
       <c r="UJL2" s="15"/>
       <c r="UJM2" s="15"/>
       <c r="UJN2" s="16"/>
-      <c r="UJU2" s="33"/>
-      <c r="UJV2" s="34"/>
+      <c r="UJU2" s="34"/>
+      <c r="UJV2" s="35"/>
       <c r="UKM2" s="14"/>
       <c r="UKN2" s="15"/>
       <c r="UKO2" s="15"/>
@@ -6221,8 +6245,8 @@
       <c r="UKT2" s="15"/>
       <c r="UKU2" s="15"/>
       <c r="UKV2" s="16"/>
-      <c r="ULC2" s="33"/>
-      <c r="ULD2" s="34"/>
+      <c r="ULC2" s="34"/>
+      <c r="ULD2" s="35"/>
       <c r="ULU2" s="14"/>
       <c r="ULV2" s="15"/>
       <c r="ULW2" s="15"/>
@@ -6233,8 +6257,8 @@
       <c r="UMB2" s="15"/>
       <c r="UMC2" s="15"/>
       <c r="UMD2" s="16"/>
-      <c r="UMK2" s="33"/>
-      <c r="UML2" s="34"/>
+      <c r="UMK2" s="34"/>
+      <c r="UML2" s="35"/>
       <c r="UNC2" s="14"/>
       <c r="UND2" s="15"/>
       <c r="UNE2" s="15"/>
@@ -6245,8 +6269,8 @@
       <c r="UNJ2" s="15"/>
       <c r="UNK2" s="15"/>
       <c r="UNL2" s="16"/>
-      <c r="UNS2" s="33"/>
-      <c r="UNT2" s="34"/>
+      <c r="UNS2" s="34"/>
+      <c r="UNT2" s="35"/>
       <c r="UOK2" s="14"/>
       <c r="UOL2" s="15"/>
       <c r="UOM2" s="15"/>
@@ -6257,8 +6281,8 @@
       <c r="UOR2" s="15"/>
       <c r="UOS2" s="15"/>
       <c r="UOT2" s="16"/>
-      <c r="UPA2" s="33"/>
-      <c r="UPB2" s="34"/>
+      <c r="UPA2" s="34"/>
+      <c r="UPB2" s="35"/>
       <c r="UPS2" s="14"/>
       <c r="UPT2" s="15"/>
       <c r="UPU2" s="15"/>
@@ -6269,8 +6293,8 @@
       <c r="UPZ2" s="15"/>
       <c r="UQA2" s="15"/>
       <c r="UQB2" s="16"/>
-      <c r="UQI2" s="33"/>
-      <c r="UQJ2" s="34"/>
+      <c r="UQI2" s="34"/>
+      <c r="UQJ2" s="35"/>
       <c r="URA2" s="14"/>
       <c r="URB2" s="15"/>
       <c r="URC2" s="15"/>
@@ -6281,8 +6305,8 @@
       <c r="URH2" s="15"/>
       <c r="URI2" s="15"/>
       <c r="URJ2" s="16"/>
-      <c r="URQ2" s="33"/>
-      <c r="URR2" s="34"/>
+      <c r="URQ2" s="34"/>
+      <c r="URR2" s="35"/>
       <c r="USI2" s="14"/>
       <c r="USJ2" s="15"/>
       <c r="USK2" s="15"/>
@@ -6293,8 +6317,8 @@
       <c r="USP2" s="15"/>
       <c r="USQ2" s="15"/>
       <c r="USR2" s="16"/>
-      <c r="USY2" s="33"/>
-      <c r="USZ2" s="34"/>
+      <c r="USY2" s="34"/>
+      <c r="USZ2" s="35"/>
       <c r="UTQ2" s="14"/>
       <c r="UTR2" s="15"/>
       <c r="UTS2" s="15"/>
@@ -6305,8 +6329,8 @@
       <c r="UTX2" s="15"/>
       <c r="UTY2" s="15"/>
       <c r="UTZ2" s="16"/>
-      <c r="UUG2" s="33"/>
-      <c r="UUH2" s="34"/>
+      <c r="UUG2" s="34"/>
+      <c r="UUH2" s="35"/>
       <c r="UUY2" s="14"/>
       <c r="UUZ2" s="15"/>
       <c r="UVA2" s="15"/>
@@ -6317,8 +6341,8 @@
       <c r="UVF2" s="15"/>
       <c r="UVG2" s="15"/>
       <c r="UVH2" s="16"/>
-      <c r="UVO2" s="33"/>
-      <c r="UVP2" s="34"/>
+      <c r="UVO2" s="34"/>
+      <c r="UVP2" s="35"/>
       <c r="UWG2" s="14"/>
       <c r="UWH2" s="15"/>
       <c r="UWI2" s="15"/>
@@ -6329,8 +6353,8 @@
       <c r="UWN2" s="15"/>
       <c r="UWO2" s="15"/>
       <c r="UWP2" s="16"/>
-      <c r="UWW2" s="33"/>
-      <c r="UWX2" s="34"/>
+      <c r="UWW2" s="34"/>
+      <c r="UWX2" s="35"/>
       <c r="UXO2" s="14"/>
       <c r="UXP2" s="15"/>
       <c r="UXQ2" s="15"/>
@@ -6341,8 +6365,8 @@
       <c r="UXV2" s="15"/>
       <c r="UXW2" s="15"/>
       <c r="UXX2" s="16"/>
-      <c r="UYE2" s="33"/>
-      <c r="UYF2" s="34"/>
+      <c r="UYE2" s="34"/>
+      <c r="UYF2" s="35"/>
       <c r="UYW2" s="14"/>
       <c r="UYX2" s="15"/>
       <c r="UYY2" s="15"/>
@@ -6353,8 +6377,8 @@
       <c r="UZD2" s="15"/>
       <c r="UZE2" s="15"/>
       <c r="UZF2" s="16"/>
-      <c r="UZM2" s="33"/>
-      <c r="UZN2" s="34"/>
+      <c r="UZM2" s="34"/>
+      <c r="UZN2" s="35"/>
       <c r="VAE2" s="14"/>
       <c r="VAF2" s="15"/>
       <c r="VAG2" s="15"/>
@@ -6365,8 +6389,8 @@
       <c r="VAL2" s="15"/>
       <c r="VAM2" s="15"/>
       <c r="VAN2" s="16"/>
-      <c r="VAU2" s="33"/>
-      <c r="VAV2" s="34"/>
+      <c r="VAU2" s="34"/>
+      <c r="VAV2" s="35"/>
       <c r="VBM2" s="14"/>
       <c r="VBN2" s="15"/>
       <c r="VBO2" s="15"/>
@@ -6377,8 +6401,8 @@
       <c r="VBT2" s="15"/>
       <c r="VBU2" s="15"/>
       <c r="VBV2" s="16"/>
-      <c r="VCC2" s="33"/>
-      <c r="VCD2" s="34"/>
+      <c r="VCC2" s="34"/>
+      <c r="VCD2" s="35"/>
       <c r="VCU2" s="14"/>
       <c r="VCV2" s="15"/>
       <c r="VCW2" s="15"/>
@@ -6389,8 +6413,8 @@
       <c r="VDB2" s="15"/>
       <c r="VDC2" s="15"/>
       <c r="VDD2" s="16"/>
-      <c r="VDK2" s="33"/>
-      <c r="VDL2" s="34"/>
+      <c r="VDK2" s="34"/>
+      <c r="VDL2" s="35"/>
       <c r="VEC2" s="14"/>
       <c r="VED2" s="15"/>
       <c r="VEE2" s="15"/>
@@ -6401,8 +6425,8 @@
       <c r="VEJ2" s="15"/>
       <c r="VEK2" s="15"/>
       <c r="VEL2" s="16"/>
-      <c r="VES2" s="33"/>
-      <c r="VET2" s="34"/>
+      <c r="VES2" s="34"/>
+      <c r="VET2" s="35"/>
       <c r="VFK2" s="14"/>
       <c r="VFL2" s="15"/>
       <c r="VFM2" s="15"/>
@@ -6413,8 +6437,8 @@
       <c r="VFR2" s="15"/>
       <c r="VFS2" s="15"/>
       <c r="VFT2" s="16"/>
-      <c r="VGA2" s="33"/>
-      <c r="VGB2" s="34"/>
+      <c r="VGA2" s="34"/>
+      <c r="VGB2" s="35"/>
       <c r="VGS2" s="14"/>
       <c r="VGT2" s="15"/>
       <c r="VGU2" s="15"/>
@@ -6425,8 +6449,8 @@
       <c r="VGZ2" s="15"/>
       <c r="VHA2" s="15"/>
       <c r="VHB2" s="16"/>
-      <c r="VHI2" s="33"/>
-      <c r="VHJ2" s="34"/>
+      <c r="VHI2" s="34"/>
+      <c r="VHJ2" s="35"/>
       <c r="VIA2" s="14"/>
       <c r="VIB2" s="15"/>
       <c r="VIC2" s="15"/>
@@ -6437,8 +6461,8 @@
       <c r="VIH2" s="15"/>
       <c r="VII2" s="15"/>
       <c r="VIJ2" s="16"/>
-      <c r="VIQ2" s="33"/>
-      <c r="VIR2" s="34"/>
+      <c r="VIQ2" s="34"/>
+      <c r="VIR2" s="35"/>
       <c r="VJI2" s="14"/>
       <c r="VJJ2" s="15"/>
       <c r="VJK2" s="15"/>
@@ -6449,8 +6473,8 @@
       <c r="VJP2" s="15"/>
       <c r="VJQ2" s="15"/>
       <c r="VJR2" s="16"/>
-      <c r="VJY2" s="33"/>
-      <c r="VJZ2" s="34"/>
+      <c r="VJY2" s="34"/>
+      <c r="VJZ2" s="35"/>
       <c r="VKQ2" s="14"/>
       <c r="VKR2" s="15"/>
       <c r="VKS2" s="15"/>
@@ -6461,8 +6485,8 @@
       <c r="VKX2" s="15"/>
       <c r="VKY2" s="15"/>
       <c r="VKZ2" s="16"/>
-      <c r="VLG2" s="33"/>
-      <c r="VLH2" s="34"/>
+      <c r="VLG2" s="34"/>
+      <c r="VLH2" s="35"/>
       <c r="VLY2" s="14"/>
       <c r="VLZ2" s="15"/>
       <c r="VMA2" s="15"/>
@@ -6473,8 +6497,8 @@
       <c r="VMF2" s="15"/>
       <c r="VMG2" s="15"/>
       <c r="VMH2" s="16"/>
-      <c r="VMO2" s="33"/>
-      <c r="VMP2" s="34"/>
+      <c r="VMO2" s="34"/>
+      <c r="VMP2" s="35"/>
       <c r="VNG2" s="14"/>
       <c r="VNH2" s="15"/>
       <c r="VNI2" s="15"/>
@@ -6485,8 +6509,8 @@
       <c r="VNN2" s="15"/>
       <c r="VNO2" s="15"/>
       <c r="VNP2" s="16"/>
-      <c r="VNW2" s="33"/>
-      <c r="VNX2" s="34"/>
+      <c r="VNW2" s="34"/>
+      <c r="VNX2" s="35"/>
       <c r="VOO2" s="14"/>
       <c r="VOP2" s="15"/>
       <c r="VOQ2" s="15"/>
@@ -6497,8 +6521,8 @@
       <c r="VOV2" s="15"/>
       <c r="VOW2" s="15"/>
       <c r="VOX2" s="16"/>
-      <c r="VPE2" s="33"/>
-      <c r="VPF2" s="34"/>
+      <c r="VPE2" s="34"/>
+      <c r="VPF2" s="35"/>
       <c r="VPW2" s="14"/>
       <c r="VPX2" s="15"/>
       <c r="VPY2" s="15"/>
@@ -6509,8 +6533,8 @@
       <c r="VQD2" s="15"/>
       <c r="VQE2" s="15"/>
       <c r="VQF2" s="16"/>
-      <c r="VQM2" s="33"/>
-      <c r="VQN2" s="34"/>
+      <c r="VQM2" s="34"/>
+      <c r="VQN2" s="35"/>
       <c r="VRE2" s="14"/>
       <c r="VRF2" s="15"/>
       <c r="VRG2" s="15"/>
@@ -6521,8 +6545,8 @@
       <c r="VRL2" s="15"/>
       <c r="VRM2" s="15"/>
       <c r="VRN2" s="16"/>
-      <c r="VRU2" s="33"/>
-      <c r="VRV2" s="34"/>
+      <c r="VRU2" s="34"/>
+      <c r="VRV2" s="35"/>
       <c r="VSM2" s="14"/>
       <c r="VSN2" s="15"/>
       <c r="VSO2" s="15"/>
@@ -6533,8 +6557,8 @@
       <c r="VST2" s="15"/>
       <c r="VSU2" s="15"/>
       <c r="VSV2" s="16"/>
-      <c r="VTC2" s="33"/>
-      <c r="VTD2" s="34"/>
+      <c r="VTC2" s="34"/>
+      <c r="VTD2" s="35"/>
       <c r="VTU2" s="14"/>
       <c r="VTV2" s="15"/>
       <c r="VTW2" s="15"/>
@@ -6545,8 +6569,8 @@
       <c r="VUB2" s="15"/>
       <c r="VUC2" s="15"/>
       <c r="VUD2" s="16"/>
-      <c r="VUK2" s="33"/>
-      <c r="VUL2" s="34"/>
+      <c r="VUK2" s="34"/>
+      <c r="VUL2" s="35"/>
       <c r="VVC2" s="14"/>
       <c r="VVD2" s="15"/>
       <c r="VVE2" s="15"/>
@@ -6557,8 +6581,8 @@
       <c r="VVJ2" s="15"/>
       <c r="VVK2" s="15"/>
       <c r="VVL2" s="16"/>
-      <c r="VVS2" s="33"/>
-      <c r="VVT2" s="34"/>
+      <c r="VVS2" s="34"/>
+      <c r="VVT2" s="35"/>
       <c r="VWK2" s="14"/>
       <c r="VWL2" s="15"/>
       <c r="VWM2" s="15"/>
@@ -6569,8 +6593,8 @@
       <c r="VWR2" s="15"/>
       <c r="VWS2" s="15"/>
       <c r="VWT2" s="16"/>
-      <c r="VXA2" s="33"/>
-      <c r="VXB2" s="34"/>
+      <c r="VXA2" s="34"/>
+      <c r="VXB2" s="35"/>
       <c r="VXS2" s="14"/>
       <c r="VXT2" s="15"/>
       <c r="VXU2" s="15"/>
@@ -6581,8 +6605,8 @@
       <c r="VXZ2" s="15"/>
       <c r="VYA2" s="15"/>
       <c r="VYB2" s="16"/>
-      <c r="VYI2" s="33"/>
-      <c r="VYJ2" s="34"/>
+      <c r="VYI2" s="34"/>
+      <c r="VYJ2" s="35"/>
       <c r="VZA2" s="14"/>
       <c r="VZB2" s="15"/>
       <c r="VZC2" s="15"/>
@@ -6593,8 +6617,8 @@
       <c r="VZH2" s="15"/>
       <c r="VZI2" s="15"/>
       <c r="VZJ2" s="16"/>
-      <c r="VZQ2" s="33"/>
-      <c r="VZR2" s="34"/>
+      <c r="VZQ2" s="34"/>
+      <c r="VZR2" s="35"/>
       <c r="WAI2" s="14"/>
       <c r="WAJ2" s="15"/>
       <c r="WAK2" s="15"/>
@@ -6605,8 +6629,8 @@
       <c r="WAP2" s="15"/>
       <c r="WAQ2" s="15"/>
       <c r="WAR2" s="16"/>
-      <c r="WAY2" s="33"/>
-      <c r="WAZ2" s="34"/>
+      <c r="WAY2" s="34"/>
+      <c r="WAZ2" s="35"/>
       <c r="WBQ2" s="14"/>
       <c r="WBR2" s="15"/>
       <c r="WBS2" s="15"/>
@@ -6617,8 +6641,8 @@
       <c r="WBX2" s="15"/>
       <c r="WBY2" s="15"/>
       <c r="WBZ2" s="16"/>
-      <c r="WCG2" s="33"/>
-      <c r="WCH2" s="34"/>
+      <c r="WCG2" s="34"/>
+      <c r="WCH2" s="35"/>
       <c r="WCY2" s="14"/>
       <c r="WCZ2" s="15"/>
       <c r="WDA2" s="15"/>
@@ -6629,8 +6653,8 @@
       <c r="WDF2" s="15"/>
       <c r="WDG2" s="15"/>
       <c r="WDH2" s="16"/>
-      <c r="WDO2" s="33"/>
-      <c r="WDP2" s="34"/>
+      <c r="WDO2" s="34"/>
+      <c r="WDP2" s="35"/>
       <c r="WEG2" s="14"/>
       <c r="WEH2" s="15"/>
       <c r="WEI2" s="15"/>
@@ -6641,8 +6665,8 @@
       <c r="WEN2" s="15"/>
       <c r="WEO2" s="15"/>
       <c r="WEP2" s="16"/>
-      <c r="WEW2" s="33"/>
-      <c r="WEX2" s="34"/>
+      <c r="WEW2" s="34"/>
+      <c r="WEX2" s="35"/>
       <c r="WFO2" s="14"/>
       <c r="WFP2" s="15"/>
       <c r="WFQ2" s="15"/>
@@ -6653,8 +6677,8 @@
       <c r="WFV2" s="15"/>
       <c r="WFW2" s="15"/>
       <c r="WFX2" s="16"/>
-      <c r="WGE2" s="33"/>
-      <c r="WGF2" s="34"/>
+      <c r="WGE2" s="34"/>
+      <c r="WGF2" s="35"/>
       <c r="WGW2" s="14"/>
       <c r="WGX2" s="15"/>
       <c r="WGY2" s="15"/>
@@ -6665,8 +6689,8 @@
       <c r="WHD2" s="15"/>
       <c r="WHE2" s="15"/>
       <c r="WHF2" s="16"/>
-      <c r="WHM2" s="33"/>
-      <c r="WHN2" s="34"/>
+      <c r="WHM2" s="34"/>
+      <c r="WHN2" s="35"/>
       <c r="WIE2" s="14"/>
       <c r="WIF2" s="15"/>
       <c r="WIG2" s="15"/>
@@ -6677,8 +6701,8 @@
       <c r="WIL2" s="15"/>
       <c r="WIM2" s="15"/>
       <c r="WIN2" s="16"/>
-      <c r="WIU2" s="33"/>
-      <c r="WIV2" s="34"/>
+      <c r="WIU2" s="34"/>
+      <c r="WIV2" s="35"/>
       <c r="WJM2" s="14"/>
       <c r="WJN2" s="15"/>
       <c r="WJO2" s="15"/>
@@ -6689,8 +6713,8 @@
       <c r="WJT2" s="15"/>
       <c r="WJU2" s="15"/>
       <c r="WJV2" s="16"/>
-      <c r="WKC2" s="33"/>
-      <c r="WKD2" s="34"/>
+      <c r="WKC2" s="34"/>
+      <c r="WKD2" s="35"/>
       <c r="WKU2" s="14"/>
       <c r="WKV2" s="15"/>
       <c r="WKW2" s="15"/>
@@ -6701,8 +6725,8 @@
       <c r="WLB2" s="15"/>
       <c r="WLC2" s="15"/>
       <c r="WLD2" s="16"/>
-      <c r="WLK2" s="33"/>
-      <c r="WLL2" s="34"/>
+      <c r="WLK2" s="34"/>
+      <c r="WLL2" s="35"/>
       <c r="WMC2" s="14"/>
       <c r="WMD2" s="15"/>
       <c r="WME2" s="15"/>
@@ -6713,8 +6737,8 @@
       <c r="WMJ2" s="15"/>
       <c r="WMK2" s="15"/>
       <c r="WML2" s="16"/>
-      <c r="WMS2" s="33"/>
-      <c r="WMT2" s="34"/>
+      <c r="WMS2" s="34"/>
+      <c r="WMT2" s="35"/>
       <c r="WNK2" s="14"/>
       <c r="WNL2" s="15"/>
       <c r="WNM2" s="15"/>
@@ -6725,8 +6749,8 @@
       <c r="WNR2" s="15"/>
       <c r="WNS2" s="15"/>
       <c r="WNT2" s="16"/>
-      <c r="WOA2" s="33"/>
-      <c r="WOB2" s="34"/>
+      <c r="WOA2" s="34"/>
+      <c r="WOB2" s="35"/>
       <c r="WOS2" s="14"/>
       <c r="WOT2" s="15"/>
       <c r="WOU2" s="15"/>
@@ -6737,8 +6761,8 @@
       <c r="WOZ2" s="15"/>
       <c r="WPA2" s="15"/>
       <c r="WPB2" s="16"/>
-      <c r="WPI2" s="33"/>
-      <c r="WPJ2" s="34"/>
+      <c r="WPI2" s="34"/>
+      <c r="WPJ2" s="35"/>
       <c r="WQA2" s="14"/>
       <c r="WQB2" s="15"/>
       <c r="WQC2" s="15"/>
@@ -6749,8 +6773,8 @@
       <c r="WQH2" s="15"/>
       <c r="WQI2" s="15"/>
       <c r="WQJ2" s="16"/>
-      <c r="WQQ2" s="33"/>
-      <c r="WQR2" s="34"/>
+      <c r="WQQ2" s="34"/>
+      <c r="WQR2" s="35"/>
       <c r="WRI2" s="14"/>
       <c r="WRJ2" s="15"/>
       <c r="WRK2" s="15"/>
@@ -6761,8 +6785,8 @@
       <c r="WRP2" s="15"/>
       <c r="WRQ2" s="15"/>
       <c r="WRR2" s="16"/>
-      <c r="WRY2" s="33"/>
-      <c r="WRZ2" s="34"/>
+      <c r="WRY2" s="34"/>
+      <c r="WRZ2" s="35"/>
       <c r="WSQ2" s="14"/>
       <c r="WSR2" s="15"/>
       <c r="WSS2" s="15"/>
@@ -6773,8 +6797,8 @@
       <c r="WSX2" s="15"/>
       <c r="WSY2" s="15"/>
       <c r="WSZ2" s="16"/>
-      <c r="WTG2" s="33"/>
-      <c r="WTH2" s="34"/>
+      <c r="WTG2" s="34"/>
+      <c r="WTH2" s="35"/>
       <c r="WTY2" s="14"/>
       <c r="WTZ2" s="15"/>
       <c r="WUA2" s="15"/>
@@ -6785,8 +6809,8 @@
       <c r="WUF2" s="15"/>
       <c r="WUG2" s="15"/>
       <c r="WUH2" s="16"/>
-      <c r="WUO2" s="33"/>
-      <c r="WUP2" s="34"/>
+      <c r="WUO2" s="34"/>
+      <c r="WUP2" s="35"/>
       <c r="WVG2" s="14"/>
       <c r="WVH2" s="15"/>
       <c r="WVI2" s="15"/>
@@ -6797,8 +6821,8 @@
       <c r="WVN2" s="15"/>
       <c r="WVO2" s="15"/>
       <c r="WVP2" s="16"/>
-      <c r="WVW2" s="33"/>
-      <c r="WVX2" s="34"/>
+      <c r="WVW2" s="34"/>
+      <c r="WVX2" s="35"/>
       <c r="WWO2" s="14"/>
       <c r="WWP2" s="15"/>
       <c r="WWQ2" s="15"/>
@@ -6809,8 +6833,8 @@
       <c r="WWV2" s="15"/>
       <c r="WWW2" s="15"/>
       <c r="WWX2" s="16"/>
-      <c r="WXE2" s="33"/>
-      <c r="WXF2" s="34"/>
+      <c r="WXE2" s="34"/>
+      <c r="WXF2" s="35"/>
       <c r="WXW2" s="14"/>
       <c r="WXX2" s="15"/>
       <c r="WXY2" s="15"/>
@@ -6821,8 +6845,8 @@
       <c r="WYD2" s="15"/>
       <c r="WYE2" s="15"/>
       <c r="WYF2" s="16"/>
-      <c r="WYM2" s="33"/>
-      <c r="WYN2" s="34"/>
+      <c r="WYM2" s="34"/>
+      <c r="WYN2" s="35"/>
       <c r="WZE2" s="14"/>
       <c r="WZF2" s="15"/>
       <c r="WZG2" s="15"/>
@@ -6833,8 +6857,8 @@
       <c r="WZL2" s="15"/>
       <c r="WZM2" s="15"/>
       <c r="WZN2" s="16"/>
-      <c r="WZU2" s="33"/>
-      <c r="WZV2" s="34"/>
+      <c r="WZU2" s="34"/>
+      <c r="WZV2" s="35"/>
       <c r="XAM2" s="14"/>
       <c r="XAN2" s="15"/>
       <c r="XAO2" s="15"/>
@@ -6845,8 +6869,8 @@
       <c r="XAT2" s="15"/>
       <c r="XAU2" s="15"/>
       <c r="XAV2" s="16"/>
-      <c r="XBC2" s="33"/>
-      <c r="XBD2" s="34"/>
+      <c r="XBC2" s="34"/>
+      <c r="XBD2" s="35"/>
       <c r="XBU2" s="14"/>
       <c r="XBV2" s="15"/>
       <c r="XBW2" s="15"/>
@@ -6857,8 +6881,8 @@
       <c r="XCB2" s="15"/>
       <c r="XCC2" s="15"/>
       <c r="XCD2" s="16"/>
-      <c r="XCK2" s="33"/>
-      <c r="XCL2" s="34"/>
+      <c r="XCK2" s="34"/>
+      <c r="XCL2" s="35"/>
       <c r="XDC2" s="14"/>
       <c r="XDD2" s="15"/>
       <c r="XDE2" s="15"/>
@@ -6869,8 +6893,8 @@
       <c r="XDJ2" s="15"/>
       <c r="XDK2" s="15"/>
       <c r="XDL2" s="16"/>
-      <c r="XDS2" s="33"/>
-      <c r="XDT2" s="34"/>
+      <c r="XDS2" s="34"/>
+      <c r="XDT2" s="35"/>
       <c r="XEK2" s="14"/>
       <c r="XEL2" s="15"/>
       <c r="XEM2" s="15"/>
@@ -6881,26 +6905,27 @@
       <c r="XER2" s="15"/>
       <c r="XES2" s="15"/>
       <c r="XET2" s="16"/>
-      <c r="XFA2" s="33"/>
-      <c r="XFB2" s="34"/>
+      <c r="XFA2" s="34"/>
+      <c r="XFB2" s="35"/>
     </row>
-    <row r="3" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="32"/>
+    <row r="3" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" x14ac:dyDescent="0.45">
+      <c r="E3" s="31"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" x14ac:dyDescent="0.45">
-      <c r="N4" s="6"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" x14ac:dyDescent="0.45">
-      <c r="N5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
@@ -6916,18 +6941,10 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="4"/>
+      <c r="R6" s="6"/>
     </row>
     <row r="7" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
@@ -6935,50 +6952,44 @@
       <c r="I7" s="2"/>
       <c r="M7" s="2"/>
       <c r="R7" s="7"/>
-      <c r="U7" s="2"/>
-      <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="E8" s="57" t="s">
+      <c r="B8" s="44"/>
+      <c r="E8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="I8" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="58"/>
-      <c r="M8" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="40"/>
-      <c r="Q8" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="R8" s="40"/>
-      <c r="U8" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="V8" s="40"/>
-      <c r="Y8" s="2"/>
+      <c r="F8" s="44"/>
+      <c r="I8" s="60" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="44"/>
+      <c r="M8" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="61"/>
+      <c r="Q8" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="61"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
     </row>
     <row r="9" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="59"/>
-      <c r="B9" s="60"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="42"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="42"/>
-      <c r="Y9" s="2"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="63"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="63"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
     </row>
     <row r="10" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6"/>
@@ -6986,8 +6997,6 @@
       <c r="J10" s="6"/>
       <c r="N10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" x14ac:dyDescent="0.45">
       <c r="B11" s="6"/>
@@ -6995,64 +7004,58 @@
       <c r="J11" s="6"/>
       <c r="N11" s="6"/>
       <c r="R11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="Y11" s="2"/>
     </row>
     <row r="12" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="7"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="47" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D12" s="48"/>
       <c r="F12" s="7"/>
-      <c r="G12" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="24"/>
+      <c r="G12" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="48"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="53"/>
       <c r="N12" s="7"/>
-      <c r="O12" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="P12" s="36"/>
+      <c r="O12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="24"/>
       <c r="R12" s="19"/>
-      <c r="S12" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="T12" s="36"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="35" t="s">
-        <v>55</v>
-      </c>
+      <c r="S12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="T12" s="64"/>
+      <c r="U12" s="6"/>
+      <c r="W12" s="36"/>
       <c r="X12" s="36"/>
-      <c r="Y12" s="2"/>
       <c r="AE12" s="18"/>
       <c r="AF12" s="18"/>
     </row>
     <row r="13" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="6"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="49"/>
       <c r="D13" s="50"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="55"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="38"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="26"/>
       <c r="R13" s="10"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="38"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="38"/>
-      <c r="Y13" s="2"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="6"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
       <c r="AE13" s="18"/>
       <c r="AF13" s="18"/>
     </row>
@@ -7062,109 +7065,98 @@
       <c r="J14" s="6"/>
       <c r="N14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="Y14" s="2"/>
     </row>
     <row r="15" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="7"/>
-      <c r="C15" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="24"/>
+      <c r="C15" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="40"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="48"/>
+      <c r="G15" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="40"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="44"/>
+      <c r="K15" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" s="53"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="36"/>
+      <c r="O15" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="P15" s="24"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="T15" s="36"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="X15" s="36"/>
-      <c r="Y15" s="2"/>
+      <c r="S15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="T15" s="64"/>
+      <c r="U15" s="6"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
       <c r="AE15" s="18"/>
       <c r="AF15" s="18"/>
     </row>
     <row r="16" spans="1:1014 1031:2034 2051:5120 5127:6140 6147:7168 7185:8188 8205:9208 9225:10228 10245:11248 11265:14334 14341:15354 15361:16382" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="6"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="50"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="42"/>
       <c r="J16" s="6"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="55"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="38"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="26"/>
       <c r="R16" s="6"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="38"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="2"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="6"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="AB16" s="21"/>
       <c r="AE16" s="18"/>
       <c r="AF16" s="18"/>
     </row>
     <row r="17" spans="2:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="6"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="F17" s="6"/>
       <c r="J17" s="6"/>
       <c r="N17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="Y17" s="2"/>
     </row>
     <row r="18" spans="2:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="7"/>
       <c r="C18" s="47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D18" s="48"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="67"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="40"/>
       <c r="J18" s="19"/>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="L18" s="24"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="36"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" s="36"/>
+      <c r="P18" s="24"/>
       <c r="R18" s="19"/>
-      <c r="S18" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="T18" s="36"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="2"/>
+      <c r="S18" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="T18" s="64"/>
+      <c r="U18" s="6"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
       <c r="AE18" s="18"/>
       <c r="AF18" s="18"/>
     </row>
@@ -7172,233 +7164,193 @@
       <c r="B19" s="6"/>
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="38"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="38"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="38"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="38"/>
-      <c r="Y19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="26"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="6"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
       <c r="AE19" s="18"/>
       <c r="AF19" s="18"/>
     </row>
     <row r="20" spans="2:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="6"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="Y20" s="2"/>
+      <c r="J20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="21" spans="2:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="6"/>
-      <c r="C21" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="65"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="24"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" s="24"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="T21" s="24"/>
       <c r="W21" s="18"/>
       <c r="X21" s="18"/>
-      <c r="Y21" s="2"/>
       <c r="AA21" s="18"/>
       <c r="AB21" s="18"/>
     </row>
     <row r="22" spans="2:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="4"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="50"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="N22" s="67"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="Y22" s="2"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="26"/>
       <c r="AA22" s="18"/>
       <c r="AB22" s="18"/>
     </row>
-    <row r="23" spans="2:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+    <row r="23" spans="2:32" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="6"/>
       <c r="L23" s="17"/>
-      <c r="Y23" s="2"/>
+      <c r="N23" s="6"/>
+      <c r="R23" s="6"/>
     </row>
-    <row r="24" spans="2:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="66"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="67"/>
+    <row r="24" spans="2:32" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="6"/>
+      <c r="C24" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="40"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="57"/>
       <c r="K24" s="17"/>
       <c r="L24" s="17"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="Y24" s="2"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="24"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="T24" s="24"/>
       <c r="AA24" s="18"/>
       <c r="AB24" s="18"/>
     </row>
-    <row r="25" spans="2:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="66"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="67"/>
+    <row r="25" spans="2:32" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B25" s="4"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="42"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="59"/>
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="22"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="26"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="26"/>
       <c r="AA25" s="18"/>
       <c r="AB25" s="18"/>
     </row>
-    <row r="26" spans="2:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R26" s="5"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="V26" s="3"/>
+    <row r="26" spans="2:32" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H26" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="35"/>
     </row>
     <row r="27" spans="2:32" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="R27" s="7"/>
-      <c r="V27" s="66"/>
+      <c r="H27" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" s="38"/>
       <c r="W27" s="18"/>
       <c r="X27" s="18"/>
     </row>
-    <row r="28" spans="2:32" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I28" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="J28" s="52"/>
-      <c r="Q28" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="R28" s="40"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
+    <row r="28" spans="2:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
       <c r="W28" s="18"/>
       <c r="X28" s="18"/>
     </row>
-    <row r="29" spans="2:32" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I29" s="53" t="s">
-        <v>65</v>
-      </c>
-      <c r="J29" s="54"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="42"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
+    <row r="29" spans="2:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
     </row>
-    <row r="30" spans="2:32" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I30" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="J30" s="34"/>
-      <c r="R30" s="6"/>
-      <c r="V30" s="66"/>
+    <row r="30" spans="2:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="31" spans="2:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="2:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
     </row>
-    <row r="31" spans="2:32" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I31" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="J31" s="56"/>
-      <c r="R31" s="6"/>
-      <c r="V31" s="66"/>
+    <row r="33" spans="19:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
     </row>
-    <row r="32" spans="2:32" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R32" s="7"/>
-      <c r="S32" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="T32" s="36"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-    </row>
-    <row r="33" spans="18:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R33" s="10"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="38"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="65"/>
-      <c r="X33" s="65"/>
-    </row>
-    <row r="34" spans="18:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R34" s="6"/>
-    </row>
-    <row r="35" spans="18:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R35" s="7"/>
-      <c r="S35" s="35" t="s">
-        <v>58</v>
-      </c>
+    <row r="34" spans="19:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="19:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S35" s="36"/>
       <c r="T35" s="36"/>
     </row>
-    <row r="36" spans="18:24" x14ac:dyDescent="0.45">
-      <c r="R36" s="6"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="38"/>
+    <row r="36" spans="19:24" x14ac:dyDescent="0.45">
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
     </row>
-    <row r="37" spans="18:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R37" s="6"/>
-    </row>
-    <row r="38" spans="18:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="R38" s="7"/>
-      <c r="S38" s="35" t="s">
-        <v>59</v>
-      </c>
+    <row r="37" spans="19:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="38" spans="19:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="S38" s="36"/>
       <c r="T38" s="36"/>
     </row>
-    <row r="39" spans="18:24" x14ac:dyDescent="0.45">
-      <c r="S39" s="37"/>
-      <c r="T39" s="38"/>
+    <row r="39" spans="19:24" x14ac:dyDescent="0.45">
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
     </row>
-    <row r="40" spans="18:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="18:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="43" spans="18:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="44" spans="18:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="46" spans="18:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="47" spans="18:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="19:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="19:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="19:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="19:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="19:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="19:24" ht="22.9" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="50" spans="29:35" x14ac:dyDescent="0.45">
       <c r="AF50" s="18"/>
     </row>
@@ -7436,7 +7388,7 @@
       <c r="AD61" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="514">
+  <mergeCells count="517">
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="I8:J9"/>
     <mergeCell ref="M8:N9"/>
@@ -7447,475 +7399,482 @@
     <mergeCell ref="O15:P16"/>
     <mergeCell ref="O18:P19"/>
     <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="Q28:R29"/>
+    <mergeCell ref="BI2:BJ2"/>
+    <mergeCell ref="CQ2:CR2"/>
+    <mergeCell ref="W12:X13"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="S32:T33"/>
     <mergeCell ref="S35:T36"/>
     <mergeCell ref="S38:T39"/>
-    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="C15:D16"/>
     <mergeCell ref="E8:F9"/>
     <mergeCell ref="G12:H13"/>
     <mergeCell ref="G15:H16"/>
-    <mergeCell ref="C15:D16"/>
     <mergeCell ref="C18:D19"/>
-    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="C12:D13"/>
     <mergeCell ref="K15:L16"/>
     <mergeCell ref="K18:L19"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="K21:L22"/>
+    <mergeCell ref="KM2:KN2"/>
+    <mergeCell ref="LU2:LV2"/>
+    <mergeCell ref="NC2:ND2"/>
+    <mergeCell ref="OK2:OL2"/>
+    <mergeCell ref="PS2:PT2"/>
     <mergeCell ref="DY2:DZ2"/>
     <mergeCell ref="FG2:FH2"/>
     <mergeCell ref="GO2:GP2"/>
     <mergeCell ref="HW2:HX2"/>
     <mergeCell ref="JE2:JF2"/>
-    <mergeCell ref="BI2:BJ2"/>
-    <mergeCell ref="CQ2:CR2"/>
-    <mergeCell ref="U8:V9"/>
-    <mergeCell ref="W12:X13"/>
-    <mergeCell ref="W15:X16"/>
-    <mergeCell ref="W18:X19"/>
+    <mergeCell ref="XO2:XP2"/>
+    <mergeCell ref="YW2:YX2"/>
+    <mergeCell ref="AAE2:AAF2"/>
+    <mergeCell ref="ABM2:ABN2"/>
+    <mergeCell ref="ACU2:ACV2"/>
     <mergeCell ref="RA2:RB2"/>
     <mergeCell ref="SI2:SJ2"/>
     <mergeCell ref="TQ2:TR2"/>
     <mergeCell ref="UY2:UZ2"/>
     <mergeCell ref="WG2:WH2"/>
-    <mergeCell ref="KM2:KN2"/>
-    <mergeCell ref="LU2:LV2"/>
-    <mergeCell ref="NC2:ND2"/>
-    <mergeCell ref="OK2:OL2"/>
-    <mergeCell ref="PS2:PT2"/>
+    <mergeCell ref="AKQ2:AKR2"/>
+    <mergeCell ref="ALY2:ALZ2"/>
+    <mergeCell ref="ANG2:ANH2"/>
+    <mergeCell ref="AOO2:AOP2"/>
+    <mergeCell ref="APW2:APX2"/>
     <mergeCell ref="AEC2:AED2"/>
     <mergeCell ref="AFK2:AFL2"/>
     <mergeCell ref="AGS2:AGT2"/>
     <mergeCell ref="AIA2:AIB2"/>
     <mergeCell ref="AJI2:AJJ2"/>
-    <mergeCell ref="XO2:XP2"/>
-    <mergeCell ref="YW2:YX2"/>
-    <mergeCell ref="AAE2:AAF2"/>
-    <mergeCell ref="ABM2:ABN2"/>
-    <mergeCell ref="ACU2:ACV2"/>
+    <mergeCell ref="AXS2:AXT2"/>
+    <mergeCell ref="AZA2:AZB2"/>
+    <mergeCell ref="BAI2:BAJ2"/>
+    <mergeCell ref="BBQ2:BBR2"/>
+    <mergeCell ref="BCY2:BCZ2"/>
     <mergeCell ref="ARE2:ARF2"/>
     <mergeCell ref="ASM2:ASN2"/>
     <mergeCell ref="ATU2:ATV2"/>
     <mergeCell ref="AVC2:AVD2"/>
     <mergeCell ref="AWK2:AWL2"/>
-    <mergeCell ref="AKQ2:AKR2"/>
-    <mergeCell ref="ALY2:ALZ2"/>
-    <mergeCell ref="ANG2:ANH2"/>
-    <mergeCell ref="AOO2:AOP2"/>
-    <mergeCell ref="APW2:APX2"/>
+    <mergeCell ref="BKU2:BKV2"/>
+    <mergeCell ref="BMC2:BMD2"/>
+    <mergeCell ref="BNK2:BNL2"/>
+    <mergeCell ref="BOS2:BOT2"/>
+    <mergeCell ref="BQA2:BQB2"/>
     <mergeCell ref="BEG2:BEH2"/>
     <mergeCell ref="BFO2:BFP2"/>
     <mergeCell ref="BGW2:BGX2"/>
     <mergeCell ref="BIE2:BIF2"/>
     <mergeCell ref="BJM2:BJN2"/>
-    <mergeCell ref="AXS2:AXT2"/>
-    <mergeCell ref="AZA2:AZB2"/>
-    <mergeCell ref="BAI2:BAJ2"/>
-    <mergeCell ref="BBQ2:BBR2"/>
-    <mergeCell ref="BCY2:BCZ2"/>
+    <mergeCell ref="BXW2:BXX2"/>
+    <mergeCell ref="BZE2:BZF2"/>
+    <mergeCell ref="CAM2:CAN2"/>
+    <mergeCell ref="CBU2:CBV2"/>
+    <mergeCell ref="CDC2:CDD2"/>
     <mergeCell ref="BRI2:BRJ2"/>
     <mergeCell ref="BSQ2:BSR2"/>
     <mergeCell ref="BTY2:BTZ2"/>
     <mergeCell ref="BVG2:BVH2"/>
     <mergeCell ref="BWO2:BWP2"/>
-    <mergeCell ref="BKU2:BKV2"/>
-    <mergeCell ref="BMC2:BMD2"/>
-    <mergeCell ref="BNK2:BNL2"/>
-    <mergeCell ref="BOS2:BOT2"/>
-    <mergeCell ref="BQA2:BQB2"/>
+    <mergeCell ref="CKY2:CKZ2"/>
+    <mergeCell ref="CMG2:CMH2"/>
+    <mergeCell ref="CNO2:CNP2"/>
+    <mergeCell ref="COW2:COX2"/>
+    <mergeCell ref="CQE2:CQF2"/>
     <mergeCell ref="CEK2:CEL2"/>
     <mergeCell ref="CFS2:CFT2"/>
     <mergeCell ref="CHA2:CHB2"/>
     <mergeCell ref="CII2:CIJ2"/>
     <mergeCell ref="CJQ2:CJR2"/>
-    <mergeCell ref="BXW2:BXX2"/>
-    <mergeCell ref="BZE2:BZF2"/>
-    <mergeCell ref="CAM2:CAN2"/>
-    <mergeCell ref="CBU2:CBV2"/>
-    <mergeCell ref="CDC2:CDD2"/>
+    <mergeCell ref="CYA2:CYB2"/>
+    <mergeCell ref="CZI2:CZJ2"/>
+    <mergeCell ref="DAQ2:DAR2"/>
+    <mergeCell ref="DBY2:DBZ2"/>
+    <mergeCell ref="DDG2:DDH2"/>
     <mergeCell ref="CRM2:CRN2"/>
     <mergeCell ref="CSU2:CSV2"/>
     <mergeCell ref="CUC2:CUD2"/>
     <mergeCell ref="CVK2:CVL2"/>
     <mergeCell ref="CWS2:CWT2"/>
-    <mergeCell ref="CKY2:CKZ2"/>
-    <mergeCell ref="CMG2:CMH2"/>
-    <mergeCell ref="CNO2:CNP2"/>
-    <mergeCell ref="COW2:COX2"/>
-    <mergeCell ref="CQE2:CQF2"/>
+    <mergeCell ref="DLC2:DLD2"/>
+    <mergeCell ref="DMK2:DML2"/>
+    <mergeCell ref="DNS2:DNT2"/>
+    <mergeCell ref="DPA2:DPB2"/>
+    <mergeCell ref="DQI2:DQJ2"/>
     <mergeCell ref="DEO2:DEP2"/>
     <mergeCell ref="DFW2:DFX2"/>
     <mergeCell ref="DHE2:DHF2"/>
     <mergeCell ref="DIM2:DIN2"/>
     <mergeCell ref="DJU2:DJV2"/>
-    <mergeCell ref="CYA2:CYB2"/>
-    <mergeCell ref="CZI2:CZJ2"/>
-    <mergeCell ref="DAQ2:DAR2"/>
-    <mergeCell ref="DBY2:DBZ2"/>
-    <mergeCell ref="DDG2:DDH2"/>
+    <mergeCell ref="DYE2:DYF2"/>
+    <mergeCell ref="DZM2:DZN2"/>
+    <mergeCell ref="EAU2:EAV2"/>
+    <mergeCell ref="ECC2:ECD2"/>
+    <mergeCell ref="EDK2:EDL2"/>
     <mergeCell ref="DRQ2:DRR2"/>
     <mergeCell ref="DSY2:DSZ2"/>
     <mergeCell ref="DUG2:DUH2"/>
     <mergeCell ref="DVO2:DVP2"/>
     <mergeCell ref="DWW2:DWX2"/>
-    <mergeCell ref="DLC2:DLD2"/>
-    <mergeCell ref="DMK2:DML2"/>
-    <mergeCell ref="DNS2:DNT2"/>
-    <mergeCell ref="DPA2:DPB2"/>
-    <mergeCell ref="DQI2:DQJ2"/>
+    <mergeCell ref="ELG2:ELH2"/>
+    <mergeCell ref="EMO2:EMP2"/>
+    <mergeCell ref="ENW2:ENX2"/>
+    <mergeCell ref="EPE2:EPF2"/>
+    <mergeCell ref="EQM2:EQN2"/>
     <mergeCell ref="EES2:EET2"/>
     <mergeCell ref="EGA2:EGB2"/>
     <mergeCell ref="EHI2:EHJ2"/>
     <mergeCell ref="EIQ2:EIR2"/>
     <mergeCell ref="EJY2:EJZ2"/>
-    <mergeCell ref="DYE2:DYF2"/>
-    <mergeCell ref="DZM2:DZN2"/>
-    <mergeCell ref="EAU2:EAV2"/>
-    <mergeCell ref="ECC2:ECD2"/>
-    <mergeCell ref="EDK2:EDL2"/>
+    <mergeCell ref="EYI2:EYJ2"/>
+    <mergeCell ref="EZQ2:EZR2"/>
+    <mergeCell ref="FAY2:FAZ2"/>
+    <mergeCell ref="FCG2:FCH2"/>
+    <mergeCell ref="FDO2:FDP2"/>
     <mergeCell ref="ERU2:ERV2"/>
     <mergeCell ref="ETC2:ETD2"/>
     <mergeCell ref="EUK2:EUL2"/>
     <mergeCell ref="EVS2:EVT2"/>
     <mergeCell ref="EXA2:EXB2"/>
-    <mergeCell ref="ELG2:ELH2"/>
-    <mergeCell ref="EMO2:EMP2"/>
-    <mergeCell ref="ENW2:ENX2"/>
-    <mergeCell ref="EPE2:EPF2"/>
-    <mergeCell ref="EQM2:EQN2"/>
+    <mergeCell ref="FLK2:FLL2"/>
+    <mergeCell ref="FMS2:FMT2"/>
+    <mergeCell ref="FOA2:FOB2"/>
+    <mergeCell ref="FPI2:FPJ2"/>
+    <mergeCell ref="FQQ2:FQR2"/>
     <mergeCell ref="FEW2:FEX2"/>
     <mergeCell ref="FGE2:FGF2"/>
     <mergeCell ref="FHM2:FHN2"/>
     <mergeCell ref="FIU2:FIV2"/>
     <mergeCell ref="FKC2:FKD2"/>
-    <mergeCell ref="EYI2:EYJ2"/>
-    <mergeCell ref="EZQ2:EZR2"/>
-    <mergeCell ref="FAY2:FAZ2"/>
-    <mergeCell ref="FCG2:FCH2"/>
-    <mergeCell ref="FDO2:FDP2"/>
+    <mergeCell ref="FYM2:FYN2"/>
+    <mergeCell ref="FZU2:FZV2"/>
+    <mergeCell ref="GBC2:GBD2"/>
+    <mergeCell ref="GCK2:GCL2"/>
+    <mergeCell ref="GDS2:GDT2"/>
     <mergeCell ref="FRY2:FRZ2"/>
     <mergeCell ref="FTG2:FTH2"/>
     <mergeCell ref="FUO2:FUP2"/>
     <mergeCell ref="FVW2:FVX2"/>
     <mergeCell ref="FXE2:FXF2"/>
-    <mergeCell ref="FLK2:FLL2"/>
-    <mergeCell ref="FMS2:FMT2"/>
-    <mergeCell ref="FOA2:FOB2"/>
-    <mergeCell ref="FPI2:FPJ2"/>
-    <mergeCell ref="FQQ2:FQR2"/>
+    <mergeCell ref="GLO2:GLP2"/>
+    <mergeCell ref="GMW2:GMX2"/>
+    <mergeCell ref="GOE2:GOF2"/>
+    <mergeCell ref="GPM2:GPN2"/>
+    <mergeCell ref="GQU2:GQV2"/>
     <mergeCell ref="GFA2:GFB2"/>
     <mergeCell ref="GGI2:GGJ2"/>
     <mergeCell ref="GHQ2:GHR2"/>
     <mergeCell ref="GIY2:GIZ2"/>
     <mergeCell ref="GKG2:GKH2"/>
-    <mergeCell ref="FYM2:FYN2"/>
-    <mergeCell ref="FZU2:FZV2"/>
-    <mergeCell ref="GBC2:GBD2"/>
-    <mergeCell ref="GCK2:GCL2"/>
-    <mergeCell ref="GDS2:GDT2"/>
+    <mergeCell ref="GYQ2:GYR2"/>
+    <mergeCell ref="GZY2:GZZ2"/>
+    <mergeCell ref="HBG2:HBH2"/>
+    <mergeCell ref="HCO2:HCP2"/>
+    <mergeCell ref="HDW2:HDX2"/>
     <mergeCell ref="GSC2:GSD2"/>
     <mergeCell ref="GTK2:GTL2"/>
     <mergeCell ref="GUS2:GUT2"/>
     <mergeCell ref="GWA2:GWB2"/>
     <mergeCell ref="GXI2:GXJ2"/>
-    <mergeCell ref="GLO2:GLP2"/>
-    <mergeCell ref="GMW2:GMX2"/>
-    <mergeCell ref="GOE2:GOF2"/>
-    <mergeCell ref="GPM2:GPN2"/>
-    <mergeCell ref="GQU2:GQV2"/>
+    <mergeCell ref="HLS2:HLT2"/>
+    <mergeCell ref="HNA2:HNB2"/>
+    <mergeCell ref="HOI2:HOJ2"/>
+    <mergeCell ref="HPQ2:HPR2"/>
+    <mergeCell ref="HQY2:HQZ2"/>
     <mergeCell ref="HFE2:HFF2"/>
     <mergeCell ref="HGM2:HGN2"/>
     <mergeCell ref="HHU2:HHV2"/>
     <mergeCell ref="HJC2:HJD2"/>
     <mergeCell ref="HKK2:HKL2"/>
-    <mergeCell ref="GYQ2:GYR2"/>
-    <mergeCell ref="GZY2:GZZ2"/>
-    <mergeCell ref="HBG2:HBH2"/>
-    <mergeCell ref="HCO2:HCP2"/>
-    <mergeCell ref="HDW2:HDX2"/>
+    <mergeCell ref="HYU2:HYV2"/>
+    <mergeCell ref="IAC2:IAD2"/>
+    <mergeCell ref="IBK2:IBL2"/>
+    <mergeCell ref="ICS2:ICT2"/>
+    <mergeCell ref="IEA2:IEB2"/>
     <mergeCell ref="HSG2:HSH2"/>
     <mergeCell ref="HTO2:HTP2"/>
     <mergeCell ref="HUW2:HUX2"/>
     <mergeCell ref="HWE2:HWF2"/>
     <mergeCell ref="HXM2:HXN2"/>
-    <mergeCell ref="HLS2:HLT2"/>
-    <mergeCell ref="HNA2:HNB2"/>
-    <mergeCell ref="HOI2:HOJ2"/>
-    <mergeCell ref="HPQ2:HPR2"/>
-    <mergeCell ref="HQY2:HQZ2"/>
+    <mergeCell ref="ILW2:ILX2"/>
+    <mergeCell ref="INE2:INF2"/>
+    <mergeCell ref="IOM2:ION2"/>
+    <mergeCell ref="IPU2:IPV2"/>
+    <mergeCell ref="IRC2:IRD2"/>
     <mergeCell ref="IFI2:IFJ2"/>
     <mergeCell ref="IGQ2:IGR2"/>
     <mergeCell ref="IHY2:IHZ2"/>
     <mergeCell ref="IJG2:IJH2"/>
     <mergeCell ref="IKO2:IKP2"/>
-    <mergeCell ref="HYU2:HYV2"/>
-    <mergeCell ref="IAC2:IAD2"/>
-    <mergeCell ref="IBK2:IBL2"/>
-    <mergeCell ref="ICS2:ICT2"/>
-    <mergeCell ref="IEA2:IEB2"/>
+    <mergeCell ref="IYY2:IYZ2"/>
+    <mergeCell ref="JAG2:JAH2"/>
+    <mergeCell ref="JBO2:JBP2"/>
+    <mergeCell ref="JCW2:JCX2"/>
+    <mergeCell ref="JEE2:JEF2"/>
     <mergeCell ref="ISK2:ISL2"/>
     <mergeCell ref="ITS2:ITT2"/>
     <mergeCell ref="IVA2:IVB2"/>
     <mergeCell ref="IWI2:IWJ2"/>
     <mergeCell ref="IXQ2:IXR2"/>
-    <mergeCell ref="ILW2:ILX2"/>
-    <mergeCell ref="INE2:INF2"/>
-    <mergeCell ref="IOM2:ION2"/>
-    <mergeCell ref="IPU2:IPV2"/>
-    <mergeCell ref="IRC2:IRD2"/>
+    <mergeCell ref="JMA2:JMB2"/>
+    <mergeCell ref="JNI2:JNJ2"/>
+    <mergeCell ref="JOQ2:JOR2"/>
+    <mergeCell ref="JPY2:JPZ2"/>
+    <mergeCell ref="JRG2:JRH2"/>
     <mergeCell ref="JFM2:JFN2"/>
     <mergeCell ref="JGU2:JGV2"/>
     <mergeCell ref="JIC2:JID2"/>
     <mergeCell ref="JJK2:JJL2"/>
     <mergeCell ref="JKS2:JKT2"/>
-    <mergeCell ref="IYY2:IYZ2"/>
-    <mergeCell ref="JAG2:JAH2"/>
-    <mergeCell ref="JBO2:JBP2"/>
-    <mergeCell ref="JCW2:JCX2"/>
-    <mergeCell ref="JEE2:JEF2"/>
+    <mergeCell ref="JZC2:JZD2"/>
+    <mergeCell ref="KAK2:KAL2"/>
+    <mergeCell ref="KBS2:KBT2"/>
+    <mergeCell ref="KDA2:KDB2"/>
+    <mergeCell ref="KEI2:KEJ2"/>
     <mergeCell ref="JSO2:JSP2"/>
     <mergeCell ref="JTW2:JTX2"/>
     <mergeCell ref="JVE2:JVF2"/>
     <mergeCell ref="JWM2:JWN2"/>
     <mergeCell ref="JXU2:JXV2"/>
-    <mergeCell ref="JMA2:JMB2"/>
-    <mergeCell ref="JNI2:JNJ2"/>
-    <mergeCell ref="JOQ2:JOR2"/>
-    <mergeCell ref="JPY2:JPZ2"/>
-    <mergeCell ref="JRG2:JRH2"/>
+    <mergeCell ref="KME2:KMF2"/>
+    <mergeCell ref="KNM2:KNN2"/>
+    <mergeCell ref="KOU2:KOV2"/>
+    <mergeCell ref="KQC2:KQD2"/>
+    <mergeCell ref="KRK2:KRL2"/>
     <mergeCell ref="KFQ2:KFR2"/>
     <mergeCell ref="KGY2:KGZ2"/>
     <mergeCell ref="KIG2:KIH2"/>
     <mergeCell ref="KJO2:KJP2"/>
     <mergeCell ref="KKW2:KKX2"/>
-    <mergeCell ref="JZC2:JZD2"/>
-    <mergeCell ref="KAK2:KAL2"/>
-    <mergeCell ref="KBS2:KBT2"/>
-    <mergeCell ref="KDA2:KDB2"/>
-    <mergeCell ref="KEI2:KEJ2"/>
+    <mergeCell ref="KZG2:KZH2"/>
+    <mergeCell ref="LAO2:LAP2"/>
+    <mergeCell ref="LBW2:LBX2"/>
+    <mergeCell ref="LDE2:LDF2"/>
+    <mergeCell ref="LEM2:LEN2"/>
     <mergeCell ref="KSS2:KST2"/>
     <mergeCell ref="KUA2:KUB2"/>
     <mergeCell ref="KVI2:KVJ2"/>
     <mergeCell ref="KWQ2:KWR2"/>
     <mergeCell ref="KXY2:KXZ2"/>
-    <mergeCell ref="KME2:KMF2"/>
-    <mergeCell ref="KNM2:KNN2"/>
-    <mergeCell ref="KOU2:KOV2"/>
-    <mergeCell ref="KQC2:KQD2"/>
-    <mergeCell ref="KRK2:KRL2"/>
+    <mergeCell ref="LMI2:LMJ2"/>
+    <mergeCell ref="LNQ2:LNR2"/>
+    <mergeCell ref="LOY2:LOZ2"/>
+    <mergeCell ref="LQG2:LQH2"/>
+    <mergeCell ref="LRO2:LRP2"/>
     <mergeCell ref="LFU2:LFV2"/>
     <mergeCell ref="LHC2:LHD2"/>
     <mergeCell ref="LIK2:LIL2"/>
     <mergeCell ref="LJS2:LJT2"/>
     <mergeCell ref="LLA2:LLB2"/>
-    <mergeCell ref="KZG2:KZH2"/>
-    <mergeCell ref="LAO2:LAP2"/>
-    <mergeCell ref="LBW2:LBX2"/>
-    <mergeCell ref="LDE2:LDF2"/>
-    <mergeCell ref="LEM2:LEN2"/>
+    <mergeCell ref="LZK2:LZL2"/>
+    <mergeCell ref="MAS2:MAT2"/>
+    <mergeCell ref="MCA2:MCB2"/>
+    <mergeCell ref="MDI2:MDJ2"/>
+    <mergeCell ref="MEQ2:MER2"/>
     <mergeCell ref="LSW2:LSX2"/>
     <mergeCell ref="LUE2:LUF2"/>
     <mergeCell ref="LVM2:LVN2"/>
     <mergeCell ref="LWU2:LWV2"/>
     <mergeCell ref="LYC2:LYD2"/>
-    <mergeCell ref="LMI2:LMJ2"/>
-    <mergeCell ref="LNQ2:LNR2"/>
-    <mergeCell ref="LOY2:LOZ2"/>
-    <mergeCell ref="LQG2:LQH2"/>
-    <mergeCell ref="LRO2:LRP2"/>
+    <mergeCell ref="MMM2:MMN2"/>
+    <mergeCell ref="MNU2:MNV2"/>
+    <mergeCell ref="MPC2:MPD2"/>
+    <mergeCell ref="MQK2:MQL2"/>
+    <mergeCell ref="MRS2:MRT2"/>
     <mergeCell ref="MFY2:MFZ2"/>
     <mergeCell ref="MHG2:MHH2"/>
     <mergeCell ref="MIO2:MIP2"/>
     <mergeCell ref="MJW2:MJX2"/>
     <mergeCell ref="MLE2:MLF2"/>
-    <mergeCell ref="LZK2:LZL2"/>
-    <mergeCell ref="MAS2:MAT2"/>
-    <mergeCell ref="MCA2:MCB2"/>
-    <mergeCell ref="MDI2:MDJ2"/>
-    <mergeCell ref="MEQ2:MER2"/>
+    <mergeCell ref="MZO2:MZP2"/>
+    <mergeCell ref="NAW2:NAX2"/>
+    <mergeCell ref="NCE2:NCF2"/>
+    <mergeCell ref="NDM2:NDN2"/>
+    <mergeCell ref="NEU2:NEV2"/>
     <mergeCell ref="MTA2:MTB2"/>
     <mergeCell ref="MUI2:MUJ2"/>
     <mergeCell ref="MVQ2:MVR2"/>
     <mergeCell ref="MWY2:MWZ2"/>
     <mergeCell ref="MYG2:MYH2"/>
-    <mergeCell ref="MMM2:MMN2"/>
-    <mergeCell ref="MNU2:MNV2"/>
-    <mergeCell ref="MPC2:MPD2"/>
-    <mergeCell ref="MQK2:MQL2"/>
-    <mergeCell ref="MRS2:MRT2"/>
+    <mergeCell ref="NMQ2:NMR2"/>
+    <mergeCell ref="NNY2:NNZ2"/>
+    <mergeCell ref="NPG2:NPH2"/>
+    <mergeCell ref="NQO2:NQP2"/>
+    <mergeCell ref="NRW2:NRX2"/>
     <mergeCell ref="NGC2:NGD2"/>
     <mergeCell ref="NHK2:NHL2"/>
     <mergeCell ref="NIS2:NIT2"/>
     <mergeCell ref="NKA2:NKB2"/>
     <mergeCell ref="NLI2:NLJ2"/>
-    <mergeCell ref="MZO2:MZP2"/>
-    <mergeCell ref="NAW2:NAX2"/>
-    <mergeCell ref="NCE2:NCF2"/>
-    <mergeCell ref="NDM2:NDN2"/>
-    <mergeCell ref="NEU2:NEV2"/>
+    <mergeCell ref="NZS2:NZT2"/>
+    <mergeCell ref="OBA2:OBB2"/>
+    <mergeCell ref="OCI2:OCJ2"/>
+    <mergeCell ref="ODQ2:ODR2"/>
+    <mergeCell ref="OEY2:OEZ2"/>
     <mergeCell ref="NTE2:NTF2"/>
     <mergeCell ref="NUM2:NUN2"/>
     <mergeCell ref="NVU2:NVV2"/>
     <mergeCell ref="NXC2:NXD2"/>
     <mergeCell ref="NYK2:NYL2"/>
-    <mergeCell ref="NMQ2:NMR2"/>
-    <mergeCell ref="NNY2:NNZ2"/>
-    <mergeCell ref="NPG2:NPH2"/>
-    <mergeCell ref="NQO2:NQP2"/>
-    <mergeCell ref="NRW2:NRX2"/>
+    <mergeCell ref="OMU2:OMV2"/>
+    <mergeCell ref="OOC2:OOD2"/>
+    <mergeCell ref="OPK2:OPL2"/>
+    <mergeCell ref="OQS2:OQT2"/>
+    <mergeCell ref="OSA2:OSB2"/>
     <mergeCell ref="OGG2:OGH2"/>
     <mergeCell ref="OHO2:OHP2"/>
     <mergeCell ref="OIW2:OIX2"/>
     <mergeCell ref="OKE2:OKF2"/>
     <mergeCell ref="OLM2:OLN2"/>
-    <mergeCell ref="NZS2:NZT2"/>
-    <mergeCell ref="OBA2:OBB2"/>
-    <mergeCell ref="OCI2:OCJ2"/>
-    <mergeCell ref="ODQ2:ODR2"/>
-    <mergeCell ref="OEY2:OEZ2"/>
+    <mergeCell ref="OZW2:OZX2"/>
+    <mergeCell ref="PBE2:PBF2"/>
+    <mergeCell ref="PCM2:PCN2"/>
+    <mergeCell ref="PDU2:PDV2"/>
+    <mergeCell ref="PFC2:PFD2"/>
     <mergeCell ref="OTI2:OTJ2"/>
     <mergeCell ref="OUQ2:OUR2"/>
     <mergeCell ref="OVY2:OVZ2"/>
     <mergeCell ref="OXG2:OXH2"/>
     <mergeCell ref="OYO2:OYP2"/>
-    <mergeCell ref="OMU2:OMV2"/>
-    <mergeCell ref="OOC2:OOD2"/>
-    <mergeCell ref="OPK2:OPL2"/>
-    <mergeCell ref="OQS2:OQT2"/>
-    <mergeCell ref="OSA2:OSB2"/>
+    <mergeCell ref="PMY2:PMZ2"/>
+    <mergeCell ref="POG2:POH2"/>
+    <mergeCell ref="PPO2:PPP2"/>
+    <mergeCell ref="PQW2:PQX2"/>
+    <mergeCell ref="PSE2:PSF2"/>
     <mergeCell ref="PGK2:PGL2"/>
     <mergeCell ref="PHS2:PHT2"/>
     <mergeCell ref="PJA2:PJB2"/>
     <mergeCell ref="PKI2:PKJ2"/>
     <mergeCell ref="PLQ2:PLR2"/>
-    <mergeCell ref="OZW2:OZX2"/>
-    <mergeCell ref="PBE2:PBF2"/>
-    <mergeCell ref="PCM2:PCN2"/>
-    <mergeCell ref="PDU2:PDV2"/>
-    <mergeCell ref="PFC2:PFD2"/>
+    <mergeCell ref="QAA2:QAB2"/>
+    <mergeCell ref="QBI2:QBJ2"/>
+    <mergeCell ref="QCQ2:QCR2"/>
+    <mergeCell ref="QDY2:QDZ2"/>
+    <mergeCell ref="QFG2:QFH2"/>
     <mergeCell ref="PTM2:PTN2"/>
     <mergeCell ref="PUU2:PUV2"/>
     <mergeCell ref="PWC2:PWD2"/>
     <mergeCell ref="PXK2:PXL2"/>
     <mergeCell ref="PYS2:PYT2"/>
-    <mergeCell ref="PMY2:PMZ2"/>
-    <mergeCell ref="POG2:POH2"/>
-    <mergeCell ref="PPO2:PPP2"/>
-    <mergeCell ref="PQW2:PQX2"/>
-    <mergeCell ref="PSE2:PSF2"/>
+    <mergeCell ref="QNC2:QND2"/>
+    <mergeCell ref="QOK2:QOL2"/>
+    <mergeCell ref="QPS2:QPT2"/>
+    <mergeCell ref="QRA2:QRB2"/>
+    <mergeCell ref="QSI2:QSJ2"/>
     <mergeCell ref="QGO2:QGP2"/>
     <mergeCell ref="QHW2:QHX2"/>
     <mergeCell ref="QJE2:QJF2"/>
     <mergeCell ref="QKM2:QKN2"/>
     <mergeCell ref="QLU2:QLV2"/>
-    <mergeCell ref="QAA2:QAB2"/>
-    <mergeCell ref="QBI2:QBJ2"/>
-    <mergeCell ref="QCQ2:QCR2"/>
-    <mergeCell ref="QDY2:QDZ2"/>
-    <mergeCell ref="QFG2:QFH2"/>
+    <mergeCell ref="RAE2:RAF2"/>
+    <mergeCell ref="RBM2:RBN2"/>
+    <mergeCell ref="RCU2:RCV2"/>
+    <mergeCell ref="REC2:RED2"/>
+    <mergeCell ref="RFK2:RFL2"/>
     <mergeCell ref="QTQ2:QTR2"/>
     <mergeCell ref="QUY2:QUZ2"/>
     <mergeCell ref="QWG2:QWH2"/>
     <mergeCell ref="QXO2:QXP2"/>
     <mergeCell ref="QYW2:QYX2"/>
-    <mergeCell ref="QNC2:QND2"/>
-    <mergeCell ref="QOK2:QOL2"/>
-    <mergeCell ref="QPS2:QPT2"/>
-    <mergeCell ref="QRA2:QRB2"/>
-    <mergeCell ref="QSI2:QSJ2"/>
+    <mergeCell ref="RNG2:RNH2"/>
+    <mergeCell ref="ROO2:ROP2"/>
+    <mergeCell ref="RPW2:RPX2"/>
+    <mergeCell ref="RRE2:RRF2"/>
+    <mergeCell ref="RSM2:RSN2"/>
     <mergeCell ref="RGS2:RGT2"/>
     <mergeCell ref="RIA2:RIB2"/>
     <mergeCell ref="RJI2:RJJ2"/>
     <mergeCell ref="RKQ2:RKR2"/>
     <mergeCell ref="RLY2:RLZ2"/>
-    <mergeCell ref="RAE2:RAF2"/>
-    <mergeCell ref="RBM2:RBN2"/>
-    <mergeCell ref="RCU2:RCV2"/>
-    <mergeCell ref="REC2:RED2"/>
-    <mergeCell ref="RFK2:RFL2"/>
+    <mergeCell ref="SAI2:SAJ2"/>
+    <mergeCell ref="SBQ2:SBR2"/>
+    <mergeCell ref="SCY2:SCZ2"/>
+    <mergeCell ref="SEG2:SEH2"/>
+    <mergeCell ref="SFO2:SFP2"/>
     <mergeCell ref="RTU2:RTV2"/>
     <mergeCell ref="RVC2:RVD2"/>
     <mergeCell ref="RWK2:RWL2"/>
     <mergeCell ref="RXS2:RXT2"/>
     <mergeCell ref="RZA2:RZB2"/>
-    <mergeCell ref="RNG2:RNH2"/>
-    <mergeCell ref="ROO2:ROP2"/>
-    <mergeCell ref="RPW2:RPX2"/>
-    <mergeCell ref="RRE2:RRF2"/>
-    <mergeCell ref="RSM2:RSN2"/>
+    <mergeCell ref="SNK2:SNL2"/>
+    <mergeCell ref="SOS2:SOT2"/>
+    <mergeCell ref="SQA2:SQB2"/>
+    <mergeCell ref="SRI2:SRJ2"/>
+    <mergeCell ref="SSQ2:SSR2"/>
     <mergeCell ref="SGW2:SGX2"/>
     <mergeCell ref="SIE2:SIF2"/>
     <mergeCell ref="SJM2:SJN2"/>
     <mergeCell ref="SKU2:SKV2"/>
     <mergeCell ref="SMC2:SMD2"/>
-    <mergeCell ref="SAI2:SAJ2"/>
-    <mergeCell ref="SBQ2:SBR2"/>
-    <mergeCell ref="SCY2:SCZ2"/>
-    <mergeCell ref="SEG2:SEH2"/>
-    <mergeCell ref="SFO2:SFP2"/>
+    <mergeCell ref="TAM2:TAN2"/>
+    <mergeCell ref="TBU2:TBV2"/>
+    <mergeCell ref="TDC2:TDD2"/>
+    <mergeCell ref="TEK2:TEL2"/>
+    <mergeCell ref="TFS2:TFT2"/>
     <mergeCell ref="STY2:STZ2"/>
     <mergeCell ref="SVG2:SVH2"/>
     <mergeCell ref="SWO2:SWP2"/>
     <mergeCell ref="SXW2:SXX2"/>
     <mergeCell ref="SZE2:SZF2"/>
-    <mergeCell ref="SNK2:SNL2"/>
-    <mergeCell ref="SOS2:SOT2"/>
-    <mergeCell ref="SQA2:SQB2"/>
-    <mergeCell ref="SRI2:SRJ2"/>
-    <mergeCell ref="SSQ2:SSR2"/>
+    <mergeCell ref="TNO2:TNP2"/>
+    <mergeCell ref="TOW2:TOX2"/>
+    <mergeCell ref="TQE2:TQF2"/>
+    <mergeCell ref="TRM2:TRN2"/>
+    <mergeCell ref="TSU2:TSV2"/>
     <mergeCell ref="THA2:THB2"/>
     <mergeCell ref="TII2:TIJ2"/>
     <mergeCell ref="TJQ2:TJR2"/>
     <mergeCell ref="TKY2:TKZ2"/>
     <mergeCell ref="TMG2:TMH2"/>
-    <mergeCell ref="TAM2:TAN2"/>
-    <mergeCell ref="TBU2:TBV2"/>
-    <mergeCell ref="TDC2:TDD2"/>
-    <mergeCell ref="TEK2:TEL2"/>
-    <mergeCell ref="TFS2:TFT2"/>
+    <mergeCell ref="UAQ2:UAR2"/>
+    <mergeCell ref="UBY2:UBZ2"/>
+    <mergeCell ref="UDG2:UDH2"/>
+    <mergeCell ref="UEO2:UEP2"/>
+    <mergeCell ref="UFW2:UFX2"/>
     <mergeCell ref="TUC2:TUD2"/>
     <mergeCell ref="TVK2:TVL2"/>
     <mergeCell ref="TWS2:TWT2"/>
     <mergeCell ref="TYA2:TYB2"/>
     <mergeCell ref="TZI2:TZJ2"/>
-    <mergeCell ref="TNO2:TNP2"/>
-    <mergeCell ref="TOW2:TOX2"/>
-    <mergeCell ref="TQE2:TQF2"/>
-    <mergeCell ref="TRM2:TRN2"/>
-    <mergeCell ref="TSU2:TSV2"/>
+    <mergeCell ref="UNS2:UNT2"/>
+    <mergeCell ref="UPA2:UPB2"/>
+    <mergeCell ref="UQI2:UQJ2"/>
+    <mergeCell ref="URQ2:URR2"/>
+    <mergeCell ref="USY2:USZ2"/>
     <mergeCell ref="UHE2:UHF2"/>
     <mergeCell ref="UIM2:UIN2"/>
     <mergeCell ref="UJU2:UJV2"/>
     <mergeCell ref="ULC2:ULD2"/>
     <mergeCell ref="UMK2:UML2"/>
-    <mergeCell ref="UAQ2:UAR2"/>
-    <mergeCell ref="UBY2:UBZ2"/>
-    <mergeCell ref="UDG2:UDH2"/>
-    <mergeCell ref="UEO2:UEP2"/>
-    <mergeCell ref="UFW2:UFX2"/>
+    <mergeCell ref="VAU2:VAV2"/>
+    <mergeCell ref="VCC2:VCD2"/>
+    <mergeCell ref="VDK2:VDL2"/>
+    <mergeCell ref="VES2:VET2"/>
+    <mergeCell ref="VGA2:VGB2"/>
     <mergeCell ref="UUG2:UUH2"/>
     <mergeCell ref="UVO2:UVP2"/>
     <mergeCell ref="UWW2:UWX2"/>
     <mergeCell ref="UYE2:UYF2"/>
     <mergeCell ref="UZM2:UZN2"/>
-    <mergeCell ref="UNS2:UNT2"/>
-    <mergeCell ref="UPA2:UPB2"/>
-    <mergeCell ref="UQI2:UQJ2"/>
-    <mergeCell ref="URQ2:URR2"/>
-    <mergeCell ref="USY2:USZ2"/>
+    <mergeCell ref="VNW2:VNX2"/>
+    <mergeCell ref="VPE2:VPF2"/>
+    <mergeCell ref="VQM2:VQN2"/>
+    <mergeCell ref="VRU2:VRV2"/>
+    <mergeCell ref="VTC2:VTD2"/>
     <mergeCell ref="VHI2:VHJ2"/>
     <mergeCell ref="VIQ2:VIR2"/>
     <mergeCell ref="VJY2:VJZ2"/>
     <mergeCell ref="VLG2:VLH2"/>
     <mergeCell ref="VMO2:VMP2"/>
-    <mergeCell ref="VAU2:VAV2"/>
-    <mergeCell ref="VCC2:VCD2"/>
-    <mergeCell ref="VDK2:VDL2"/>
-    <mergeCell ref="VES2:VET2"/>
-    <mergeCell ref="VGA2:VGB2"/>
+    <mergeCell ref="WAY2:WAZ2"/>
+    <mergeCell ref="WCG2:WCH2"/>
+    <mergeCell ref="WDO2:WDP2"/>
     <mergeCell ref="WEW2:WEX2"/>
     <mergeCell ref="WGE2:WGF2"/>
     <mergeCell ref="VUK2:VUL2"/>
@@ -7923,12 +7882,11 @@
     <mergeCell ref="VXA2:VXB2"/>
     <mergeCell ref="VYI2:VYJ2"/>
     <mergeCell ref="VZQ2:VZR2"/>
-    <mergeCell ref="VNW2:VNX2"/>
-    <mergeCell ref="VPE2:VPF2"/>
-    <mergeCell ref="VQM2:VQN2"/>
-    <mergeCell ref="VRU2:VRV2"/>
-    <mergeCell ref="VTC2:VTD2"/>
-    <mergeCell ref="I2:R3"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="S21:T22"/>
+    <mergeCell ref="S24:T25"/>
+    <mergeCell ref="E2:N3"/>
     <mergeCell ref="XBC2:XBD2"/>
     <mergeCell ref="XCK2:XCL2"/>
     <mergeCell ref="XDS2:XDT2"/>
@@ -7948,9 +7906,6 @@
     <mergeCell ref="WKC2:WKD2"/>
     <mergeCell ref="WLK2:WLL2"/>
     <mergeCell ref="WMS2:WMT2"/>
-    <mergeCell ref="WAY2:WAZ2"/>
-    <mergeCell ref="WCG2:WCH2"/>
-    <mergeCell ref="WDO2:WDP2"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="80" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7973,13 +7928,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.45">
@@ -7987,7 +7942,7 @@
         <v>45624</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.45">
@@ -7995,7 +7950,7 @@
         <v>45632</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.45">
@@ -8003,7 +7958,7 @@
         <v>45642</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
@@ -8011,10 +7966,10 @@
         <v>45691</v>
       </c>
       <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
@@ -8022,7 +7977,7 @@
         <v>45366</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
@@ -8030,7 +7985,7 @@
         <v>45368</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
@@ -8038,7 +7993,7 @@
         <v>45371</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
@@ -8046,7 +8001,7 @@
         <v>45453</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
@@ -8054,7 +8009,7 @@
         <v>45456</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
@@ -8062,7 +8017,7 @@
         <v>45461</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
@@ -8070,7 +8025,7 @@
         <v>45468</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -8098,19 +8053,19 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -8139,58 +8094,58 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="H2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="12" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -8210,26 +8165,26 @@
   <sheetData>
     <row r="2" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="2:15" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="32"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="74"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="G5" s="1"/>
@@ -8256,26 +8211,26 @@
       <c r="L8" s="2"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B9" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="58"/>
-      <c r="G9" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="58"/>
-      <c r="L9" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="58"/>
+      <c r="B9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="G9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="L9" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="44"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="60"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C11" s="6"/>
@@ -8289,31 +8244,31 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C13" s="7"/>
-      <c r="D13" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="62"/>
+      <c r="D13" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="66"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="62"/>
+      <c r="I13" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="66"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" s="62"/>
+      <c r="N13" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="66"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C14" s="6"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="64"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="64"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="68"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="64"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="68"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C15" s="6"/>
@@ -8322,31 +8277,31 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="C16" s="7"/>
-      <c r="D16" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="62"/>
+      <c r="D16" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="66"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="62"/>
+      <c r="I16" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="66"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="O16" s="62"/>
+      <c r="N16" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="O16" s="66"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C17" s="6"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="64"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="64"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="68"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="64"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="68"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C18" s="6"/>
@@ -8355,31 +8310,31 @@
     </row>
     <row r="19" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C19" s="7"/>
-      <c r="D19" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="62"/>
+      <c r="D19" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="66"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="62"/>
+      <c r="I19" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="66"/>
       <c r="M19" s="7"/>
-      <c r="N19" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" s="62"/>
+      <c r="N19" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="66"/>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C20" s="6"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="68"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="64"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="64"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="68"/>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C21" s="6"/>
@@ -8388,28 +8343,28 @@
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C22" s="7"/>
-      <c r="D22" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="62"/>
+      <c r="D22" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="66"/>
       <c r="H22" s="7"/>
-      <c r="I22" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="62"/>
+      <c r="I22" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="66"/>
       <c r="M22" s="7"/>
-      <c r="N22" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="O22" s="62"/>
+      <c r="N22" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="66"/>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="D23" s="63"/>
-      <c r="E23" s="64"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="64"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="64"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="68"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="16">
